--- a/Excel/작업Stage.xlsx
+++ b/Excel/작업Stage.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F563D2-4FA4-4E4B-982E-B3FEE7182C13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D96793B-E03D-445B-BD98-F54EFE04BF4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
-    <sheet name="MapGroupTable" sheetId="4" r:id="rId2"/>
-    <sheet name="MonsterTable" sheetId="2" r:id="rId3"/>
+    <sheet name="MonsterTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="57">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,158 +139,90 @@
     <t>Monster023</t>
   </si>
   <si>
-    <t>Chapter001MiddleBoss01, Chapter001MiddleBoss02, Chapter001MiddleBoss03, Chapter001MiddleBoss04</t>
+    <t>overridingMap|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AngelChatper001</t>
+    <t>grouping|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chapter001Jaco101, Chapter001Jaco102, Chapter001Jaco104</t>
+    <t>firstFixedMap|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chapter001Jaco103</t>
+    <t>addRandomMap|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MapOverriding</t>
+    <t>Jaco03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chapter01Stage01to10</t>
+    <t>Jaco04</t>
+  </si>
+  <si>
+    <t>Jaco06</t>
+  </si>
+  <si>
+    <t>Jaco07</t>
+  </si>
+  <si>
+    <t>Jaco08</t>
+  </si>
+  <si>
+    <t>Jaco09</t>
+  </si>
+  <si>
+    <t>Jaco01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>availableMap|String</t>
+    <t>Jaco02</t>
+  </si>
+  <si>
+    <t>Angel01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mapGroup|String</t>
+    <t>Middle01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chapter01MiddleBoss</t>
+    <t>Jaco01_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chapter01FinalBoss</t>
+    <t>Jaco10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chapter001FinalBoss</t>
+    <t>Jaco11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chapter01Stage11to20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Jaco12</t>
   </si>
   <si>
-    <t>Chapter01Stage21to30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Jaco13</t>
   </si>
   <si>
-    <t>Chapter01Stage31to40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Jaco14</t>
   </si>
   <si>
-    <t>Chapter01Stage41to50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Jaco15</t>
   </si>
   <si>
-    <t>맵이름2, 맵이름8, 맵이름9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Jaco16</t>
   </si>
   <si>
-    <t>맵이름1, 맵이름2, 맵이름5, 맵이름7, 맵이름11, 맵이름9, 맵이름8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Jaco17</t>
   </si>
   <si>
-    <t>Boss01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Jaco18</t>
   </si>
   <si>
-    <t>firstAccumulMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>챕터1중보1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>챕터1중보2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔몹02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔몹03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔몹04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중보01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔몹05</t>
-  </si>
-  <si>
-    <t>잔몹06</t>
-  </si>
-  <si>
-    <t>잔몹07</t>
-  </si>
-  <si>
-    <t>잔몹08</t>
-  </si>
-  <si>
-    <t>잔몹09</t>
-  </si>
-  <si>
-    <t>그룹핑컬럼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중보02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔몹01_1, 잔몹01_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addRandomMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstFixedMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>overridingMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블라블라iD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵프리팹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽프리팹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스폰깃발프리팹</t>
+    <t>Middle02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD089199-7F78-438F-98D3-F9F9DD953178}">
-  <dimension ref="A1:R451"/>
+  <dimension ref="A1:J451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -668,12 +599,14 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="24.125" customWidth="1"/>
-    <col min="10" max="10" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -692,29 +625,20 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>"Stage"&amp;TEXT(B2*100+C2,"00000")</f>
         <v>Stage00101</v>
@@ -734,20 +658,17 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">"Stage"&amp;TEXT(B3*100+C3,"00000")</f>
         <v>Stage00102</v>
@@ -767,20 +688,14 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Stage00103</v>
@@ -801,20 +716,14 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Stage00104</v>
@@ -835,23 +744,14 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
         <v>37</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="R5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Stage00105</v>
@@ -872,20 +772,14 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Stage00106</v>
@@ -905,23 +799,14 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>58</v>
-      </c>
-      <c r="R7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Stage00107</v>
@@ -941,20 +826,14 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Stage00108</v>
@@ -974,20 +853,14 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Stage00109</v>
@@ -1007,20 +880,14 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Stage00110</v>
@@ -1040,20 +907,14 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11">
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11">
         <v>11</v>
       </c>
-      <c r="N11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Stage00111</v>
@@ -1074,14 +935,14 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
       <c r="I12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Stage00112</v>
@@ -1102,14 +963,14 @@
       <c r="F13">
         <v>0</v>
       </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
       <c r="I13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Stage00113</v>
@@ -1130,14 +991,14 @@
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
       <c r="I14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Stage00114</v>
@@ -1158,14 +1019,14 @@
       <c r="F15">
         <v>0</v>
       </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Stage00115</v>
@@ -1186,14 +1047,14 @@
       <c r="F16">
         <v>0</v>
       </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
       <c r="I16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Stage00116</v>
@@ -1214,11 +1075,14 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="H17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Stage00117</v>
@@ -1239,11 +1103,14 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="M18">
+      <c r="H18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Stage00118</v>
@@ -1264,11 +1131,14 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="M19">
+      <c r="H19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Stage00119</v>
@@ -1289,11 +1159,14 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="M20">
+      <c r="H20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Stage00120</v>
@@ -1314,17 +1187,14 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="H21" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21">
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21">
         <v>11</v>
       </c>
-      <c r="N21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Stage00121</v>
@@ -1345,8 +1215,11 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Stage00122</v>
@@ -1367,8 +1240,11 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Stage00123</v>
@@ -1389,8 +1265,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Stage00124</v>
@@ -1411,8 +1290,11 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Stage00125</v>
@@ -1433,8 +1315,11 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Stage00126</v>
@@ -1455,8 +1340,11 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Stage00127</v>
@@ -1477,8 +1365,11 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Stage00128</v>
@@ -1499,8 +1390,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Stage00129</v>
@@ -1521,8 +1415,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Stage00130</v>
@@ -1543,17 +1440,11 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>3</v>
-      </c>
-      <c r="I31" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Stage00131</v>
@@ -1574,8 +1465,11 @@
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Stage00132</v>
@@ -1596,8 +1490,11 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Stage00133</v>
@@ -1618,8 +1515,11 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Stage00134</v>
@@ -1640,8 +1540,11 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Stage00135</v>
@@ -1662,8 +1565,11 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Stage00136</v>
@@ -1684,8 +1590,11 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Stage00137</v>
@@ -1706,8 +1615,11 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Stage00138</v>
@@ -1728,8 +1640,11 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Stage00139</v>
@@ -1750,8 +1665,11 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Stage00140</v>
@@ -1772,14 +1690,11 @@
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>4</v>
-      </c>
-      <c r="I41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Stage00141</v>
@@ -1800,8 +1715,11 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Stage00142</v>
@@ -1822,8 +1740,11 @@
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Stage00143</v>
@@ -1844,8 +1765,11 @@
       <c r="F44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Stage00144</v>
@@ -1866,8 +1790,11 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Stage00145</v>
@@ -1888,8 +1815,11 @@
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Stage00146</v>
@@ -1910,8 +1840,11 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Stage00147</v>
@@ -1932,8 +1865,11 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Stage00148</v>
@@ -1954,8 +1890,11 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Stage00149</v>
@@ -1976,8 +1915,11 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Stage00150</v>
@@ -1998,11 +1940,11 @@
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="J51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Stage00201</v>
@@ -2023,8 +1965,11 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Stage00202</v>
@@ -2045,8 +1990,11 @@
       <c r="F53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Stage00203</v>
@@ -2067,8 +2015,11 @@
       <c r="F54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Stage00204</v>
@@ -2089,8 +2040,11 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Stage00205</v>
@@ -2111,8 +2065,11 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Stage00206</v>
@@ -2133,8 +2090,11 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Stage00207</v>
@@ -2155,8 +2115,11 @@
       <c r="F58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Stage00208</v>
@@ -2177,8 +2140,11 @@
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Stage00209</v>
@@ -2199,8 +2165,11 @@
       <c r="F60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Stage00210</v>
@@ -2221,8 +2190,11 @@
       <c r="F61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Stage00211</v>
@@ -2243,8 +2215,11 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Stage00212</v>
@@ -2265,8 +2240,11 @@
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Stage00213</v>
@@ -2287,8 +2265,11 @@
       <c r="F64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Stage00214</v>
@@ -2309,8 +2290,11 @@
       <c r="F65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>Stage00215</v>
@@ -2331,8 +2315,11 @@
       <c r="F66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A130" si="4">"Stage"&amp;TEXT(B67*100+C67,"00000")</f>
         <v>Stage00216</v>
@@ -2353,8 +2340,11 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="4"/>
         <v>Stage00217</v>
@@ -2375,8 +2365,11 @@
       <c r="F68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="4"/>
         <v>Stage00218</v>
@@ -2397,8 +2390,11 @@
       <c r="F69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="4"/>
         <v>Stage00219</v>
@@ -2419,8 +2415,11 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="4"/>
         <v>Stage00220</v>
@@ -2441,8 +2440,11 @@
       <c r="F71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="4"/>
         <v>Stage00221</v>
@@ -2463,8 +2465,11 @@
       <c r="F72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="4"/>
         <v>Stage00222</v>
@@ -2485,8 +2490,11 @@
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="4"/>
         <v>Stage00223</v>
@@ -2507,8 +2515,11 @@
       <c r="F74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="4"/>
         <v>Stage00224</v>
@@ -2529,8 +2540,11 @@
       <c r="F75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="4"/>
         <v>Stage00225</v>
@@ -2551,8 +2565,11 @@
       <c r="F76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="4"/>
         <v>Stage00226</v>
@@ -2573,8 +2590,11 @@
       <c r="F77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="4"/>
         <v>Stage00227</v>
@@ -2595,8 +2615,11 @@
       <c r="F78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="4"/>
         <v>Stage00228</v>
@@ -2617,8 +2640,11 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="4"/>
         <v>Stage00229</v>
@@ -2639,8 +2665,11 @@
       <c r="F80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="4"/>
         <v>Stage00230</v>
@@ -2661,8 +2690,11 @@
       <c r="F81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="4"/>
         <v>Stage00231</v>
@@ -2683,8 +2715,11 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="4"/>
         <v>Stage00232</v>
@@ -2705,8 +2740,11 @@
       <c r="F83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="4"/>
         <v>Stage00233</v>
@@ -2727,8 +2765,11 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f t="shared" si="4"/>
         <v>Stage00234</v>
@@ -2749,8 +2790,11 @@
       <c r="F85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f t="shared" si="4"/>
         <v>Stage00235</v>
@@ -2771,8 +2815,11 @@
       <c r="F86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f t="shared" si="4"/>
         <v>Stage00236</v>
@@ -2793,8 +2840,11 @@
       <c r="F87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f t="shared" si="4"/>
         <v>Stage00237</v>
@@ -2815,8 +2865,11 @@
       <c r="F88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f t="shared" si="4"/>
         <v>Stage00238</v>
@@ -2837,8 +2890,11 @@
       <c r="F89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f t="shared" si="4"/>
         <v>Stage00239</v>
@@ -2859,8 +2915,11 @@
       <c r="F90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f t="shared" si="4"/>
         <v>Stage00240</v>
@@ -2881,8 +2940,11 @@
       <c r="F91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f t="shared" si="4"/>
         <v>Stage00241</v>
@@ -2903,8 +2965,11 @@
       <c r="F92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f t="shared" si="4"/>
         <v>Stage00242</v>
@@ -2925,8 +2990,11 @@
       <c r="F93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f t="shared" si="4"/>
         <v>Stage00243</v>
@@ -2947,8 +3015,11 @@
       <c r="F94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f t="shared" si="4"/>
         <v>Stage00244</v>
@@ -2969,8 +3040,11 @@
       <c r="F95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f t="shared" si="4"/>
         <v>Stage00245</v>
@@ -2991,8 +3065,11 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f t="shared" si="4"/>
         <v>Stage00246</v>
@@ -3013,8 +3090,11 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f t="shared" si="4"/>
         <v>Stage00247</v>
@@ -3035,8 +3115,11 @@
       <c r="F98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f t="shared" si="4"/>
         <v>Stage00248</v>
@@ -3057,8 +3140,11 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f t="shared" si="4"/>
         <v>Stage00249</v>
@@ -3079,8 +3165,11 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f t="shared" si="4"/>
         <v>Stage00250</v>
@@ -3101,8 +3190,11 @@
       <c r="F101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f t="shared" si="4"/>
         <v>Stage00301</v>
@@ -3123,8 +3215,11 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f t="shared" si="4"/>
         <v>Stage00302</v>
@@ -3145,8 +3240,11 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f t="shared" si="4"/>
         <v>Stage00303</v>
@@ -3167,8 +3265,11 @@
       <c r="F104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f t="shared" si="4"/>
         <v>Stage00304</v>
@@ -3189,8 +3290,11 @@
       <c r="F105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f t="shared" si="4"/>
         <v>Stage00305</v>
@@ -3211,8 +3315,11 @@
       <c r="F106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f t="shared" si="4"/>
         <v>Stage00306</v>
@@ -3233,8 +3340,11 @@
       <c r="F107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f t="shared" si="4"/>
         <v>Stage00307</v>
@@ -3255,8 +3365,11 @@
       <c r="F108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f t="shared" si="4"/>
         <v>Stage00308</v>
@@ -3277,8 +3390,11 @@
       <c r="F109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f t="shared" si="4"/>
         <v>Stage00309</v>
@@ -3299,8 +3415,11 @@
       <c r="F110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f t="shared" si="4"/>
         <v>Stage00310</v>
@@ -3321,8 +3440,11 @@
       <c r="F111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f t="shared" si="4"/>
         <v>Stage00311</v>
@@ -3343,8 +3465,11 @@
       <c r="F112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f t="shared" si="4"/>
         <v>Stage00312</v>
@@ -3365,8 +3490,11 @@
       <c r="F113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f t="shared" si="4"/>
         <v>Stage00313</v>
@@ -3387,8 +3515,11 @@
       <c r="F114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f t="shared" si="4"/>
         <v>Stage00314</v>
@@ -3409,8 +3540,11 @@
       <c r="F115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f t="shared" si="4"/>
         <v>Stage00315</v>
@@ -3431,8 +3565,11 @@
       <c r="F116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f t="shared" si="4"/>
         <v>Stage00316</v>
@@ -3453,8 +3590,11 @@
       <c r="F117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f t="shared" si="4"/>
         <v>Stage00317</v>
@@ -3475,8 +3615,11 @@
       <c r="F118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f t="shared" si="4"/>
         <v>Stage00318</v>
@@ -3497,8 +3640,11 @@
       <c r="F119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f t="shared" si="4"/>
         <v>Stage00319</v>
@@ -3519,8 +3665,11 @@
       <c r="F120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f t="shared" si="4"/>
         <v>Stage00320</v>
@@ -3541,8 +3690,11 @@
       <c r="F121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f t="shared" si="4"/>
         <v>Stage00401</v>
@@ -3563,8 +3715,11 @@
       <c r="F122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f t="shared" si="4"/>
         <v>Stage00402</v>
@@ -3585,8 +3740,11 @@
       <c r="F123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f t="shared" si="4"/>
         <v>Stage00403</v>
@@ -3607,8 +3765,11 @@
       <c r="F124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f t="shared" si="4"/>
         <v>Stage00404</v>
@@ -3629,8 +3790,11 @@
       <c r="F125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f t="shared" si="4"/>
         <v>Stage00405</v>
@@ -3651,8 +3815,11 @@
       <c r="F126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f t="shared" si="4"/>
         <v>Stage00406</v>
@@ -3673,8 +3840,11 @@
       <c r="F127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f t="shared" si="4"/>
         <v>Stage00407</v>
@@ -3695,8 +3865,11 @@
       <c r="F128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
         <f t="shared" si="4"/>
         <v>Stage00408</v>
@@ -3717,8 +3890,11 @@
       <c r="F129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
         <f t="shared" si="4"/>
         <v>Stage00409</v>
@@ -3739,8 +3915,11 @@
       <c r="F130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f t="shared" ref="A131:A194" si="6">"Stage"&amp;TEXT(B131*100+C131,"00000")</f>
         <v>Stage00410</v>
@@ -3761,8 +3940,11 @@
       <c r="F131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f t="shared" si="6"/>
         <v>Stage00411</v>
@@ -3783,8 +3965,11 @@
       <c r="F132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f t="shared" si="6"/>
         <v>Stage00412</v>
@@ -3805,8 +3990,11 @@
       <c r="F133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f t="shared" si="6"/>
         <v>Stage00413</v>
@@ -3827,8 +4015,11 @@
       <c r="F134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f t="shared" si="6"/>
         <v>Stage00414</v>
@@ -3849,8 +4040,11 @@
       <c r="F135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f t="shared" si="6"/>
         <v>Stage00415</v>
@@ -3871,8 +4065,11 @@
       <c r="F136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f t="shared" si="6"/>
         <v>Stage00416</v>
@@ -3893,8 +4090,11 @@
       <c r="F137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f t="shared" si="6"/>
         <v>Stage00417</v>
@@ -3915,8 +4115,11 @@
       <c r="F138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f t="shared" si="6"/>
         <v>Stage00418</v>
@@ -3937,8 +4140,11 @@
       <c r="F139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f t="shared" si="6"/>
         <v>Stage00419</v>
@@ -3959,8 +4165,11 @@
       <c r="F140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f t="shared" si="6"/>
         <v>Stage00420</v>
@@ -3981,8 +4190,11 @@
       <c r="F141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f t="shared" si="6"/>
         <v>Stage00421</v>
@@ -4003,8 +4215,11 @@
       <c r="F142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f t="shared" si="6"/>
         <v>Stage00422</v>
@@ -4025,8 +4240,11 @@
       <c r="F143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f t="shared" si="6"/>
         <v>Stage00423</v>
@@ -4047,8 +4265,11 @@
       <c r="F144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
         <f t="shared" si="6"/>
         <v>Stage00424</v>
@@ -4069,8 +4290,11 @@
       <c r="F145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f t="shared" si="6"/>
         <v>Stage00425</v>
@@ -4091,8 +4315,11 @@
       <c r="F146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f t="shared" si="6"/>
         <v>Stage00426</v>
@@ -4113,8 +4340,11 @@
       <c r="F147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="str">
         <f t="shared" si="6"/>
         <v>Stage00427</v>
@@ -4135,8 +4365,11 @@
       <c r="F148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
         <f t="shared" si="6"/>
         <v>Stage00428</v>
@@ -4157,8 +4390,11 @@
       <c r="F149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f t="shared" si="6"/>
         <v>Stage00429</v>
@@ -4179,8 +4415,11 @@
       <c r="F150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f t="shared" si="6"/>
         <v>Stage00430</v>
@@ -4201,8 +4440,11 @@
       <c r="F151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f t="shared" si="6"/>
         <v>Stage00431</v>
@@ -4223,8 +4465,11 @@
       <c r="F152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f t="shared" si="6"/>
         <v>Stage00432</v>
@@ -4245,8 +4490,11 @@
       <c r="F153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f t="shared" si="6"/>
         <v>Stage00433</v>
@@ -4267,8 +4515,11 @@
       <c r="F154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
         <f t="shared" si="6"/>
         <v>Stage00434</v>
@@ -4289,8 +4540,11 @@
       <c r="F155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f t="shared" si="6"/>
         <v>Stage00435</v>
@@ -4311,8 +4565,11 @@
       <c r="F156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f t="shared" si="6"/>
         <v>Stage00436</v>
@@ -4333,8 +4590,11 @@
       <c r="F157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f t="shared" si="6"/>
         <v>Stage00437</v>
@@ -4355,8 +4615,11 @@
       <c r="F158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f t="shared" si="6"/>
         <v>Stage00438</v>
@@ -4377,8 +4640,11 @@
       <c r="F159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f t="shared" si="6"/>
         <v>Stage00439</v>
@@ -4399,8 +4665,11 @@
       <c r="F160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f t="shared" si="6"/>
         <v>Stage00440</v>
@@ -4421,8 +4690,11 @@
       <c r="F161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f t="shared" si="6"/>
         <v>Stage00441</v>
@@ -4443,8 +4715,11 @@
       <c r="F162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f t="shared" si="6"/>
         <v>Stage00442</v>
@@ -4465,8 +4740,11 @@
       <c r="F163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f t="shared" si="6"/>
         <v>Stage00443</v>
@@ -4487,8 +4765,11 @@
       <c r="F164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f t="shared" si="6"/>
         <v>Stage00444</v>
@@ -4509,8 +4790,11 @@
       <c r="F165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f t="shared" si="6"/>
         <v>Stage00445</v>
@@ -4531,8 +4815,11 @@
       <c r="F166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f t="shared" si="6"/>
         <v>Stage00446</v>
@@ -4553,8 +4840,11 @@
       <c r="F167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f t="shared" si="6"/>
         <v>Stage00447</v>
@@ -4575,8 +4865,11 @@
       <c r="F168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
         <f t="shared" si="6"/>
         <v>Stage00448</v>
@@ -4597,8 +4890,11 @@
       <c r="F169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f t="shared" si="6"/>
         <v>Stage00449</v>
@@ -4619,8 +4915,11 @@
       <c r="F170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f t="shared" si="6"/>
         <v>Stage00450</v>
@@ -4641,8 +4940,11 @@
       <c r="F171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
         <f t="shared" si="6"/>
         <v>Stage00501</v>
@@ -4663,8 +4965,11 @@
       <c r="F172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
         <f t="shared" si="6"/>
         <v>Stage00502</v>
@@ -4685,8 +4990,11 @@
       <c r="F173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
         <f t="shared" si="6"/>
         <v>Stage00503</v>
@@ -4707,8 +5015,11 @@
       <c r="F174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
         <f t="shared" si="6"/>
         <v>Stage00504</v>
@@ -4729,8 +5040,11 @@
       <c r="F175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
         <f t="shared" si="6"/>
         <v>Stage00505</v>
@@ -4751,8 +5065,11 @@
       <c r="F176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
         <f t="shared" si="6"/>
         <v>Stage00506</v>
@@ -4773,8 +5090,11 @@
       <c r="F177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
         <f t="shared" si="6"/>
         <v>Stage00507</v>
@@ -4795,8 +5115,11 @@
       <c r="F178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
         <f t="shared" si="6"/>
         <v>Stage00508</v>
@@ -4817,8 +5140,11 @@
       <c r="F179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
         <f t="shared" si="6"/>
         <v>Stage00509</v>
@@ -4839,8 +5165,11 @@
       <c r="F180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
         <f t="shared" si="6"/>
         <v>Stage00510</v>
@@ -4861,8 +5190,11 @@
       <c r="F181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
         <f t="shared" si="6"/>
         <v>Stage00511</v>
@@ -4883,8 +5215,11 @@
       <c r="F182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f t="shared" si="6"/>
         <v>Stage00512</v>
@@ -4905,8 +5240,11 @@
       <c r="F183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
         <f t="shared" si="6"/>
         <v>Stage00513</v>
@@ -4927,8 +5265,11 @@
       <c r="F184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
         <f t="shared" si="6"/>
         <v>Stage00514</v>
@@ -4949,8 +5290,11 @@
       <c r="F185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f t="shared" si="6"/>
         <v>Stage00515</v>
@@ -4971,8 +5315,11 @@
       <c r="F186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G186" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
         <f t="shared" si="6"/>
         <v>Stage00516</v>
@@ -4993,8 +5340,11 @@
       <c r="F187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G187" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
         <f t="shared" si="6"/>
         <v>Stage00517</v>
@@ -5015,8 +5365,11 @@
       <c r="F188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
         <f t="shared" si="6"/>
         <v>Stage00518</v>
@@ -5037,8 +5390,11 @@
       <c r="F189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
         <f t="shared" si="6"/>
         <v>Stage00519</v>
@@ -5059,8 +5415,11 @@
       <c r="F190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
         <f t="shared" si="6"/>
         <v>Stage00520</v>
@@ -5081,8 +5440,11 @@
       <c r="F191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
         <f t="shared" si="6"/>
         <v>Stage00521</v>
@@ -5103,8 +5465,11 @@
       <c r="F192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
         <f t="shared" si="6"/>
         <v>Stage00522</v>
@@ -5125,8 +5490,11 @@
       <c r="F193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
         <f t="shared" si="6"/>
         <v>Stage00523</v>
@@ -5147,8 +5515,11 @@
       <c r="F194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
         <f t="shared" ref="A195:A258" si="8">"Stage"&amp;TEXT(B195*100+C195,"00000")</f>
         <v>Stage00524</v>
@@ -5169,8 +5540,11 @@
       <c r="F195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
         <f t="shared" si="8"/>
         <v>Stage00525</v>
@@ -5191,8 +5565,11 @@
       <c r="F196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
         <f t="shared" si="8"/>
         <v>Stage00526</v>
@@ -5213,8 +5590,11 @@
       <c r="F197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
         <f t="shared" si="8"/>
         <v>Stage00527</v>
@@ -5235,8 +5615,11 @@
       <c r="F198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
         <f t="shared" si="8"/>
         <v>Stage00528</v>
@@ -5257,8 +5640,11 @@
       <c r="F199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
         <f t="shared" si="8"/>
         <v>Stage00529</v>
@@ -5279,8 +5665,11 @@
       <c r="F200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G200" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
         <f t="shared" si="8"/>
         <v>Stage00530</v>
@@ -5301,8 +5690,11 @@
       <c r="F201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
         <f t="shared" si="8"/>
         <v>Stage00531</v>
@@ -5323,8 +5715,11 @@
       <c r="F202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
         <f t="shared" si="8"/>
         <v>Stage00532</v>
@@ -5345,8 +5740,11 @@
       <c r="F203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
         <f t="shared" si="8"/>
         <v>Stage00533</v>
@@ -5367,8 +5765,11 @@
       <c r="F204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
         <f t="shared" si="8"/>
         <v>Stage00534</v>
@@ -5389,8 +5790,11 @@
       <c r="F205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="str">
         <f t="shared" si="8"/>
         <v>Stage00535</v>
@@ -5411,8 +5815,11 @@
       <c r="F206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G206" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f t="shared" si="8"/>
         <v>Stage00536</v>
@@ -5433,8 +5840,11 @@
       <c r="F207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
         <f t="shared" si="8"/>
         <v>Stage00537</v>
@@ -5455,8 +5865,11 @@
       <c r="F208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G208" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
         <f t="shared" si="8"/>
         <v>Stage00538</v>
@@ -5477,8 +5890,11 @@
       <c r="F209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G209" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
         <f t="shared" si="8"/>
         <v>Stage00539</v>
@@ -5499,8 +5915,11 @@
       <c r="F210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G210" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
         <f t="shared" si="8"/>
         <v>Stage00540</v>
@@ -5521,8 +5940,11 @@
       <c r="F211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G211" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="str">
         <f t="shared" si="8"/>
         <v>Stage00541</v>
@@ -5543,8 +5965,11 @@
       <c r="F212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G212" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
         <f t="shared" si="8"/>
         <v>Stage00542</v>
@@ -5565,8 +5990,11 @@
       <c r="F213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G213" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
         <f t="shared" si="8"/>
         <v>Stage00543</v>
@@ -5587,8 +6015,11 @@
       <c r="F214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G214" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
         <f t="shared" si="8"/>
         <v>Stage00544</v>
@@ -5609,8 +6040,11 @@
       <c r="F215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G215" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="str">
         <f t="shared" si="8"/>
         <v>Stage00545</v>
@@ -5631,8 +6065,11 @@
       <c r="F216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G216" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="str">
         <f t="shared" si="8"/>
         <v>Stage00546</v>
@@ -5653,8 +6090,11 @@
       <c r="F217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G217" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
         <f t="shared" si="8"/>
         <v>Stage00547</v>
@@ -5675,8 +6115,11 @@
       <c r="F218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G218" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
         <f t="shared" si="8"/>
         <v>Stage00548</v>
@@ -5697,8 +6140,11 @@
       <c r="F219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G219" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="str">
         <f t="shared" si="8"/>
         <v>Stage00549</v>
@@ -5719,8 +6165,11 @@
       <c r="F220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="str">
         <f t="shared" si="8"/>
         <v>Stage00550</v>
@@ -5741,8 +6190,11 @@
       <c r="F221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G221" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="str">
         <f t="shared" si="8"/>
         <v>Stage00601</v>
@@ -5763,8 +6215,11 @@
       <c r="F222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G222" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="str">
         <f t="shared" si="8"/>
         <v>Stage00602</v>
@@ -5785,8 +6240,11 @@
       <c r="F223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G223" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="str">
         <f t="shared" si="8"/>
         <v>Stage00603</v>
@@ -5807,8 +6265,11 @@
       <c r="F224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G224" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="str">
         <f t="shared" si="8"/>
         <v>Stage00604</v>
@@ -5829,8 +6290,11 @@
       <c r="F225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G225" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="str">
         <f t="shared" si="8"/>
         <v>Stage00605</v>
@@ -5851,8 +6315,11 @@
       <c r="F226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G226" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="str">
         <f t="shared" si="8"/>
         <v>Stage00606</v>
@@ -5873,8 +6340,11 @@
       <c r="F227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G227" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="str">
         <f t="shared" si="8"/>
         <v>Stage00607</v>
@@ -5895,8 +6365,11 @@
       <c r="F228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G228" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="str">
         <f t="shared" si="8"/>
         <v>Stage00608</v>
@@ -5917,8 +6390,11 @@
       <c r="F229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G229" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="str">
         <f t="shared" si="8"/>
         <v>Stage00609</v>
@@ -5939,8 +6415,11 @@
       <c r="F230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G230" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
         <f t="shared" si="8"/>
         <v>Stage00610</v>
@@ -5961,8 +6440,11 @@
       <c r="F231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G231" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="str">
         <f t="shared" si="8"/>
         <v>Stage00611</v>
@@ -5983,8 +6465,11 @@
       <c r="F232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G232" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="str">
         <f t="shared" si="8"/>
         <v>Stage00612</v>
@@ -6005,8 +6490,11 @@
       <c r="F233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G233" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="str">
         <f t="shared" si="8"/>
         <v>Stage00613</v>
@@ -6027,8 +6515,11 @@
       <c r="F234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G234" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="str">
         <f t="shared" si="8"/>
         <v>Stage00614</v>
@@ -6049,8 +6540,11 @@
       <c r="F235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G235" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="str">
         <f t="shared" si="8"/>
         <v>Stage00615</v>
@@ -6071,8 +6565,11 @@
       <c r="F236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G236" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="str">
         <f t="shared" si="8"/>
         <v>Stage00616</v>
@@ -6093,8 +6590,11 @@
       <c r="F237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G237" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="str">
         <f t="shared" si="8"/>
         <v>Stage00617</v>
@@ -6115,8 +6615,11 @@
       <c r="F238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G238" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="str">
         <f t="shared" si="8"/>
         <v>Stage00618</v>
@@ -6137,8 +6640,11 @@
       <c r="F239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G239" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="str">
         <f t="shared" si="8"/>
         <v>Stage00619</v>
@@ -6159,8 +6665,11 @@
       <c r="F240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G240" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="str">
         <f t="shared" si="8"/>
         <v>Stage00620</v>
@@ -6181,8 +6690,11 @@
       <c r="F241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G241" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="str">
         <f t="shared" si="8"/>
         <v>Stage00701</v>
@@ -6203,8 +6715,11 @@
       <c r="F242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G242" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="str">
         <f t="shared" si="8"/>
         <v>Stage00702</v>
@@ -6225,8 +6740,11 @@
       <c r="F243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G243" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="str">
         <f t="shared" si="8"/>
         <v>Stage00703</v>
@@ -6247,8 +6765,11 @@
       <c r="F244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G244" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="str">
         <f t="shared" si="8"/>
         <v>Stage00704</v>
@@ -6269,8 +6790,11 @@
       <c r="F245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G245" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="str">
         <f t="shared" si="8"/>
         <v>Stage00705</v>
@@ -6291,8 +6815,11 @@
       <c r="F246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G246" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="str">
         <f t="shared" si="8"/>
         <v>Stage00706</v>
@@ -6313,8 +6840,11 @@
       <c r="F247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G247" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="str">
         <f t="shared" si="8"/>
         <v>Stage00707</v>
@@ -6335,8 +6865,11 @@
       <c r="F248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G248" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="str">
         <f t="shared" si="8"/>
         <v>Stage00708</v>
@@ -6357,8 +6890,11 @@
       <c r="F249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G249" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="str">
         <f t="shared" si="8"/>
         <v>Stage00709</v>
@@ -6379,8 +6915,11 @@
       <c r="F250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G250" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="str">
         <f t="shared" si="8"/>
         <v>Stage00710</v>
@@ -6401,8 +6940,11 @@
       <c r="F251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G251" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="str">
         <f t="shared" si="8"/>
         <v>Stage00801</v>
@@ -6423,8 +6965,11 @@
       <c r="F252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G252" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="str">
         <f t="shared" si="8"/>
         <v>Stage00802</v>
@@ -6445,8 +6990,11 @@
       <c r="F253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G253" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="str">
         <f t="shared" si="8"/>
         <v>Stage00803</v>
@@ -6467,8 +7015,11 @@
       <c r="F254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G254" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="str">
         <f t="shared" si="8"/>
         <v>Stage00804</v>
@@ -6489,8 +7040,11 @@
       <c r="F255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G255" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="str">
         <f t="shared" si="8"/>
         <v>Stage00805</v>
@@ -6511,8 +7065,11 @@
       <c r="F256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G256" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="str">
         <f t="shared" si="8"/>
         <v>Stage00806</v>
@@ -6533,8 +7090,11 @@
       <c r="F257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G257" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="str">
         <f t="shared" si="8"/>
         <v>Stage00807</v>
@@ -6555,8 +7115,11 @@
       <c r="F258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G258" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="str">
         <f t="shared" ref="A259:A322" si="10">"Stage"&amp;TEXT(B259*100+C259,"00000")</f>
         <v>Stage00808</v>
@@ -6577,8 +7140,11 @@
       <c r="F259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G259" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="str">
         <f t="shared" si="10"/>
         <v>Stage00809</v>
@@ -6599,8 +7165,11 @@
       <c r="F260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G260" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="str">
         <f t="shared" si="10"/>
         <v>Stage00810</v>
@@ -6621,8 +7190,11 @@
       <c r="F261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G261" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="str">
         <f t="shared" si="10"/>
         <v>Stage00811</v>
@@ -6643,8 +7215,11 @@
       <c r="F262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G262" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="str">
         <f t="shared" si="10"/>
         <v>Stage00812</v>
@@ -6665,8 +7240,11 @@
       <c r="F263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G263" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="str">
         <f t="shared" si="10"/>
         <v>Stage00813</v>
@@ -6687,8 +7265,11 @@
       <c r="F264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G264" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="str">
         <f t="shared" si="10"/>
         <v>Stage00814</v>
@@ -6709,8 +7290,11 @@
       <c r="F265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G265" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="str">
         <f t="shared" si="10"/>
         <v>Stage00815</v>
@@ -6731,8 +7315,11 @@
       <c r="F266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G266" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="str">
         <f t="shared" si="10"/>
         <v>Stage00816</v>
@@ -6753,8 +7340,11 @@
       <c r="F267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G267" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="str">
         <f t="shared" si="10"/>
         <v>Stage00817</v>
@@ -6775,8 +7365,11 @@
       <c r="F268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G268" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="str">
         <f t="shared" si="10"/>
         <v>Stage00818</v>
@@ -6797,8 +7390,11 @@
       <c r="F269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G269" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="str">
         <f t="shared" si="10"/>
         <v>Stage00819</v>
@@ -6819,8 +7415,11 @@
       <c r="F270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G270" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="str">
         <f t="shared" si="10"/>
         <v>Stage00820</v>
@@ -6841,8 +7440,11 @@
       <c r="F271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G271" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="str">
         <f t="shared" si="10"/>
         <v>Stage00821</v>
@@ -6863,8 +7465,11 @@
       <c r="F272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G272" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="str">
         <f t="shared" si="10"/>
         <v>Stage00822</v>
@@ -6885,8 +7490,11 @@
       <c r="F273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G273" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="str">
         <f t="shared" si="10"/>
         <v>Stage00823</v>
@@ -6907,8 +7515,11 @@
       <c r="F274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G274" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="str">
         <f t="shared" si="10"/>
         <v>Stage00824</v>
@@ -6929,8 +7540,11 @@
       <c r="F275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G275" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="str">
         <f t="shared" si="10"/>
         <v>Stage00825</v>
@@ -6951,8 +7565,11 @@
       <c r="F276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G276" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="str">
         <f t="shared" si="10"/>
         <v>Stage00826</v>
@@ -6973,8 +7590,11 @@
       <c r="F277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G277" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="str">
         <f t="shared" si="10"/>
         <v>Stage00827</v>
@@ -6995,8 +7615,11 @@
       <c r="F278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G278" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="str">
         <f t="shared" si="10"/>
         <v>Stage00828</v>
@@ -7017,8 +7640,11 @@
       <c r="F279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G279" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="str">
         <f t="shared" si="10"/>
         <v>Stage00829</v>
@@ -7039,8 +7665,11 @@
       <c r="F280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G280" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="str">
         <f t="shared" si="10"/>
         <v>Stage00830</v>
@@ -7061,8 +7690,11 @@
       <c r="F281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G281" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="str">
         <f t="shared" si="10"/>
         <v>Stage00831</v>
@@ -7083,8 +7715,11 @@
       <c r="F282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G282" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="str">
         <f t="shared" si="10"/>
         <v>Stage00832</v>
@@ -7105,8 +7740,11 @@
       <c r="F283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G283" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="str">
         <f t="shared" si="10"/>
         <v>Stage00833</v>
@@ -7127,8 +7765,11 @@
       <c r="F284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G284" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="str">
         <f t="shared" si="10"/>
         <v>Stage00834</v>
@@ -7149,8 +7790,11 @@
       <c r="F285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G285" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="str">
         <f t="shared" si="10"/>
         <v>Stage00835</v>
@@ -7171,8 +7815,11 @@
       <c r="F286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G286" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="str">
         <f t="shared" si="10"/>
         <v>Stage00836</v>
@@ -7193,8 +7840,11 @@
       <c r="F287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G287" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="str">
         <f t="shared" si="10"/>
         <v>Stage00837</v>
@@ -7215,8 +7865,11 @@
       <c r="F288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G288" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="str">
         <f t="shared" si="10"/>
         <v>Stage00838</v>
@@ -7237,8 +7890,11 @@
       <c r="F289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G289" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="str">
         <f t="shared" si="10"/>
         <v>Stage00839</v>
@@ -7259,8 +7915,11 @@
       <c r="F290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G290" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="str">
         <f t="shared" si="10"/>
         <v>Stage00840</v>
@@ -7281,8 +7940,11 @@
       <c r="F291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G291" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="str">
         <f t="shared" si="10"/>
         <v>Stage00841</v>
@@ -7303,8 +7965,11 @@
       <c r="F292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G292" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="str">
         <f t="shared" si="10"/>
         <v>Stage00842</v>
@@ -7325,8 +7990,11 @@
       <c r="F293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G293" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="str">
         <f t="shared" si="10"/>
         <v>Stage00843</v>
@@ -7347,8 +8015,11 @@
       <c r="F294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G294" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="str">
         <f t="shared" si="10"/>
         <v>Stage00844</v>
@@ -7369,8 +8040,11 @@
       <c r="F295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G295" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="str">
         <f t="shared" si="10"/>
         <v>Stage00845</v>
@@ -7391,8 +8065,11 @@
       <c r="F296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G296" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="str">
         <f t="shared" si="10"/>
         <v>Stage00846</v>
@@ -7413,8 +8090,11 @@
       <c r="F297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G297" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="str">
         <f t="shared" si="10"/>
         <v>Stage00847</v>
@@ -7435,8 +8115,11 @@
       <c r="F298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G298" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="str">
         <f t="shared" si="10"/>
         <v>Stage00848</v>
@@ -7457,8 +8140,11 @@
       <c r="F299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G299" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="str">
         <f t="shared" si="10"/>
         <v>Stage00849</v>
@@ -7479,8 +8165,11 @@
       <c r="F300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G300" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="str">
         <f t="shared" si="10"/>
         <v>Stage00850</v>
@@ -7501,8 +8190,11 @@
       <c r="F301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G301" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="str">
         <f t="shared" si="10"/>
         <v>Stage00901</v>
@@ -7523,8 +8215,11 @@
       <c r="F302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G302" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="str">
         <f t="shared" si="10"/>
         <v>Stage00902</v>
@@ -7545,8 +8240,11 @@
       <c r="F303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G303" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="str">
         <f t="shared" si="10"/>
         <v>Stage00903</v>
@@ -7567,8 +8265,11 @@
       <c r="F304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G304" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="str">
         <f t="shared" si="10"/>
         <v>Stage00904</v>
@@ -7589,8 +8290,11 @@
       <c r="F305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G305" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="str">
         <f t="shared" si="10"/>
         <v>Stage00905</v>
@@ -7611,8 +8315,11 @@
       <c r="F306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G306" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="str">
         <f t="shared" si="10"/>
         <v>Stage00906</v>
@@ -7633,8 +8340,11 @@
       <c r="F307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G307" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="str">
         <f t="shared" si="10"/>
         <v>Stage00907</v>
@@ -7655,8 +8365,11 @@
       <c r="F308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G308" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="str">
         <f t="shared" si="10"/>
         <v>Stage00908</v>
@@ -7677,8 +8390,11 @@
       <c r="F309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G309" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="str">
         <f t="shared" si="10"/>
         <v>Stage00909</v>
@@ -7699,8 +8415,11 @@
       <c r="F310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G310" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="str">
         <f t="shared" si="10"/>
         <v>Stage00910</v>
@@ -7721,8 +8440,11 @@
       <c r="F311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G311" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="str">
         <f t="shared" si="10"/>
         <v>Stage00911</v>
@@ -7743,8 +8465,11 @@
       <c r="F312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G312" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="str">
         <f t="shared" si="10"/>
         <v>Stage00912</v>
@@ -7765,8 +8490,11 @@
       <c r="F313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G313" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="str">
         <f t="shared" si="10"/>
         <v>Stage00913</v>
@@ -7787,8 +8515,11 @@
       <c r="F314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G314" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="str">
         <f t="shared" si="10"/>
         <v>Stage00914</v>
@@ -7809,8 +8540,11 @@
       <c r="F315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G315" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="str">
         <f t="shared" si="10"/>
         <v>Stage00915</v>
@@ -7831,8 +8565,11 @@
       <c r="F316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G316" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="str">
         <f t="shared" si="10"/>
         <v>Stage00916</v>
@@ -7853,8 +8590,11 @@
       <c r="F317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G317" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="str">
         <f t="shared" si="10"/>
         <v>Stage00917</v>
@@ -7875,8 +8615,11 @@
       <c r="F318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G318" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="str">
         <f t="shared" si="10"/>
         <v>Stage00918</v>
@@ -7897,8 +8640,11 @@
       <c r="F319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G319" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="str">
         <f t="shared" si="10"/>
         <v>Stage00919</v>
@@ -7919,8 +8665,11 @@
       <c r="F320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G320" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" t="str">
         <f t="shared" si="10"/>
         <v>Stage00920</v>
@@ -7941,8 +8690,11 @@
       <c r="F321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G321" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" t="str">
         <f t="shared" si="10"/>
         <v>Stage00921</v>
@@ -7963,8 +8715,11 @@
       <c r="F322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G322" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" t="str">
         <f t="shared" ref="A323:A386" si="12">"Stage"&amp;TEXT(B323*100+C323,"00000")</f>
         <v>Stage00922</v>
@@ -7985,8 +8740,11 @@
       <c r="F323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G323" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" t="str">
         <f t="shared" si="12"/>
         <v>Stage00923</v>
@@ -8007,8 +8765,11 @@
       <c r="F324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G324" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" t="str">
         <f t="shared" si="12"/>
         <v>Stage00924</v>
@@ -8029,8 +8790,11 @@
       <c r="F325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G325" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" t="str">
         <f t="shared" si="12"/>
         <v>Stage00925</v>
@@ -8051,8 +8815,11 @@
       <c r="F326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G326" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" t="str">
         <f t="shared" si="12"/>
         <v>Stage00926</v>
@@ -8073,8 +8840,11 @@
       <c r="F327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G327" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" t="str">
         <f t="shared" si="12"/>
         <v>Stage00927</v>
@@ -8095,8 +8865,11 @@
       <c r="F328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G328" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" t="str">
         <f t="shared" si="12"/>
         <v>Stage00928</v>
@@ -8117,8 +8890,11 @@
       <c r="F329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G329" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" t="str">
         <f t="shared" si="12"/>
         <v>Stage00929</v>
@@ -8139,8 +8915,11 @@
       <c r="F330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G330" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" t="str">
         <f t="shared" si="12"/>
         <v>Stage00930</v>
@@ -8161,8 +8940,11 @@
       <c r="F331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G331" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" t="str">
         <f t="shared" si="12"/>
         <v>Stage00931</v>
@@ -8183,8 +8965,11 @@
       <c r="F332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G332" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" t="str">
         <f t="shared" si="12"/>
         <v>Stage00932</v>
@@ -8205,8 +8990,11 @@
       <c r="F333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G333" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" t="str">
         <f t="shared" si="12"/>
         <v>Stage00933</v>
@@ -8227,8 +9015,11 @@
       <c r="F334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G334" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" t="str">
         <f t="shared" si="12"/>
         <v>Stage00934</v>
@@ -8249,8 +9040,11 @@
       <c r="F335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G335" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" t="str">
         <f t="shared" si="12"/>
         <v>Stage00935</v>
@@ -8271,8 +9065,11 @@
       <c r="F336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G336" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" t="str">
         <f t="shared" si="12"/>
         <v>Stage00936</v>
@@ -8293,8 +9090,11 @@
       <c r="F337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G337" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" t="str">
         <f t="shared" si="12"/>
         <v>Stage00937</v>
@@ -8315,8 +9115,11 @@
       <c r="F338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G338" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" t="str">
         <f t="shared" si="12"/>
         <v>Stage00938</v>
@@ -8337,8 +9140,11 @@
       <c r="F339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G339" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" t="str">
         <f t="shared" si="12"/>
         <v>Stage00939</v>
@@ -8359,8 +9165,11 @@
       <c r="F340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G340" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" t="str">
         <f t="shared" si="12"/>
         <v>Stage00940</v>
@@ -8381,8 +9190,11 @@
       <c r="F341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G341" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" t="str">
         <f t="shared" si="12"/>
         <v>Stage00941</v>
@@ -8403,8 +9215,11 @@
       <c r="F342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G342" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" t="str">
         <f t="shared" si="12"/>
         <v>Stage00942</v>
@@ -8425,8 +9240,11 @@
       <c r="F343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G343" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="str">
         <f t="shared" si="12"/>
         <v>Stage00943</v>
@@ -8447,8 +9265,11 @@
       <c r="F344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G344" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" t="str">
         <f t="shared" si="12"/>
         <v>Stage00944</v>
@@ -8469,8 +9290,11 @@
       <c r="F345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G345" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" t="str">
         <f t="shared" si="12"/>
         <v>Stage00945</v>
@@ -8491,8 +9315,11 @@
       <c r="F346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G346" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" t="str">
         <f t="shared" si="12"/>
         <v>Stage00946</v>
@@ -8513,8 +9340,11 @@
       <c r="F347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G347" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" t="str">
         <f t="shared" si="12"/>
         <v>Stage00947</v>
@@ -8535,8 +9365,11 @@
       <c r="F348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G348" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" t="str">
         <f t="shared" si="12"/>
         <v>Stage00948</v>
@@ -8557,8 +9390,11 @@
       <c r="F349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G349" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" t="str">
         <f t="shared" si="12"/>
         <v>Stage00949</v>
@@ -8579,8 +9415,11 @@
       <c r="F350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G350" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" t="str">
         <f t="shared" si="12"/>
         <v>Stage00950</v>
@@ -8601,8 +9440,11 @@
       <c r="F351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G351" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" t="str">
         <f t="shared" si="12"/>
         <v>Stage01001</v>
@@ -8623,8 +9465,11 @@
       <c r="F352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G352" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" t="str">
         <f t="shared" si="12"/>
         <v>Stage01002</v>
@@ -8645,8 +9490,11 @@
       <c r="F353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G353" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" t="str">
         <f t="shared" si="12"/>
         <v>Stage01003</v>
@@ -8667,8 +9515,11 @@
       <c r="F354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G354" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" t="str">
         <f t="shared" si="12"/>
         <v>Stage01004</v>
@@ -8689,8 +9540,11 @@
       <c r="F355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G355" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" t="str">
         <f t="shared" si="12"/>
         <v>Stage01005</v>
@@ -8711,8 +9565,11 @@
       <c r="F356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G356" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" t="str">
         <f t="shared" si="12"/>
         <v>Stage01006</v>
@@ -8733,8 +9590,11 @@
       <c r="F357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G357" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" t="str">
         <f t="shared" si="12"/>
         <v>Stage01007</v>
@@ -8755,8 +9615,11 @@
       <c r="F358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G358" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" t="str">
         <f t="shared" si="12"/>
         <v>Stage01008</v>
@@ -8777,8 +9640,11 @@
       <c r="F359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G359" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" t="str">
         <f t="shared" si="12"/>
         <v>Stage01009</v>
@@ -8799,8 +9665,11 @@
       <c r="F360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G360" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" t="str">
         <f t="shared" si="12"/>
         <v>Stage01010</v>
@@ -8821,8 +9690,11 @@
       <c r="F361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G361" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" t="str">
         <f t="shared" si="12"/>
         <v>Stage01011</v>
@@ -8843,8 +9715,11 @@
       <c r="F362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G362" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" t="str">
         <f t="shared" si="12"/>
         <v>Stage01012</v>
@@ -8865,8 +9740,11 @@
       <c r="F363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G363" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="str">
         <f t="shared" si="12"/>
         <v>Stage01013</v>
@@ -8887,8 +9765,11 @@
       <c r="F364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G364" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" t="str">
         <f t="shared" si="12"/>
         <v>Stage01014</v>
@@ -8909,8 +9790,11 @@
       <c r="F365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G365" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" t="str">
         <f t="shared" si="12"/>
         <v>Stage01015</v>
@@ -8931,8 +9815,11 @@
       <c r="F366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G366" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" t="str">
         <f t="shared" si="12"/>
         <v>Stage01016</v>
@@ -8953,8 +9840,11 @@
       <c r="F367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G367" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" t="str">
         <f t="shared" si="12"/>
         <v>Stage01017</v>
@@ -8975,8 +9865,11 @@
       <c r="F368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G368" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" t="str">
         <f t="shared" si="12"/>
         <v>Stage01018</v>
@@ -8997,8 +9890,11 @@
       <c r="F369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G369" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" t="str">
         <f t="shared" si="12"/>
         <v>Stage01019</v>
@@ -9019,8 +9915,11 @@
       <c r="F370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G370" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" t="str">
         <f t="shared" si="12"/>
         <v>Stage01020</v>
@@ -9041,8 +9940,11 @@
       <c r="F371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G371" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" t="str">
         <f t="shared" si="12"/>
         <v>Stage01101</v>
@@ -9063,8 +9965,11 @@
       <c r="F372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G372" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" t="str">
         <f t="shared" si="12"/>
         <v>Stage01102</v>
@@ -9085,8 +9990,11 @@
       <c r="F373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G373" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" t="str">
         <f t="shared" si="12"/>
         <v>Stage01103</v>
@@ -9107,8 +10015,11 @@
       <c r="F374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G374" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" t="str">
         <f t="shared" si="12"/>
         <v>Stage01104</v>
@@ -9129,8 +10040,11 @@
       <c r="F375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G375" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" t="str">
         <f t="shared" si="12"/>
         <v>Stage01105</v>
@@ -9151,8 +10065,11 @@
       <c r="F376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G376" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" t="str">
         <f t="shared" si="12"/>
         <v>Stage01106</v>
@@ -9173,8 +10090,11 @@
       <c r="F377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G377" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" t="str">
         <f t="shared" si="12"/>
         <v>Stage01107</v>
@@ -9195,8 +10115,11 @@
       <c r="F378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G378" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" t="str">
         <f t="shared" si="12"/>
         <v>Stage01108</v>
@@ -9217,8 +10140,11 @@
       <c r="F379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G379" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" t="str">
         <f t="shared" si="12"/>
         <v>Stage01109</v>
@@ -9239,8 +10165,11 @@
       <c r="F380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G380" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" t="str">
         <f t="shared" si="12"/>
         <v>Stage01110</v>
@@ -9261,8 +10190,11 @@
       <c r="F381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G381" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" t="str">
         <f t="shared" si="12"/>
         <v>Stage01111</v>
@@ -9283,8 +10215,11 @@
       <c r="F382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G382" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" t="str">
         <f t="shared" si="12"/>
         <v>Stage01112</v>
@@ -9305,8 +10240,11 @@
       <c r="F383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G383" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" t="str">
         <f t="shared" si="12"/>
         <v>Stage01113</v>
@@ -9327,8 +10265,11 @@
       <c r="F384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G384" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" t="str">
         <f t="shared" si="12"/>
         <v>Stage01114</v>
@@ -9349,8 +10290,11 @@
       <c r="F385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G385" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" t="str">
         <f t="shared" si="12"/>
         <v>Stage01115</v>
@@ -9371,8 +10315,11 @@
       <c r="F386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G386" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" t="str">
         <f t="shared" ref="A387:A450" si="14">"Stage"&amp;TEXT(B387*100+C387,"00000")</f>
         <v>Stage01116</v>
@@ -9393,8 +10340,11 @@
       <c r="F387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G387" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" t="str">
         <f t="shared" si="14"/>
         <v>Stage01117</v>
@@ -9415,8 +10365,11 @@
       <c r="F388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G388" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" t="str">
         <f t="shared" si="14"/>
         <v>Stage01118</v>
@@ -9437,8 +10390,11 @@
       <c r="F389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G389" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" t="str">
         <f t="shared" si="14"/>
         <v>Stage01119</v>
@@ -9459,8 +10415,11 @@
       <c r="F390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G390" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" t="str">
         <f t="shared" si="14"/>
         <v>Stage01120</v>
@@ -9481,8 +10440,11 @@
       <c r="F391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G391" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" t="str">
         <f t="shared" si="14"/>
         <v>Stage01121</v>
@@ -9503,8 +10465,11 @@
       <c r="F392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G392" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" t="str">
         <f t="shared" si="14"/>
         <v>Stage01122</v>
@@ -9525,8 +10490,11 @@
       <c r="F393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G393" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" t="str">
         <f t="shared" si="14"/>
         <v>Stage01123</v>
@@ -9547,8 +10515,11 @@
       <c r="F394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G394" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" t="str">
         <f t="shared" si="14"/>
         <v>Stage01124</v>
@@ -9569,8 +10540,11 @@
       <c r="F395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G395" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" t="str">
         <f t="shared" si="14"/>
         <v>Stage01125</v>
@@ -9591,8 +10565,11 @@
       <c r="F396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G396" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" t="str">
         <f t="shared" si="14"/>
         <v>Stage01126</v>
@@ -9613,8 +10590,11 @@
       <c r="F397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G397" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" t="str">
         <f t="shared" si="14"/>
         <v>Stage01127</v>
@@ -9635,8 +10615,11 @@
       <c r="F398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G398" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" t="str">
         <f t="shared" si="14"/>
         <v>Stage01128</v>
@@ -9657,8 +10640,11 @@
       <c r="F399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G399" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" t="str">
         <f t="shared" si="14"/>
         <v>Stage01129</v>
@@ -9679,8 +10665,11 @@
       <c r="F400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G400" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" t="str">
         <f t="shared" si="14"/>
         <v>Stage01130</v>
@@ -9701,8 +10690,11 @@
       <c r="F401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G401" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" t="str">
         <f t="shared" si="14"/>
         <v>Stage01131</v>
@@ -9723,8 +10715,11 @@
       <c r="F402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G402" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" t="str">
         <f t="shared" si="14"/>
         <v>Stage01132</v>
@@ -9745,8 +10740,11 @@
       <c r="F403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G403" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" t="str">
         <f t="shared" si="14"/>
         <v>Stage01133</v>
@@ -9767,8 +10765,11 @@
       <c r="F404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G404" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" t="str">
         <f t="shared" si="14"/>
         <v>Stage01134</v>
@@ -9789,8 +10790,11 @@
       <c r="F405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G405" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" t="str">
         <f t="shared" si="14"/>
         <v>Stage01135</v>
@@ -9811,8 +10815,11 @@
       <c r="F406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G406" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" t="str">
         <f t="shared" si="14"/>
         <v>Stage01136</v>
@@ -9833,8 +10840,11 @@
       <c r="F407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G407" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" t="str">
         <f t="shared" si="14"/>
         <v>Stage01137</v>
@@ -9855,8 +10865,11 @@
       <c r="F408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G408" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" t="str">
         <f t="shared" si="14"/>
         <v>Stage01138</v>
@@ -9877,8 +10890,11 @@
       <c r="F409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G409" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" t="str">
         <f t="shared" si="14"/>
         <v>Stage01139</v>
@@ -9899,8 +10915,11 @@
       <c r="F410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G410" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" t="str">
         <f t="shared" si="14"/>
         <v>Stage01140</v>
@@ -9921,8 +10940,11 @@
       <c r="F411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G411" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" t="str">
         <f t="shared" si="14"/>
         <v>Stage01141</v>
@@ -9943,8 +10965,11 @@
       <c r="F412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G412" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" t="str">
         <f t="shared" si="14"/>
         <v>Stage01142</v>
@@ -9965,8 +10990,11 @@
       <c r="F413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G413" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" t="str">
         <f t="shared" si="14"/>
         <v>Stage01143</v>
@@ -9987,8 +11015,11 @@
       <c r="F414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G414" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" t="str">
         <f t="shared" si="14"/>
         <v>Stage01144</v>
@@ -10009,8 +11040,11 @@
       <c r="F415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G415" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" t="str">
         <f t="shared" si="14"/>
         <v>Stage01145</v>
@@ -10031,8 +11065,11 @@
       <c r="F416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G416" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" t="str">
         <f t="shared" si="14"/>
         <v>Stage01146</v>
@@ -10053,8 +11090,11 @@
       <c r="F417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G417" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" t="str">
         <f t="shared" si="14"/>
         <v>Stage01147</v>
@@ -10075,8 +11115,11 @@
       <c r="F418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G418" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" t="str">
         <f t="shared" si="14"/>
         <v>Stage01148</v>
@@ -10097,8 +11140,11 @@
       <c r="F419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G419" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" t="str">
         <f t="shared" si="14"/>
         <v>Stage01149</v>
@@ -10119,8 +11165,11 @@
       <c r="F420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G420" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" t="str">
         <f t="shared" si="14"/>
         <v>Stage01150</v>
@@ -10141,8 +11190,11 @@
       <c r="F421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G421" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" t="str">
         <f t="shared" si="14"/>
         <v>Stage01201</v>
@@ -10163,8 +11215,11 @@
       <c r="F422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G422" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" t="str">
         <f t="shared" si="14"/>
         <v>Stage01202</v>
@@ -10185,8 +11240,11 @@
       <c r="F423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G423" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" t="str">
         <f t="shared" si="14"/>
         <v>Stage01203</v>
@@ -10207,8 +11265,11 @@
       <c r="F424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G424" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" t="str">
         <f t="shared" si="14"/>
         <v>Stage01204</v>
@@ -10229,8 +11290,11 @@
       <c r="F425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G425" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" t="str">
         <f t="shared" si="14"/>
         <v>Stage01205</v>
@@ -10251,8 +11315,11 @@
       <c r="F426">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G426" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" t="str">
         <f t="shared" si="14"/>
         <v>Stage01206</v>
@@ -10273,8 +11340,11 @@
       <c r="F427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G427" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" t="str">
         <f t="shared" si="14"/>
         <v>Stage01207</v>
@@ -10295,8 +11365,11 @@
       <c r="F428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G428" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" t="str">
         <f t="shared" si="14"/>
         <v>Stage01208</v>
@@ -10317,8 +11390,11 @@
       <c r="F429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G429" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" t="str">
         <f t="shared" si="14"/>
         <v>Stage01209</v>
@@ -10339,8 +11415,11 @@
       <c r="F430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G430" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" t="str">
         <f t="shared" si="14"/>
         <v>Stage01210</v>
@@ -10361,8 +11440,11 @@
       <c r="F431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G431" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" t="str">
         <f t="shared" si="14"/>
         <v>Stage01211</v>
@@ -10383,8 +11465,11 @@
       <c r="F432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G432" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" t="str">
         <f t="shared" si="14"/>
         <v>Stage01212</v>
@@ -10405,8 +11490,11 @@
       <c r="F433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G433" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" t="str">
         <f t="shared" si="14"/>
         <v>Stage01213</v>
@@ -10427,8 +11515,11 @@
       <c r="F434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G434" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" t="str">
         <f t="shared" si="14"/>
         <v>Stage01214</v>
@@ -10449,8 +11540,11 @@
       <c r="F435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G435" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" t="str">
         <f t="shared" si="14"/>
         <v>Stage01215</v>
@@ -10471,8 +11565,11 @@
       <c r="F436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G436" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" t="str">
         <f t="shared" si="14"/>
         <v>Stage01216</v>
@@ -10493,8 +11590,11 @@
       <c r="F437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G437" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" t="str">
         <f t="shared" si="14"/>
         <v>Stage01217</v>
@@ -10515,8 +11615,11 @@
       <c r="F438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G438" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" t="str">
         <f t="shared" si="14"/>
         <v>Stage01218</v>
@@ -10537,8 +11640,11 @@
       <c r="F439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G439" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" t="str">
         <f t="shared" si="14"/>
         <v>Stage01219</v>
@@ -10559,8 +11665,11 @@
       <c r="F440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G440" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" t="str">
         <f t="shared" si="14"/>
         <v>Stage01220</v>
@@ -10581,8 +11690,11 @@
       <c r="F441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G441" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" t="str">
         <f t="shared" si="14"/>
         <v>Stage01221</v>
@@ -10603,8 +11715,11 @@
       <c r="F442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G442" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" t="str">
         <f t="shared" si="14"/>
         <v>Stage01222</v>
@@ -10625,8 +11740,11 @@
       <c r="F443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G443" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" t="str">
         <f t="shared" si="14"/>
         <v>Stage01223</v>
@@ -10647,8 +11765,11 @@
       <c r="F444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G444" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" t="str">
         <f t="shared" si="14"/>
         <v>Stage01224</v>
@@ -10669,8 +11790,11 @@
       <c r="F445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G445" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" t="str">
         <f t="shared" si="14"/>
         <v>Stage01225</v>
@@ -10691,8 +11815,11 @@
       <c r="F446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G446" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" t="str">
         <f t="shared" si="14"/>
         <v>Stage01226</v>
@@ -10713,8 +11840,11 @@
       <c r="F447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G447" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" t="str">
         <f t="shared" si="14"/>
         <v>Stage01227</v>
@@ -10735,8 +11865,11 @@
       <c r="F448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G448" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" t="str">
         <f t="shared" si="14"/>
         <v>Stage01228</v>
@@ -10757,8 +11890,11 @@
       <c r="F449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G449" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" t="str">
         <f t="shared" si="14"/>
         <v>Stage01229</v>
@@ -10779,8 +11915,11 @@
       <c r="F450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G450" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" t="str">
         <f t="shared" ref="A451" si="16">"Stage"&amp;TEXT(B451*100+C451,"00000")</f>
         <v>Stage01230</v>
@@ -10800,6 +11939,9 @@
       </c>
       <c r="F451">
         <v>0</v>
+      </c>
+      <c r="G451" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -10810,101 +11952,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FD6C35-A3FA-49FB-9435-EF8A5141D4D6}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="60.25" customWidth="1"/>
-    <col min="3" max="4" width="35.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDB0DF-5C8E-46E0-A66A-0B4AF86ECDFD}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/작업Stage.xlsx
+++ b/Excel/작업Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5792C5AA-CC62-4622-A408-8E33B2C0C252}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06A017C-B42E-49E1-99BB-43EADD47C277}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="82">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,6 +329,10 @@
   </si>
   <si>
     <t>Plane_24_24_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackDelay|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +701,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14476,7 +14480,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDB0DF-5C8E-46E0-A66A-0B4AF86ECDFD}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14485,7 +14489,7 @@
     <col min="1" max="1" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -14498,8 +14502,11 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -14512,8 +14519,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -14526,8 +14536,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -14539,6 +14552,9 @@
       </c>
       <c r="D4">
         <v>1</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Stage.xlsx
+++ b/Excel/작업Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06A017C-B42E-49E1-99BB-43EADD47C277}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D05A65-5AD1-4BED-A942-9592875B7D02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
   </bookViews>
@@ -701,7 +701,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13942,7 +13942,7 @@
     <col min="11" max="11" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="9" collapsed="1"/>
     <col min="13" max="13" width="19.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="9" collapsed="1"/>
   </cols>
   <sheetData>
@@ -14511,10 +14511,10 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>

--- a/Excel/작업Stage.xlsx
+++ b/Excel/작업Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3510FAED-BCFD-4B0B-8359-4BADB3A73143}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FA3D6A-4051-4752-8A33-44D546D7ACF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
+    <workbookView xWindow="3810" yWindow="2655" windowWidth="29040" windowHeight="13485" activeTab="2" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="86">
   <si>
     <t>chapter|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +344,10 @@
   </si>
   <si>
     <t>맵4개검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackSpeed|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD089199-7F78-438F-98D3-F9F9DD953178}">
   <dimension ref="A1:L451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -23986,16 +23990,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDB0DF-5C8E-46E0-A66A-0B4AF86ECDFD}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -24011,8 +24015,11 @@
       <c r="E1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -24028,8 +24035,11 @@
       <c r="E2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -24045,8 +24055,11 @@
       <c r="E3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -24061,6 +24074,9 @@
       </c>
       <c r="E4">
         <v>7</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Stage.xlsx
+++ b/Excel/작업Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FA3D6A-4051-4752-8A33-44D546D7ACF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2006C5-8CCD-4FC3-A63D-72F171247F5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="2655" windowWidth="29040" windowHeight="13485" activeTab="2" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="85">
   <si>
     <t>chapter|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,10 +344,6 @@
   </si>
   <si>
     <t>맵4개검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackSpeed|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23990,7 +23986,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDB0DF-5C8E-46E0-A66A-0B4AF86ECDFD}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23999,7 +23995,7 @@
     <col min="1" max="1" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -24015,11 +24011,8 @@
       <c r="E1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -24035,11 +24028,8 @@
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -24055,11 +24045,8 @@
       <c r="E3">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -24074,9 +24061,6 @@
       </c>
       <c r="E4">
         <v>7</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Stage.xlsx
+++ b/Excel/작업Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2006C5-8CCD-4FC3-A63D-72F171247F5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB43C14-A7B4-4B5A-8AD8-8ED5AF9B68FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="86">
   <si>
     <t>chapter|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +344,10 @@
   </si>
   <si>
     <t>맵4개검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23986,7 +23990,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDB0DF-5C8E-46E0-A66A-0B4AF86ECDFD}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23995,7 +23999,7 @@
     <col min="1" max="1" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -24011,8 +24015,11 @@
       <c r="E1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -24028,8 +24035,11 @@
       <c r="E2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -24045,8 +24055,11 @@
       <c r="E3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -24061,6 +24074,9 @@
       </c>
       <c r="E4">
         <v>7</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Stage.xlsx
+++ b/Excel/작업Stage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB43C14-A7B4-4B5A-8AD8-8ED5AF9B68FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92574C2C-8C97-4C42-87C3-E78E0CA07015}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
+    <workbookView xWindow="0" yWindow="1950" windowWidth="29040" windowHeight="13485" activeTab="2" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
@@ -24033,7 +24033,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -24053,7 +24053,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>3.5</v>
@@ -24073,7 +24073,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="F4">
         <v>2</v>

--- a/Excel/작업Stage.xlsx
+++ b/Excel/작업Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ECF742-FBF5-4749-AAD0-18D6AC4D9DE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7209108C-8230-4C1B-B336-CDEEFDA274FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="88">
   <si>
     <t>chapter|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,25 +106,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wall_24_36_2</t>
-  </si>
-  <si>
-    <t>Wall_24_36_3</t>
-  </si>
-  <si>
-    <t>Wall_24_36_4</t>
-  </si>
-  <si>
-    <t>Wall_24_36_1_1</t>
-  </si>
-  <si>
     <t>Plane_24_24_1</t>
   </si>
   <si>
     <t>Plane_24_36_1</t>
-  </si>
-  <si>
-    <t>Wall_24_36_1</t>
   </si>
   <si>
     <t>Plane_24_24_2</t>
@@ -143,19 +128,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spawnFlag_24_36_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spawnFlag|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스폰플래그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpawnFlag_24_36_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,91 +193,11 @@
     <t>Map_1xMiddle2</t>
   </si>
   <si>
-    <t>spawnFlag_24_36_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnFlag_24_36_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnFlag_24_36_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnFlag_24_36_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnFlag_24_36_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wall_24_36_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnFlag_24_36_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnFlag_24_36_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnFlag_24_36_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnFlag_24_36_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnFlag_24_36_12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnFlag_24_36_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnFlag_24_36_14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnFlag_24_36_16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnFlag_24_36_17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnFlag_24_36_18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnFlag_24_36_19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spawnFlag_24_36_Middle1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>spawnFlag_24_36_Middle2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnFlag_24_36_Angel1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnFlag_24_36_Angel2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wall_24_24_6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -317,10 +214,6 @@
   </si>
   <si>
     <t>Map_1xAngel2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plane_24_24_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -356,6 +249,98 @@
   </si>
   <si>
     <t>gatePillarPreview|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall_24_24_1_1</t>
+  </si>
+  <si>
+    <t>Wall_24_24_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall_24_24_2</t>
+  </si>
+  <si>
+    <t>Wall_24_24_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall_24_24_3</t>
+  </si>
+  <si>
+    <t>Wall_24_24_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plane_24_36_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall_24_24_4</t>
+  </si>
+  <si>
+    <t>Wall_24_24_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnFlag_24_24_1</t>
+  </si>
+  <si>
+    <t>spawnFlag_24_24_1_1</t>
+  </si>
+  <si>
+    <t>spawnFlag_24_24_2</t>
+  </si>
+  <si>
+    <t>spawnFlag_24_24_3</t>
+  </si>
+  <si>
+    <t>spawnFlag_24_24_4</t>
+  </si>
+  <si>
+    <t>spawnFlag_24_24_6</t>
+  </si>
+  <si>
+    <t>spawnFlag_24_24_7</t>
+  </si>
+  <si>
+    <t>spawnFlag_24_24_8</t>
+  </si>
+  <si>
+    <t>spawnFlag_24_24_9</t>
+  </si>
+  <si>
+    <t>spawnFlag_24_24_Angel</t>
+  </si>
+  <si>
+    <t>spawnFlag_24_24_Angel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plane_24_24_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall_24_24_6</t>
+  </si>
+  <si>
+    <t>Wall_24_24_7</t>
+  </si>
+  <si>
+    <t>Wall_24_24_8</t>
+  </si>
+  <si>
+    <t>Wall_24_24_9</t>
+  </si>
+  <si>
+    <t>spawnFlag_24_36_Middle1</t>
+  </si>
+  <si>
+    <t>spawnFlag_24_36_Middle2</t>
+  </si>
+  <si>
+    <t>Wall_0_Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,9 +721,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD089199-7F78-438F-98D3-F9F9DD953178}">
-  <dimension ref="A1:N751"/>
+  <dimension ref="A1:M751"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -749,14 +734,13 @@
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="21.375" customWidth="1"/>
-    <col min="11" max="11" width="14" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="21.375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9" collapsed="1"/>
+    <col min="11" max="11" width="14" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="21.375" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -779,25 +763,25 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
         <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="M1" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -834,14 +818,14 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="K2" t="str">
         <f>IF(ISBLANK(J2),"",IF(ISERROR(VLOOKUP(J2,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="M2" t="str">
         <f>IF(ISBLANK(L2),"",
@@ -892,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K3" t="str">
         <f>IF(ISBLANK(J3),"",IF(ISERROR(VLOOKUP(J3,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -934,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G4" t="str">
         <f>IF(ISBLANK(F4),"",IF(ISERROR(VLOOKUP(F4,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1000,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K5" t="str">
         <f>IF(ISBLANK(J5),"",IF(ISERROR(VLOOKUP(J5,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1058,7 +1042,7 @@
         <v/>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="M6" t="str">
         <f>IF(ISBLANK(L6),"",
@@ -1107,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K7" t="str">
         <f>IF(ISBLANK(J7),"",IF(ISERROR(VLOOKUP(J7,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1160,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K8" t="str">
         <f>IF(ISBLANK(J8),"",IF(ISERROR(VLOOKUP(J8,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1213,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K9" t="str">
         <f>IF(ISBLANK(J9),"",IF(ISERROR(VLOOKUP(J9,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1266,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K10" t="str">
         <f>IF(ISBLANK(J10),"",IF(ISERROR(VLOOKUP(J10,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1319,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K11" t="str">
         <f>IF(ISBLANK(J11),"",IF(ISERROR(VLOOKUP(J11,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1373,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K12" t="str">
         <f>IF(ISBLANK(J12),"",IF(ISERROR(VLOOKUP(J12,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1427,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K13" t="str">
         <f>IF(ISBLANK(J13),"",IF(ISERROR(VLOOKUP(J13,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1481,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K14" t="str">
         <f>IF(ISBLANK(J14),"",IF(ISERROR(VLOOKUP(J14,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1535,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K15" t="str">
         <f>IF(ISBLANK(J15),"",IF(ISERROR(VLOOKUP(J15,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1593,7 +1577,7 @@
         <v/>
       </c>
       <c r="L16" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="M16" t="str">
         <f>IF(ISBLANK(L16),"",
@@ -1643,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K17" t="str">
         <f>IF(ISBLANK(J17),"",IF(ISERROR(VLOOKUP(J17,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1697,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K18" t="str">
         <f>IF(ISBLANK(J18),"",IF(ISERROR(VLOOKUP(J18,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1751,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K19" t="str">
         <f>IF(ISBLANK(J19),"",IF(ISERROR(VLOOKUP(J19,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1805,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K20" t="str">
         <f>IF(ISBLANK(J20),"",IF(ISERROR(VLOOKUP(J20,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1859,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K21" t="str">
         <f>IF(ISBLANK(J21),"",IF(ISERROR(VLOOKUP(J21,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1901,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G22" t="str">
         <f>IF(ISBLANK(F22),"",IF(ISERROR(VLOOKUP(F22,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1955,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G23" t="str">
         <f>IF(ISBLANK(F23),"",IF(ISERROR(VLOOKUP(F23,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2009,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G24" t="str">
         <f>IF(ISBLANK(F24),"",IF(ISERROR(VLOOKUP(F24,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2063,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G25" t="str">
         <f>IF(ISBLANK(F25),"",IF(ISERROR(VLOOKUP(F25,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2117,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G26" t="str">
         <f>IF(ISBLANK(F26),"",IF(ISERROR(VLOOKUP(F26,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2171,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G27" t="str">
         <f>IF(ISBLANK(F27),"",IF(ISERROR(VLOOKUP(F27,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2225,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G28" t="str">
         <f>IF(ISBLANK(F28),"",IF(ISERROR(VLOOKUP(F28,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2279,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G29" t="str">
         <f>IF(ISBLANK(F29),"",IF(ISERROR(VLOOKUP(F29,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2333,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G30" t="str">
         <f>IF(ISBLANK(F30),"",IF(ISERROR(VLOOKUP(F30,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2387,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G31" t="str">
         <f>IF(ISBLANK(F31),"",IF(ISERROR(VLOOKUP(F31,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2441,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G32" t="str">
         <f>IF(ISBLANK(F32),"",IF(ISERROR(VLOOKUP(F32,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2495,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G33" t="str">
         <f>IF(ISBLANK(F33),"",IF(ISERROR(VLOOKUP(F33,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2549,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G34" t="str">
         <f>IF(ISBLANK(F34),"",IF(ISERROR(VLOOKUP(F34,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2603,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G35" t="str">
         <f>IF(ISBLANK(F35),"",IF(ISERROR(VLOOKUP(F35,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2657,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G36" t="str">
         <f>IF(ISBLANK(F36),"",IF(ISERROR(VLOOKUP(F36,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2711,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G37" t="str">
         <f>IF(ISBLANK(F37),"",IF(ISERROR(VLOOKUP(F37,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2765,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G38" t="str">
         <f>IF(ISBLANK(F38),"",IF(ISERROR(VLOOKUP(F38,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2819,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G39" t="str">
         <f>IF(ISBLANK(F39),"",IF(ISERROR(VLOOKUP(F39,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2873,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G40" t="str">
         <f>IF(ISBLANK(F40),"",IF(ISERROR(VLOOKUP(F40,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2927,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G41" t="str">
         <f>IF(ISBLANK(F41),"",IF(ISERROR(VLOOKUP(F41,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2981,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G42" t="str">
         <f>IF(ISBLANK(F42),"",IF(ISERROR(VLOOKUP(F42,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3035,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G43" t="str">
         <f>IF(ISBLANK(F43),"",IF(ISERROR(VLOOKUP(F43,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3089,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G44" t="str">
         <f>IF(ISBLANK(F44),"",IF(ISERROR(VLOOKUP(F44,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3143,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G45" t="str">
         <f>IF(ISBLANK(F45),"",IF(ISERROR(VLOOKUP(F45,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3197,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G46" t="str">
         <f>IF(ISBLANK(F46),"",IF(ISERROR(VLOOKUP(F46,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3251,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G47" t="str">
         <f>IF(ISBLANK(F47),"",IF(ISERROR(VLOOKUP(F47,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3305,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G48" t="str">
         <f>IF(ISBLANK(F48),"",IF(ISERROR(VLOOKUP(F48,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3359,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G49" t="str">
         <f>IF(ISBLANK(F49),"",IF(ISERROR(VLOOKUP(F49,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3413,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G50" t="str">
         <f>IF(ISBLANK(F50),"",IF(ISERROR(VLOOKUP(F50,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3467,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G51" t="str">
         <f>IF(ISBLANK(F51),"",IF(ISERROR(VLOOKUP(F51,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3521,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G52" t="str">
         <f>IF(ISBLANK(F52),"",IF(ISERROR(VLOOKUP(F52,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3575,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G53" t="str">
         <f>IF(ISBLANK(F53),"",IF(ISERROR(VLOOKUP(F53,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3629,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G54" t="str">
         <f>IF(ISBLANK(F54),"",IF(ISERROR(VLOOKUP(F54,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3683,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G55" t="str">
         <f>IF(ISBLANK(F55),"",IF(ISERROR(VLOOKUP(F55,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3737,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G56" t="str">
         <f>IF(ISBLANK(F56),"",IF(ISERROR(VLOOKUP(F56,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3794,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G57" t="str">
         <f>IF(ISBLANK(F57),"",IF(ISERROR(VLOOKUP(F57,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3851,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G58" t="str">
         <f>IF(ISBLANK(F58),"",IF(ISERROR(VLOOKUP(F58,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3905,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G59" t="str">
         <f>IF(ISBLANK(F59),"",IF(ISERROR(VLOOKUP(F59,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3959,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G60" t="str">
         <f>IF(ISBLANK(F60),"",IF(ISERROR(VLOOKUP(F60,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4013,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G61" t="str">
         <f>IF(ISBLANK(F61),"",IF(ISERROR(VLOOKUP(F61,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4067,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G62" t="str">
         <f>IF(ISBLANK(F62),"",IF(ISERROR(VLOOKUP(F62,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4121,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G63" t="str">
         <f>IF(ISBLANK(F63),"",IF(ISERROR(VLOOKUP(F63,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4175,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G64" t="str">
         <f>IF(ISBLANK(F64),"",IF(ISERROR(VLOOKUP(F64,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4229,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G65" t="str">
         <f>IF(ISBLANK(F65),"",IF(ISERROR(VLOOKUP(F65,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4283,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G66" t="str">
         <f>IF(ISBLANK(F66),"",IF(ISERROR(VLOOKUP(F66,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4337,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G67" t="str">
         <f>IF(ISBLANK(F67),"",IF(ISERROR(VLOOKUP(F67,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4393,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G68" t="str">
         <f>IF(ISBLANK(F68),"",IF(ISERROR(VLOOKUP(F68,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4447,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G69" t="str">
         <f>IF(ISBLANK(F69),"",IF(ISERROR(VLOOKUP(F69,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4501,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G70" t="str">
         <f>IF(ISBLANK(F70),"",IF(ISERROR(VLOOKUP(F70,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4555,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G71" t="str">
         <f>IF(ISBLANK(F71),"",IF(ISERROR(VLOOKUP(F71,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4609,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G72" t="str">
         <f>IF(ISBLANK(F72),"",IF(ISERROR(VLOOKUP(F72,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4663,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G73" t="str">
         <f>IF(ISBLANK(F73),"",IF(ISERROR(VLOOKUP(F73,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4717,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G74" t="str">
         <f>IF(ISBLANK(F74),"",IF(ISERROR(VLOOKUP(F74,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4771,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G75" t="str">
         <f>IF(ISBLANK(F75),"",IF(ISERROR(VLOOKUP(F75,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4825,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G76" t="str">
         <f>IF(ISBLANK(F76),"",IF(ISERROR(VLOOKUP(F76,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4879,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G77" t="str">
         <f>IF(ISBLANK(F77),"",IF(ISERROR(VLOOKUP(F77,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4933,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G78" t="str">
         <f>IF(ISBLANK(F78),"",IF(ISERROR(VLOOKUP(F78,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4987,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G79" t="str">
         <f>IF(ISBLANK(F79),"",IF(ISERROR(VLOOKUP(F79,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5041,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G80" t="str">
         <f>IF(ISBLANK(F80),"",IF(ISERROR(VLOOKUP(F80,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5095,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G81" t="str">
         <f>IF(ISBLANK(F81),"",IF(ISERROR(VLOOKUP(F81,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5149,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G82" t="str">
         <f>IF(ISBLANK(F82),"",IF(ISERROR(VLOOKUP(F82,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5203,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G83" t="str">
         <f>IF(ISBLANK(F83),"",IF(ISERROR(VLOOKUP(F83,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5257,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G84" t="str">
         <f>IF(ISBLANK(F84),"",IF(ISERROR(VLOOKUP(F84,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5311,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G85" t="str">
         <f>IF(ISBLANK(F85),"",IF(ISERROR(VLOOKUP(F85,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5365,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G86" t="str">
         <f>IF(ISBLANK(F86),"",IF(ISERROR(VLOOKUP(F86,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5419,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G87" t="str">
         <f>IF(ISBLANK(F87),"",IF(ISERROR(VLOOKUP(F87,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5473,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G88" t="str">
         <f>IF(ISBLANK(F88),"",IF(ISERROR(VLOOKUP(F88,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5527,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G89" t="str">
         <f>IF(ISBLANK(F89),"",IF(ISERROR(VLOOKUP(F89,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5581,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G90" t="str">
         <f>IF(ISBLANK(F90),"",IF(ISERROR(VLOOKUP(F90,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5635,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G91" t="str">
         <f>IF(ISBLANK(F91),"",IF(ISERROR(VLOOKUP(F91,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5689,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G92" t="str">
         <f>IF(ISBLANK(F92),"",IF(ISERROR(VLOOKUP(F92,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5743,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G93" t="str">
         <f>IF(ISBLANK(F93),"",IF(ISERROR(VLOOKUP(F93,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5797,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G94" t="str">
         <f>IF(ISBLANK(F94),"",IF(ISERROR(VLOOKUP(F94,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5851,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G95" t="str">
         <f>IF(ISBLANK(F95),"",IF(ISERROR(VLOOKUP(F95,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5905,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G96" t="str">
         <f>IF(ISBLANK(F96),"",IF(ISERROR(VLOOKUP(F96,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5959,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G97" t="str">
         <f>IF(ISBLANK(F97),"",IF(ISERROR(VLOOKUP(F97,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6013,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G98" t="str">
         <f>IF(ISBLANK(F98),"",IF(ISERROR(VLOOKUP(F98,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6067,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G99" t="str">
         <f>IF(ISBLANK(F99),"",IF(ISERROR(VLOOKUP(F99,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6121,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G100" t="str">
         <f>IF(ISBLANK(F100),"",IF(ISERROR(VLOOKUP(F100,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6175,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G101" t="str">
         <f>IF(ISBLANK(F101),"",IF(ISERROR(VLOOKUP(F101,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6229,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G102" t="str">
         <f>IF(ISBLANK(F102),"",IF(ISERROR(VLOOKUP(F102,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6262,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G103" t="str">
         <f>IF(ISBLANK(F103),"",IF(ISERROR(VLOOKUP(F103,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6295,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G104" t="str">
         <f>IF(ISBLANK(F104),"",IF(ISERROR(VLOOKUP(F104,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6328,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G105" t="str">
         <f>IF(ISBLANK(F105),"",IF(ISERROR(VLOOKUP(F105,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6361,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G106" t="str">
         <f>IF(ISBLANK(F106),"",IF(ISERROR(VLOOKUP(F106,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6394,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G107" t="str">
         <f>IF(ISBLANK(F107),"",IF(ISERROR(VLOOKUP(F107,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6427,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G108" t="str">
         <f>IF(ISBLANK(F108),"",IF(ISERROR(VLOOKUP(F108,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6460,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G109" t="str">
         <f>IF(ISBLANK(F109),"",IF(ISERROR(VLOOKUP(F109,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6493,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G110" t="str">
         <f>IF(ISBLANK(F110),"",IF(ISERROR(VLOOKUP(F110,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6526,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G111" t="str">
         <f>IF(ISBLANK(F111),"",IF(ISERROR(VLOOKUP(F111,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6559,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G112" t="str">
         <f>IF(ISBLANK(F112),"",IF(ISERROR(VLOOKUP(F112,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6592,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G113" t="str">
         <f>IF(ISBLANK(F113),"",IF(ISERROR(VLOOKUP(F113,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6625,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G114" t="str">
         <f>IF(ISBLANK(F114),"",IF(ISERROR(VLOOKUP(F114,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6658,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G115" t="str">
         <f>IF(ISBLANK(F115),"",IF(ISERROR(VLOOKUP(F115,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6691,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G116" t="str">
         <f>IF(ISBLANK(F116),"",IF(ISERROR(VLOOKUP(F116,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6724,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G117" t="str">
         <f>IF(ISBLANK(F117),"",IF(ISERROR(VLOOKUP(F117,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6757,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G118" t="str">
         <f>IF(ISBLANK(F118),"",IF(ISERROR(VLOOKUP(F118,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6790,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G119" t="str">
         <f>IF(ISBLANK(F119),"",IF(ISERROR(VLOOKUP(F119,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6823,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G120" t="str">
         <f>IF(ISBLANK(F120),"",IF(ISERROR(VLOOKUP(F120,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6856,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G121" t="str">
         <f>IF(ISBLANK(F121),"",IF(ISERROR(VLOOKUP(F121,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6892,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G122" t="str">
         <f>IF(ISBLANK(F122),"",IF(ISERROR(VLOOKUP(F122,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6925,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G123" t="str">
         <f>IF(ISBLANK(F123),"",IF(ISERROR(VLOOKUP(F123,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6958,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G124" t="str">
         <f>IF(ISBLANK(F124),"",IF(ISERROR(VLOOKUP(F124,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -6991,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G125" t="str">
         <f>IF(ISBLANK(F125),"",IF(ISERROR(VLOOKUP(F125,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7024,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G126" t="str">
         <f>IF(ISBLANK(F126),"",IF(ISERROR(VLOOKUP(F126,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7057,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G127" t="str">
         <f>IF(ISBLANK(F127),"",IF(ISERROR(VLOOKUP(F127,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7090,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G128" t="str">
         <f>IF(ISBLANK(F128),"",IF(ISERROR(VLOOKUP(F128,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7123,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G129" t="str">
         <f>IF(ISBLANK(F129),"",IF(ISERROR(VLOOKUP(F129,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7156,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G130" t="str">
         <f>IF(ISBLANK(F130),"",IF(ISERROR(VLOOKUP(F130,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7189,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G131" t="str">
         <f>IF(ISBLANK(F131),"",IF(ISERROR(VLOOKUP(F131,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7224,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G132" t="str">
         <f>IF(ISBLANK(F132),"",IF(ISERROR(VLOOKUP(F132,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7278,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G133" t="str">
         <f>IF(ISBLANK(F133),"",IF(ISERROR(VLOOKUP(F133,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7332,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G134" t="str">
         <f>IF(ISBLANK(F134),"",IF(ISERROR(VLOOKUP(F134,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7386,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G135" t="str">
         <f>IF(ISBLANK(F135),"",IF(ISERROR(VLOOKUP(F135,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7440,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G136" t="str">
         <f>IF(ISBLANK(F136),"",IF(ISERROR(VLOOKUP(F136,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7494,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G137" t="str">
         <f>IF(ISBLANK(F137),"",IF(ISERROR(VLOOKUP(F137,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7548,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G138" t="str">
         <f>IF(ISBLANK(F138),"",IF(ISERROR(VLOOKUP(F138,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7602,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G139" t="str">
         <f>IF(ISBLANK(F139),"",IF(ISERROR(VLOOKUP(F139,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7656,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G140" t="str">
         <f>IF(ISBLANK(F140),"",IF(ISERROR(VLOOKUP(F140,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7710,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G141" t="str">
         <f>IF(ISBLANK(F141),"",IF(ISERROR(VLOOKUP(F141,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7764,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G142" t="str">
         <f>IF(ISBLANK(F142),"",IF(ISERROR(VLOOKUP(F142,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7818,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G143" t="str">
         <f>IF(ISBLANK(F143),"",IF(ISERROR(VLOOKUP(F143,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7872,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G144" t="str">
         <f>IF(ISBLANK(F144),"",IF(ISERROR(VLOOKUP(F144,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7926,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G145" t="str">
         <f>IF(ISBLANK(F145),"",IF(ISERROR(VLOOKUP(F145,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -7980,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G146" t="str">
         <f>IF(ISBLANK(F146),"",IF(ISERROR(VLOOKUP(F146,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8034,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G147" t="str">
         <f>IF(ISBLANK(F147),"",IF(ISERROR(VLOOKUP(F147,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8088,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G148" t="str">
         <f>IF(ISBLANK(F148),"",IF(ISERROR(VLOOKUP(F148,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8142,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G149" t="str">
         <f>IF(ISBLANK(F149),"",IF(ISERROR(VLOOKUP(F149,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8196,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G150" t="str">
         <f>IF(ISBLANK(F150),"",IF(ISERROR(VLOOKUP(F150,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8250,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G151" t="str">
         <f>IF(ISBLANK(F151),"",IF(ISERROR(VLOOKUP(F151,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8304,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G152" t="str">
         <f>IF(ISBLANK(F152),"",IF(ISERROR(VLOOKUP(F152,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8358,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G153" t="str">
         <f>IF(ISBLANK(F153),"",IF(ISERROR(VLOOKUP(F153,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8412,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G154" t="str">
         <f>IF(ISBLANK(F154),"",IF(ISERROR(VLOOKUP(F154,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8466,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G155" t="str">
         <f>IF(ISBLANK(F155),"",IF(ISERROR(VLOOKUP(F155,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8520,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G156" t="str">
         <f>IF(ISBLANK(F156),"",IF(ISERROR(VLOOKUP(F156,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8574,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G157" t="str">
         <f>IF(ISBLANK(F157),"",IF(ISERROR(VLOOKUP(F157,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8628,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G158" t="str">
         <f>IF(ISBLANK(F158),"",IF(ISERROR(VLOOKUP(F158,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8682,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G159" t="str">
         <f>IF(ISBLANK(F159),"",IF(ISERROR(VLOOKUP(F159,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8736,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G160" t="str">
         <f>IF(ISBLANK(F160),"",IF(ISERROR(VLOOKUP(F160,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8790,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G161" t="str">
         <f>IF(ISBLANK(F161),"",IF(ISERROR(VLOOKUP(F161,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8844,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G162" t="str">
         <f>IF(ISBLANK(F162),"",IF(ISERROR(VLOOKUP(F162,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8898,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G163" t="str">
         <f>IF(ISBLANK(F163),"",IF(ISERROR(VLOOKUP(F163,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -8952,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G164" t="str">
         <f>IF(ISBLANK(F164),"",IF(ISERROR(VLOOKUP(F164,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9006,7 +8990,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G165" t="str">
         <f>IF(ISBLANK(F165),"",IF(ISERROR(VLOOKUP(F165,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9060,7 +9044,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G166" t="str">
         <f>IF(ISBLANK(F166),"",IF(ISERROR(VLOOKUP(F166,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9114,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G167" t="str">
         <f>IF(ISBLANK(F167),"",IF(ISERROR(VLOOKUP(F167,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9168,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G168" t="str">
         <f>IF(ISBLANK(F168),"",IF(ISERROR(VLOOKUP(F168,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9222,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G169" t="str">
         <f>IF(ISBLANK(F169),"",IF(ISERROR(VLOOKUP(F169,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9276,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G170" t="str">
         <f>IF(ISBLANK(F170),"",IF(ISERROR(VLOOKUP(F170,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9330,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G171" t="str">
         <f>IF(ISBLANK(F171),"",IF(ISERROR(VLOOKUP(F171,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9384,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G172" t="str">
         <f>IF(ISBLANK(F172),"",IF(ISERROR(VLOOKUP(F172,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9438,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G173" t="str">
         <f>IF(ISBLANK(F173),"",IF(ISERROR(VLOOKUP(F173,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9492,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G174" t="str">
         <f>IF(ISBLANK(F174),"",IF(ISERROR(VLOOKUP(F174,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9546,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G175" t="str">
         <f>IF(ISBLANK(F175),"",IF(ISERROR(VLOOKUP(F175,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9600,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G176" t="str">
         <f>IF(ISBLANK(F176),"",IF(ISERROR(VLOOKUP(F176,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9654,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G177" t="str">
         <f>IF(ISBLANK(F177),"",IF(ISERROR(VLOOKUP(F177,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9708,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G178" t="str">
         <f>IF(ISBLANK(F178),"",IF(ISERROR(VLOOKUP(F178,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9762,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G179" t="str">
         <f>IF(ISBLANK(F179),"",IF(ISERROR(VLOOKUP(F179,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9816,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G180" t="str">
         <f>IF(ISBLANK(F180),"",IF(ISERROR(VLOOKUP(F180,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9870,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G181" t="str">
         <f>IF(ISBLANK(F181),"",IF(ISERROR(VLOOKUP(F181,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9924,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G182" t="str">
         <f>IF(ISBLANK(F182),"",IF(ISERROR(VLOOKUP(F182,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -9978,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G183" t="str">
         <f>IF(ISBLANK(F183),"",IF(ISERROR(VLOOKUP(F183,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10032,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G184" t="str">
         <f>IF(ISBLANK(F184),"",IF(ISERROR(VLOOKUP(F184,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10086,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G185" t="str">
         <f>IF(ISBLANK(F185),"",IF(ISERROR(VLOOKUP(F185,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10143,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G186" t="str">
         <f>IF(ISBLANK(F186),"",IF(ISERROR(VLOOKUP(F186,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10197,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G187" t="str">
         <f>IF(ISBLANK(F187),"",IF(ISERROR(VLOOKUP(F187,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10251,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G188" t="str">
         <f>IF(ISBLANK(F188),"",IF(ISERROR(VLOOKUP(F188,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10305,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G189" t="str">
         <f>IF(ISBLANK(F189),"",IF(ISERROR(VLOOKUP(F189,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10359,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G190" t="str">
         <f>IF(ISBLANK(F190),"",IF(ISERROR(VLOOKUP(F190,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10413,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G191" t="str">
         <f>IF(ISBLANK(F191),"",IF(ISERROR(VLOOKUP(F191,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10467,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G192" t="str">
         <f>IF(ISBLANK(F192),"",IF(ISERROR(VLOOKUP(F192,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10521,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G193" t="str">
         <f>IF(ISBLANK(F193),"",IF(ISERROR(VLOOKUP(F193,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10575,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G194" t="str">
         <f>IF(ISBLANK(F194),"",IF(ISERROR(VLOOKUP(F194,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10629,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G195" t="str">
         <f>IF(ISBLANK(F195),"",IF(ISERROR(VLOOKUP(F195,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10685,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="F196" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G196" t="str">
         <f>IF(ISBLANK(F196),"",IF(ISERROR(VLOOKUP(F196,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10739,7 +10723,7 @@
         <v>0</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G197" t="str">
         <f>IF(ISBLANK(F197),"",IF(ISERROR(VLOOKUP(F197,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10793,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G198" t="str">
         <f>IF(ISBLANK(F198),"",IF(ISERROR(VLOOKUP(F198,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10847,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G199" t="str">
         <f>IF(ISBLANK(F199),"",IF(ISERROR(VLOOKUP(F199,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10901,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G200" t="str">
         <f>IF(ISBLANK(F200),"",IF(ISERROR(VLOOKUP(F200,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -10955,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G201" t="str">
         <f>IF(ISBLANK(F201),"",IF(ISERROR(VLOOKUP(F201,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11009,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G202" t="str">
         <f>IF(ISBLANK(F202),"",IF(ISERROR(VLOOKUP(F202,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11063,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G203" t="str">
         <f>IF(ISBLANK(F203),"",IF(ISERROR(VLOOKUP(F203,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11117,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G204" t="str">
         <f>IF(ISBLANK(F204),"",IF(ISERROR(VLOOKUP(F204,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11171,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G205" t="str">
         <f>IF(ISBLANK(F205),"",IF(ISERROR(VLOOKUP(F205,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11225,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G206" t="str">
         <f>IF(ISBLANK(F206),"",IF(ISERROR(VLOOKUP(F206,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11279,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G207" t="str">
         <f>IF(ISBLANK(F207),"",IF(ISERROR(VLOOKUP(F207,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11333,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G208" t="str">
         <f>IF(ISBLANK(F208),"",IF(ISERROR(VLOOKUP(F208,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11387,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G209" t="str">
         <f>IF(ISBLANK(F209),"",IF(ISERROR(VLOOKUP(F209,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11441,7 +11425,7 @@
         <v>0</v>
       </c>
       <c r="F210" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G210" t="str">
         <f>IF(ISBLANK(F210),"",IF(ISERROR(VLOOKUP(F210,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11495,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G211" t="str">
         <f>IF(ISBLANK(F211),"",IF(ISERROR(VLOOKUP(F211,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11549,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="F212" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G212" t="str">
         <f>IF(ISBLANK(F212),"",IF(ISERROR(VLOOKUP(F212,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11603,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G213" t="str">
         <f>IF(ISBLANK(F213),"",IF(ISERROR(VLOOKUP(F213,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11657,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G214" t="str">
         <f>IF(ISBLANK(F214),"",IF(ISERROR(VLOOKUP(F214,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11711,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G215" t="str">
         <f>IF(ISBLANK(F215),"",IF(ISERROR(VLOOKUP(F215,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11765,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G216" t="str">
         <f>IF(ISBLANK(F216),"",IF(ISERROR(VLOOKUP(F216,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11819,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G217" t="str">
         <f>IF(ISBLANK(F217),"",IF(ISERROR(VLOOKUP(F217,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11873,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G218" t="str">
         <f>IF(ISBLANK(F218),"",IF(ISERROR(VLOOKUP(F218,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11927,7 +11911,7 @@
         <v>0</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G219" t="str">
         <f>IF(ISBLANK(F219),"",IF(ISERROR(VLOOKUP(F219,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -11981,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G220" t="str">
         <f>IF(ISBLANK(F220),"",IF(ISERROR(VLOOKUP(F220,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12035,7 +12019,7 @@
         <v>0</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G221" t="str">
         <f>IF(ISBLANK(F221),"",IF(ISERROR(VLOOKUP(F221,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12089,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G222" t="str">
         <f>IF(ISBLANK(F222),"",IF(ISERROR(VLOOKUP(F222,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12143,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G223" t="str">
         <f>IF(ISBLANK(F223),"",IF(ISERROR(VLOOKUP(F223,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12197,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G224" t="str">
         <f>IF(ISBLANK(F224),"",IF(ISERROR(VLOOKUP(F224,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12251,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G225" t="str">
         <f>IF(ISBLANK(F225),"",IF(ISERROR(VLOOKUP(F225,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12305,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="F226" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G226" t="str">
         <f>IF(ISBLANK(F226),"",IF(ISERROR(VLOOKUP(F226,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12359,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="F227" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G227" t="str">
         <f>IF(ISBLANK(F227),"",IF(ISERROR(VLOOKUP(F227,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12413,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G228" t="str">
         <f>IF(ISBLANK(F228),"",IF(ISERROR(VLOOKUP(F228,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12467,7 +12451,7 @@
         <v>0</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G229" t="str">
         <f>IF(ISBLANK(F229),"",IF(ISERROR(VLOOKUP(F229,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12521,7 +12505,7 @@
         <v>0</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G230" t="str">
         <f>IF(ISBLANK(F230),"",IF(ISERROR(VLOOKUP(F230,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12575,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="F231" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G231" t="str">
         <f>IF(ISBLANK(F231),"",IF(ISERROR(VLOOKUP(F231,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12629,7 +12613,7 @@
         <v>0</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G232" t="str">
         <f>IF(ISBLANK(F232),"",IF(ISERROR(VLOOKUP(F232,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12683,7 +12667,7 @@
         <v>0</v>
       </c>
       <c r="F233" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G233" t="str">
         <f>IF(ISBLANK(F233),"",IF(ISERROR(VLOOKUP(F233,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12737,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="F234" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G234" t="str">
         <f>IF(ISBLANK(F234),"",IF(ISERROR(VLOOKUP(F234,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12791,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="F235" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G235" t="str">
         <f>IF(ISBLANK(F235),"",IF(ISERROR(VLOOKUP(F235,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12845,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G236" t="str">
         <f>IF(ISBLANK(F236),"",IF(ISERROR(VLOOKUP(F236,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12899,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="F237" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G237" t="str">
         <f>IF(ISBLANK(F237),"",IF(ISERROR(VLOOKUP(F237,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -12953,7 +12937,7 @@
         <v>0</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G238" t="str">
         <f>IF(ISBLANK(F238),"",IF(ISERROR(VLOOKUP(F238,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13007,7 +12991,7 @@
         <v>0</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G239" t="str">
         <f>IF(ISBLANK(F239),"",IF(ISERROR(VLOOKUP(F239,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13061,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G240" t="str">
         <f>IF(ISBLANK(F240),"",IF(ISERROR(VLOOKUP(F240,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13115,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="F241" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G241" t="str">
         <f>IF(ISBLANK(F241),"",IF(ISERROR(VLOOKUP(F241,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13169,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="F242" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G242" t="str">
         <f>IF(ISBLANK(F242),"",IF(ISERROR(VLOOKUP(F242,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13223,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="F243" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G243" t="str">
         <f>IF(ISBLANK(F243),"",IF(ISERROR(VLOOKUP(F243,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13277,7 +13261,7 @@
         <v>0</v>
       </c>
       <c r="F244" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G244" t="str">
         <f>IF(ISBLANK(F244),"",IF(ISERROR(VLOOKUP(F244,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13331,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="F245" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G245" t="str">
         <f>IF(ISBLANK(F245),"",IF(ISERROR(VLOOKUP(F245,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13385,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="F246" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G246" t="str">
         <f>IF(ISBLANK(F246),"",IF(ISERROR(VLOOKUP(F246,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13439,7 +13423,7 @@
         <v>0</v>
       </c>
       <c r="F247" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G247" t="str">
         <f>IF(ISBLANK(F247),"",IF(ISERROR(VLOOKUP(F247,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13493,7 +13477,7 @@
         <v>0</v>
       </c>
       <c r="F248" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G248" t="str">
         <f>IF(ISBLANK(F248),"",IF(ISERROR(VLOOKUP(F248,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13547,7 +13531,7 @@
         <v>0</v>
       </c>
       <c r="F249" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G249" t="str">
         <f>IF(ISBLANK(F249),"",IF(ISERROR(VLOOKUP(F249,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13604,7 +13588,7 @@
         <v>0</v>
       </c>
       <c r="F250" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G250" t="str">
         <f>IF(ISBLANK(F250),"",IF(ISERROR(VLOOKUP(F250,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13658,7 +13642,7 @@
         <v>0</v>
       </c>
       <c r="F251" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G251" t="str">
         <f>IF(ISBLANK(F251),"",IF(ISERROR(VLOOKUP(F251,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13712,7 +13696,7 @@
         <v>0</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G252" t="str">
         <f>IF(ISBLANK(F252),"",IF(ISERROR(VLOOKUP(F252,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13745,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="F253" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G253" t="str">
         <f>IF(ISBLANK(F253),"",IF(ISERROR(VLOOKUP(F253,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13778,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="F254" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G254" t="str">
         <f>IF(ISBLANK(F254),"",IF(ISERROR(VLOOKUP(F254,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13811,7 +13795,7 @@
         <v>0</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G255" t="str">
         <f>IF(ISBLANK(F255),"",IF(ISERROR(VLOOKUP(F255,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13844,7 +13828,7 @@
         <v>0</v>
       </c>
       <c r="F256" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G256" t="str">
         <f>IF(ISBLANK(F256),"",IF(ISERROR(VLOOKUP(F256,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13877,7 +13861,7 @@
         <v>0</v>
       </c>
       <c r="F257" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G257" t="str">
         <f>IF(ISBLANK(F257),"",IF(ISERROR(VLOOKUP(F257,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13910,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="F258" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G258" t="str">
         <f>IF(ISBLANK(F258),"",IF(ISERROR(VLOOKUP(F258,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13943,7 +13927,7 @@
         <v>0</v>
       </c>
       <c r="F259" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G259" t="str">
         <f>IF(ISBLANK(F259),"",IF(ISERROR(VLOOKUP(F259,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -13978,7 +13962,7 @@
         <v>0</v>
       </c>
       <c r="F260" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G260" t="str">
         <f>IF(ISBLANK(F260),"",IF(ISERROR(VLOOKUP(F260,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14011,7 +13995,7 @@
         <v>0</v>
       </c>
       <c r="F261" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G261" t="str">
         <f>IF(ISBLANK(F261),"",IF(ISERROR(VLOOKUP(F261,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14044,7 +14028,7 @@
         <v>0</v>
       </c>
       <c r="F262" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G262" t="str">
         <f>IF(ISBLANK(F262),"",IF(ISERROR(VLOOKUP(F262,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14077,7 +14061,7 @@
         <v>0</v>
       </c>
       <c r="F263" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G263" t="str">
         <f>IF(ISBLANK(F263),"",IF(ISERROR(VLOOKUP(F263,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14110,7 +14094,7 @@
         <v>0</v>
       </c>
       <c r="F264" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G264" t="str">
         <f>IF(ISBLANK(F264),"",IF(ISERROR(VLOOKUP(F264,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14143,7 +14127,7 @@
         <v>0</v>
       </c>
       <c r="F265" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G265" t="str">
         <f>IF(ISBLANK(F265),"",IF(ISERROR(VLOOKUP(F265,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14176,7 +14160,7 @@
         <v>0</v>
       </c>
       <c r="F266" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G266" t="str">
         <f>IF(ISBLANK(F266),"",IF(ISERROR(VLOOKUP(F266,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14209,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="F267" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G267" t="str">
         <f>IF(ISBLANK(F267),"",IF(ISERROR(VLOOKUP(F267,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14242,7 +14226,7 @@
         <v>0</v>
       </c>
       <c r="F268" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G268" t="str">
         <f>IF(ISBLANK(F268),"",IF(ISERROR(VLOOKUP(F268,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14275,7 +14259,7 @@
         <v>0</v>
       </c>
       <c r="F269" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G269" t="str">
         <f>IF(ISBLANK(F269),"",IF(ISERROR(VLOOKUP(F269,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14308,7 +14292,7 @@
         <v>0</v>
       </c>
       <c r="F270" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G270" t="str">
         <f>IF(ISBLANK(F270),"",IF(ISERROR(VLOOKUP(F270,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14341,7 +14325,7 @@
         <v>0</v>
       </c>
       <c r="F271" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G271" t="str">
         <f>IF(ISBLANK(F271),"",IF(ISERROR(VLOOKUP(F271,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14374,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="F272" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G272" t="str">
         <f>IF(ISBLANK(F272),"",IF(ISERROR(VLOOKUP(F272,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14407,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="F273" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G273" t="str">
         <f>IF(ISBLANK(F273),"",IF(ISERROR(VLOOKUP(F273,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14440,7 +14424,7 @@
         <v>0</v>
       </c>
       <c r="F274" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G274" t="str">
         <f>IF(ISBLANK(F274),"",IF(ISERROR(VLOOKUP(F274,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14473,7 +14457,7 @@
         <v>0</v>
       </c>
       <c r="F275" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G275" t="str">
         <f>IF(ISBLANK(F275),"",IF(ISERROR(VLOOKUP(F275,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14506,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="F276" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G276" t="str">
         <f>IF(ISBLANK(F276),"",IF(ISERROR(VLOOKUP(F276,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14539,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="F277" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G277" t="str">
         <f>IF(ISBLANK(F277),"",IF(ISERROR(VLOOKUP(F277,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14572,7 +14556,7 @@
         <v>0</v>
       </c>
       <c r="F278" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G278" t="str">
         <f>IF(ISBLANK(F278),"",IF(ISERROR(VLOOKUP(F278,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14605,7 +14589,7 @@
         <v>0</v>
       </c>
       <c r="F279" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G279" t="str">
         <f>IF(ISBLANK(F279),"",IF(ISERROR(VLOOKUP(F279,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14638,7 +14622,7 @@
         <v>0</v>
       </c>
       <c r="F280" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G280" t="str">
         <f>IF(ISBLANK(F280),"",IF(ISERROR(VLOOKUP(F280,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14671,7 +14655,7 @@
         <v>0</v>
       </c>
       <c r="F281" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G281" t="str">
         <f>IF(ISBLANK(F281),"",IF(ISERROR(VLOOKUP(F281,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14704,7 +14688,7 @@
         <v>0</v>
       </c>
       <c r="F282" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G282" t="str">
         <f>IF(ISBLANK(F282),"",IF(ISERROR(VLOOKUP(F282,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14737,7 +14721,7 @@
         <v>0</v>
       </c>
       <c r="F283" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G283" t="str">
         <f>IF(ISBLANK(F283),"",IF(ISERROR(VLOOKUP(F283,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14770,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="F284" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G284" t="str">
         <f>IF(ISBLANK(F284),"",IF(ISERROR(VLOOKUP(F284,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14803,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="F285" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G285" t="str">
         <f>IF(ISBLANK(F285),"",IF(ISERROR(VLOOKUP(F285,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14836,7 +14820,7 @@
         <v>0</v>
       </c>
       <c r="F286" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G286" t="str">
         <f>IF(ISBLANK(F286),"",IF(ISERROR(VLOOKUP(F286,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14869,7 +14853,7 @@
         <v>0</v>
       </c>
       <c r="F287" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G287" t="str">
         <f>IF(ISBLANK(F287),"",IF(ISERROR(VLOOKUP(F287,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14902,7 +14886,7 @@
         <v>0</v>
       </c>
       <c r="F288" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G288" t="str">
         <f>IF(ISBLANK(F288),"",IF(ISERROR(VLOOKUP(F288,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14935,7 +14919,7 @@
         <v>0</v>
       </c>
       <c r="F289" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G289" t="str">
         <f>IF(ISBLANK(F289),"",IF(ISERROR(VLOOKUP(F289,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -14968,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="F290" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G290" t="str">
         <f>IF(ISBLANK(F290),"",IF(ISERROR(VLOOKUP(F290,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15001,7 +14985,7 @@
         <v>0</v>
       </c>
       <c r="F291" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G291" t="str">
         <f>IF(ISBLANK(F291),"",IF(ISERROR(VLOOKUP(F291,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15034,7 +15018,7 @@
         <v>0</v>
       </c>
       <c r="F292" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G292" t="str">
         <f>IF(ISBLANK(F292),"",IF(ISERROR(VLOOKUP(F292,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15067,7 +15051,7 @@
         <v>0</v>
       </c>
       <c r="F293" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G293" t="str">
         <f>IF(ISBLANK(F293),"",IF(ISERROR(VLOOKUP(F293,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15100,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="F294" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G294" t="str">
         <f>IF(ISBLANK(F294),"",IF(ISERROR(VLOOKUP(F294,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15133,7 +15117,7 @@
         <v>0</v>
       </c>
       <c r="F295" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G295" t="str">
         <f>IF(ISBLANK(F295),"",IF(ISERROR(VLOOKUP(F295,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15166,7 +15150,7 @@
         <v>0</v>
       </c>
       <c r="F296" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G296" t="str">
         <f>IF(ISBLANK(F296),"",IF(ISERROR(VLOOKUP(F296,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15199,7 +15183,7 @@
         <v>0</v>
       </c>
       <c r="F297" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G297" t="str">
         <f>IF(ISBLANK(F297),"",IF(ISERROR(VLOOKUP(F297,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15232,7 +15216,7 @@
         <v>0</v>
       </c>
       <c r="F298" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G298" t="str">
         <f>IF(ISBLANK(F298),"",IF(ISERROR(VLOOKUP(F298,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15265,7 +15249,7 @@
         <v>0</v>
       </c>
       <c r="F299" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G299" t="str">
         <f>IF(ISBLANK(F299),"",IF(ISERROR(VLOOKUP(F299,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15298,7 +15282,7 @@
         <v>0</v>
       </c>
       <c r="F300" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G300" t="str">
         <f>IF(ISBLANK(F300),"",IF(ISERROR(VLOOKUP(F300,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15331,7 +15315,7 @@
         <v>0</v>
       </c>
       <c r="F301" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G301" t="str">
         <f>IF(ISBLANK(F301),"",IF(ISERROR(VLOOKUP(F301,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15364,7 +15348,7 @@
         <v>0</v>
       </c>
       <c r="F302" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G302" t="str">
         <f>IF(ISBLANK(F302),"",IF(ISERROR(VLOOKUP(F302,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15397,7 +15381,7 @@
         <v>0</v>
       </c>
       <c r="F303" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G303" t="str">
         <f>IF(ISBLANK(F303),"",IF(ISERROR(VLOOKUP(F303,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15430,7 +15414,7 @@
         <v>0</v>
       </c>
       <c r="F304" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G304" t="str">
         <f>IF(ISBLANK(F304),"",IF(ISERROR(VLOOKUP(F304,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15463,7 +15447,7 @@
         <v>0</v>
       </c>
       <c r="F305" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G305" t="str">
         <f>IF(ISBLANK(F305),"",IF(ISERROR(VLOOKUP(F305,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15496,7 +15480,7 @@
         <v>0</v>
       </c>
       <c r="F306" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G306" t="str">
         <f>IF(ISBLANK(F306),"",IF(ISERROR(VLOOKUP(F306,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15529,7 +15513,7 @@
         <v>0</v>
       </c>
       <c r="F307" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G307" t="str">
         <f>IF(ISBLANK(F307),"",IF(ISERROR(VLOOKUP(F307,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15562,7 +15546,7 @@
         <v>0</v>
       </c>
       <c r="F308" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G308" t="str">
         <f>IF(ISBLANK(F308),"",IF(ISERROR(VLOOKUP(F308,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15595,7 +15579,7 @@
         <v>0</v>
       </c>
       <c r="F309" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G309" t="str">
         <f>IF(ISBLANK(F309),"",IF(ISERROR(VLOOKUP(F309,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15628,7 +15612,7 @@
         <v>0</v>
       </c>
       <c r="F310" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G310" t="str">
         <f>IF(ISBLANK(F310),"",IF(ISERROR(VLOOKUP(F310,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15661,7 +15645,7 @@
         <v>0</v>
       </c>
       <c r="F311" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G311" t="str">
         <f>IF(ISBLANK(F311),"",IF(ISERROR(VLOOKUP(F311,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15694,7 +15678,7 @@
         <v>0</v>
       </c>
       <c r="F312" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G312" t="str">
         <f>IF(ISBLANK(F312),"",IF(ISERROR(VLOOKUP(F312,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15727,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="F313" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G313" t="str">
         <f>IF(ISBLANK(F313),"",IF(ISERROR(VLOOKUP(F313,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15763,7 +15747,7 @@
         <v>0</v>
       </c>
       <c r="F314" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G314" t="str">
         <f>IF(ISBLANK(F314),"",IF(ISERROR(VLOOKUP(F314,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15796,7 +15780,7 @@
         <v>0</v>
       </c>
       <c r="F315" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G315" t="str">
         <f>IF(ISBLANK(F315),"",IF(ISERROR(VLOOKUP(F315,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15829,7 +15813,7 @@
         <v>0</v>
       </c>
       <c r="F316" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G316" t="str">
         <f>IF(ISBLANK(F316),"",IF(ISERROR(VLOOKUP(F316,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15862,7 +15846,7 @@
         <v>0</v>
       </c>
       <c r="F317" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G317" t="str">
         <f>IF(ISBLANK(F317),"",IF(ISERROR(VLOOKUP(F317,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15895,7 +15879,7 @@
         <v>0</v>
       </c>
       <c r="F318" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G318" t="str">
         <f>IF(ISBLANK(F318),"",IF(ISERROR(VLOOKUP(F318,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15928,7 +15912,7 @@
         <v>0</v>
       </c>
       <c r="F319" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G319" t="str">
         <f>IF(ISBLANK(F319),"",IF(ISERROR(VLOOKUP(F319,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15961,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="F320" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G320" t="str">
         <f>IF(ISBLANK(F320),"",IF(ISERROR(VLOOKUP(F320,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -15994,7 +15978,7 @@
         <v>0</v>
       </c>
       <c r="F321" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G321" t="str">
         <f>IF(ISBLANK(F321),"",IF(ISERROR(VLOOKUP(F321,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16027,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="F322" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G322" t="str">
         <f>IF(ISBLANK(F322),"",IF(ISERROR(VLOOKUP(F322,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16060,7 +16044,7 @@
         <v>0</v>
       </c>
       <c r="F323" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G323" t="str">
         <f>IF(ISBLANK(F323),"",IF(ISERROR(VLOOKUP(F323,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16095,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="F324" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G324" t="str">
         <f>IF(ISBLANK(F324),"",IF(ISERROR(VLOOKUP(F324,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16128,7 +16112,7 @@
         <v>0</v>
       </c>
       <c r="F325" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G325" t="str">
         <f>IF(ISBLANK(F325),"",IF(ISERROR(VLOOKUP(F325,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16161,7 +16145,7 @@
         <v>0</v>
       </c>
       <c r="F326" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G326" t="str">
         <f>IF(ISBLANK(F326),"",IF(ISERROR(VLOOKUP(F326,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16194,7 +16178,7 @@
         <v>0</v>
       </c>
       <c r="F327" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G327" t="str">
         <f>IF(ISBLANK(F327),"",IF(ISERROR(VLOOKUP(F327,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16227,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="F328" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G328" t="str">
         <f>IF(ISBLANK(F328),"",IF(ISERROR(VLOOKUP(F328,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16260,7 +16244,7 @@
         <v>0</v>
       </c>
       <c r="F329" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G329" t="str">
         <f>IF(ISBLANK(F329),"",IF(ISERROR(VLOOKUP(F329,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16293,7 +16277,7 @@
         <v>0</v>
       </c>
       <c r="F330" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G330" t="str">
         <f>IF(ISBLANK(F330),"",IF(ISERROR(VLOOKUP(F330,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16326,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="F331" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G331" t="str">
         <f>IF(ISBLANK(F331),"",IF(ISERROR(VLOOKUP(F331,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16359,7 +16343,7 @@
         <v>0</v>
       </c>
       <c r="F332" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G332" t="str">
         <f>IF(ISBLANK(F332),"",IF(ISERROR(VLOOKUP(F332,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16392,7 +16376,7 @@
         <v>0</v>
       </c>
       <c r="F333" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G333" t="str">
         <f>IF(ISBLANK(F333),"",IF(ISERROR(VLOOKUP(F333,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16425,7 +16409,7 @@
         <v>0</v>
       </c>
       <c r="F334" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G334" t="str">
         <f>IF(ISBLANK(F334),"",IF(ISERROR(VLOOKUP(F334,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16458,7 +16442,7 @@
         <v>0</v>
       </c>
       <c r="F335" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G335" t="str">
         <f>IF(ISBLANK(F335),"",IF(ISERROR(VLOOKUP(F335,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16491,7 +16475,7 @@
         <v>0</v>
       </c>
       <c r="F336" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G336" t="str">
         <f>IF(ISBLANK(F336),"",IF(ISERROR(VLOOKUP(F336,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16524,7 +16508,7 @@
         <v>0</v>
       </c>
       <c r="F337" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G337" t="str">
         <f>IF(ISBLANK(F337),"",IF(ISERROR(VLOOKUP(F337,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16557,7 +16541,7 @@
         <v>0</v>
       </c>
       <c r="F338" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G338" t="str">
         <f>IF(ISBLANK(F338),"",IF(ISERROR(VLOOKUP(F338,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16590,7 +16574,7 @@
         <v>0</v>
       </c>
       <c r="F339" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G339" t="str">
         <f>IF(ISBLANK(F339),"",IF(ISERROR(VLOOKUP(F339,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16623,7 +16607,7 @@
         <v>0</v>
       </c>
       <c r="F340" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G340" t="str">
         <f>IF(ISBLANK(F340),"",IF(ISERROR(VLOOKUP(F340,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16656,7 +16640,7 @@
         <v>0</v>
       </c>
       <c r="F341" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G341" t="str">
         <f>IF(ISBLANK(F341),"",IF(ISERROR(VLOOKUP(F341,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16689,7 +16673,7 @@
         <v>0</v>
       </c>
       <c r="F342" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G342" t="str">
         <f>IF(ISBLANK(F342),"",IF(ISERROR(VLOOKUP(F342,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16722,7 +16706,7 @@
         <v>0</v>
       </c>
       <c r="F343" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G343" t="str">
         <f>IF(ISBLANK(F343),"",IF(ISERROR(VLOOKUP(F343,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16755,7 +16739,7 @@
         <v>0</v>
       </c>
       <c r="F344" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G344" t="str">
         <f>IF(ISBLANK(F344),"",IF(ISERROR(VLOOKUP(F344,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16788,7 +16772,7 @@
         <v>0</v>
       </c>
       <c r="F345" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G345" t="str">
         <f>IF(ISBLANK(F345),"",IF(ISERROR(VLOOKUP(F345,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16821,7 +16805,7 @@
         <v>0</v>
       </c>
       <c r="F346" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G346" t="str">
         <f>IF(ISBLANK(F346),"",IF(ISERROR(VLOOKUP(F346,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16854,7 +16838,7 @@
         <v>0</v>
       </c>
       <c r="F347" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G347" t="str">
         <f>IF(ISBLANK(F347),"",IF(ISERROR(VLOOKUP(F347,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16887,7 +16871,7 @@
         <v>0</v>
       </c>
       <c r="F348" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G348" t="str">
         <f>IF(ISBLANK(F348),"",IF(ISERROR(VLOOKUP(F348,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16920,7 +16904,7 @@
         <v>0</v>
       </c>
       <c r="F349" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G349" t="str">
         <f>IF(ISBLANK(F349),"",IF(ISERROR(VLOOKUP(F349,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16953,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="F350" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G350" t="str">
         <f>IF(ISBLANK(F350),"",IF(ISERROR(VLOOKUP(F350,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -16986,7 +16970,7 @@
         <v>0</v>
       </c>
       <c r="F351" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G351" t="str">
         <f>IF(ISBLANK(F351),"",IF(ISERROR(VLOOKUP(F351,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17019,7 +17003,7 @@
         <v>0</v>
       </c>
       <c r="F352" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G352" t="str">
         <f>IF(ISBLANK(F352),"",IF(ISERROR(VLOOKUP(F352,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17052,7 +17036,7 @@
         <v>0</v>
       </c>
       <c r="F353" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G353" t="str">
         <f>IF(ISBLANK(F353),"",IF(ISERROR(VLOOKUP(F353,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17085,7 +17069,7 @@
         <v>0</v>
       </c>
       <c r="F354" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G354" t="str">
         <f>IF(ISBLANK(F354),"",IF(ISERROR(VLOOKUP(F354,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17118,7 +17102,7 @@
         <v>0</v>
       </c>
       <c r="F355" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G355" t="str">
         <f>IF(ISBLANK(F355),"",IF(ISERROR(VLOOKUP(F355,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17151,7 +17135,7 @@
         <v>0</v>
       </c>
       <c r="F356" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G356" t="str">
         <f>IF(ISBLANK(F356),"",IF(ISERROR(VLOOKUP(F356,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17184,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="F357" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G357" t="str">
         <f>IF(ISBLANK(F357),"",IF(ISERROR(VLOOKUP(F357,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17217,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="F358" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G358" t="str">
         <f>IF(ISBLANK(F358),"",IF(ISERROR(VLOOKUP(F358,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17250,7 +17234,7 @@
         <v>0</v>
       </c>
       <c r="F359" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G359" t="str">
         <f>IF(ISBLANK(F359),"",IF(ISERROR(VLOOKUP(F359,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17283,7 +17267,7 @@
         <v>0</v>
       </c>
       <c r="F360" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G360" t="str">
         <f>IF(ISBLANK(F360),"",IF(ISERROR(VLOOKUP(F360,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17316,7 +17300,7 @@
         <v>0</v>
       </c>
       <c r="F361" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G361" t="str">
         <f>IF(ISBLANK(F361),"",IF(ISERROR(VLOOKUP(F361,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17349,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="F362" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G362" t="str">
         <f>IF(ISBLANK(F362),"",IF(ISERROR(VLOOKUP(F362,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17382,7 +17366,7 @@
         <v>0</v>
       </c>
       <c r="F363" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G363" t="str">
         <f>IF(ISBLANK(F363),"",IF(ISERROR(VLOOKUP(F363,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17415,7 +17399,7 @@
         <v>0</v>
       </c>
       <c r="F364" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G364" t="str">
         <f>IF(ISBLANK(F364),"",IF(ISERROR(VLOOKUP(F364,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17448,7 +17432,7 @@
         <v>0</v>
       </c>
       <c r="F365" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G365" t="str">
         <f>IF(ISBLANK(F365),"",IF(ISERROR(VLOOKUP(F365,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17481,7 +17465,7 @@
         <v>0</v>
       </c>
       <c r="F366" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G366" t="str">
         <f>IF(ISBLANK(F366),"",IF(ISERROR(VLOOKUP(F366,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17514,7 +17498,7 @@
         <v>0</v>
       </c>
       <c r="F367" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G367" t="str">
         <f>IF(ISBLANK(F367),"",IF(ISERROR(VLOOKUP(F367,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17547,7 +17531,7 @@
         <v>0</v>
       </c>
       <c r="F368" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G368" t="str">
         <f>IF(ISBLANK(F368),"",IF(ISERROR(VLOOKUP(F368,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17580,7 +17564,7 @@
         <v>0</v>
       </c>
       <c r="F369" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G369" t="str">
         <f>IF(ISBLANK(F369),"",IF(ISERROR(VLOOKUP(F369,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17613,7 +17597,7 @@
         <v>0</v>
       </c>
       <c r="F370" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G370" t="str">
         <f>IF(ISBLANK(F370),"",IF(ISERROR(VLOOKUP(F370,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17646,7 +17630,7 @@
         <v>0</v>
       </c>
       <c r="F371" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G371" t="str">
         <f>IF(ISBLANK(F371),"",IF(ISERROR(VLOOKUP(F371,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17679,7 +17663,7 @@
         <v>0</v>
       </c>
       <c r="F372" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G372" t="str">
         <f>IF(ISBLANK(F372),"",IF(ISERROR(VLOOKUP(F372,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17712,7 +17696,7 @@
         <v>0</v>
       </c>
       <c r="F373" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G373" t="str">
         <f>IF(ISBLANK(F373),"",IF(ISERROR(VLOOKUP(F373,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17745,7 +17729,7 @@
         <v>0</v>
       </c>
       <c r="F374" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G374" t="str">
         <f>IF(ISBLANK(F374),"",IF(ISERROR(VLOOKUP(F374,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17778,7 +17762,7 @@
         <v>0</v>
       </c>
       <c r="F375" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G375" t="str">
         <f>IF(ISBLANK(F375),"",IF(ISERROR(VLOOKUP(F375,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17811,7 +17795,7 @@
         <v>0</v>
       </c>
       <c r="F376" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G376" t="str">
         <f>IF(ISBLANK(F376),"",IF(ISERROR(VLOOKUP(F376,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17844,7 +17828,7 @@
         <v>0</v>
       </c>
       <c r="F377" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G377" t="str">
         <f>IF(ISBLANK(F377),"",IF(ISERROR(VLOOKUP(F377,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17880,7 +17864,7 @@
         <v>0</v>
       </c>
       <c r="F378" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G378" t="str">
         <f>IF(ISBLANK(F378),"",IF(ISERROR(VLOOKUP(F378,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17913,7 +17897,7 @@
         <v>0</v>
       </c>
       <c r="F379" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G379" t="str">
         <f>IF(ISBLANK(F379),"",IF(ISERROR(VLOOKUP(F379,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17946,7 +17930,7 @@
         <v>0</v>
       </c>
       <c r="F380" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G380" t="str">
         <f>IF(ISBLANK(F380),"",IF(ISERROR(VLOOKUP(F380,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -17979,7 +17963,7 @@
         <v>0</v>
       </c>
       <c r="F381" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G381" t="str">
         <f>IF(ISBLANK(F381),"",IF(ISERROR(VLOOKUP(F381,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18012,7 +17996,7 @@
         <v>0</v>
       </c>
       <c r="F382" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G382" t="str">
         <f>IF(ISBLANK(F382),"",IF(ISERROR(VLOOKUP(F382,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18045,7 +18029,7 @@
         <v>0</v>
       </c>
       <c r="F383" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G383" t="str">
         <f>IF(ISBLANK(F383),"",IF(ISERROR(VLOOKUP(F383,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18078,7 +18062,7 @@
         <v>0</v>
       </c>
       <c r="F384" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G384" t="str">
         <f>IF(ISBLANK(F384),"",IF(ISERROR(VLOOKUP(F384,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18111,7 +18095,7 @@
         <v>0</v>
       </c>
       <c r="F385" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G385" t="str">
         <f>IF(ISBLANK(F385),"",IF(ISERROR(VLOOKUP(F385,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18144,7 +18128,7 @@
         <v>0</v>
       </c>
       <c r="F386" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G386" t="str">
         <f>IF(ISBLANK(F386),"",IF(ISERROR(VLOOKUP(F386,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18177,7 +18161,7 @@
         <v>0</v>
       </c>
       <c r="F387" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G387" t="str">
         <f>IF(ISBLANK(F387),"",IF(ISERROR(VLOOKUP(F387,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18212,7 +18196,7 @@
         <v>0</v>
       </c>
       <c r="F388" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G388" t="str">
         <f>IF(ISBLANK(F388),"",IF(ISERROR(VLOOKUP(F388,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18245,7 +18229,7 @@
         <v>0</v>
       </c>
       <c r="F389" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G389" t="str">
         <f>IF(ISBLANK(F389),"",IF(ISERROR(VLOOKUP(F389,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18278,7 +18262,7 @@
         <v>0</v>
       </c>
       <c r="F390" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G390" t="str">
         <f>IF(ISBLANK(F390),"",IF(ISERROR(VLOOKUP(F390,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18311,7 +18295,7 @@
         <v>0</v>
       </c>
       <c r="F391" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G391" t="str">
         <f>IF(ISBLANK(F391),"",IF(ISERROR(VLOOKUP(F391,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18344,7 +18328,7 @@
         <v>0</v>
       </c>
       <c r="F392" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G392" t="str">
         <f>IF(ISBLANK(F392),"",IF(ISERROR(VLOOKUP(F392,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18377,7 +18361,7 @@
         <v>0</v>
       </c>
       <c r="F393" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G393" t="str">
         <f>IF(ISBLANK(F393),"",IF(ISERROR(VLOOKUP(F393,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18410,7 +18394,7 @@
         <v>0</v>
       </c>
       <c r="F394" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G394" t="str">
         <f>IF(ISBLANK(F394),"",IF(ISERROR(VLOOKUP(F394,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18443,7 +18427,7 @@
         <v>0</v>
       </c>
       <c r="F395" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G395" t="str">
         <f>IF(ISBLANK(F395),"",IF(ISERROR(VLOOKUP(F395,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18476,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="F396" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G396" t="str">
         <f>IF(ISBLANK(F396),"",IF(ISERROR(VLOOKUP(F396,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18509,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="F397" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G397" t="str">
         <f>IF(ISBLANK(F397),"",IF(ISERROR(VLOOKUP(F397,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18542,7 +18526,7 @@
         <v>0</v>
       </c>
       <c r="F398" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G398" t="str">
         <f>IF(ISBLANK(F398),"",IF(ISERROR(VLOOKUP(F398,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18575,7 +18559,7 @@
         <v>0</v>
       </c>
       <c r="F399" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G399" t="str">
         <f>IF(ISBLANK(F399),"",IF(ISERROR(VLOOKUP(F399,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18608,7 +18592,7 @@
         <v>0</v>
       </c>
       <c r="F400" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G400" t="str">
         <f>IF(ISBLANK(F400),"",IF(ISERROR(VLOOKUP(F400,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18641,7 +18625,7 @@
         <v>0</v>
       </c>
       <c r="F401" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G401" t="str">
         <f>IF(ISBLANK(F401),"",IF(ISERROR(VLOOKUP(F401,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18674,7 +18658,7 @@
         <v>0</v>
       </c>
       <c r="F402" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G402" t="str">
         <f>IF(ISBLANK(F402),"",IF(ISERROR(VLOOKUP(F402,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18707,7 +18691,7 @@
         <v>0</v>
       </c>
       <c r="F403" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G403" t="str">
         <f>IF(ISBLANK(F403),"",IF(ISERROR(VLOOKUP(F403,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18740,7 +18724,7 @@
         <v>0</v>
       </c>
       <c r="F404" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G404" t="str">
         <f>IF(ISBLANK(F404),"",IF(ISERROR(VLOOKUP(F404,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18773,7 +18757,7 @@
         <v>0</v>
       </c>
       <c r="F405" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G405" t="str">
         <f>IF(ISBLANK(F405),"",IF(ISERROR(VLOOKUP(F405,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18806,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="F406" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G406" t="str">
         <f>IF(ISBLANK(F406),"",IF(ISERROR(VLOOKUP(F406,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18839,7 +18823,7 @@
         <v>0</v>
       </c>
       <c r="F407" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G407" t="str">
         <f>IF(ISBLANK(F407),"",IF(ISERROR(VLOOKUP(F407,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18872,7 +18856,7 @@
         <v>0</v>
       </c>
       <c r="F408" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G408" t="str">
         <f>IF(ISBLANK(F408),"",IF(ISERROR(VLOOKUP(F408,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18905,7 +18889,7 @@
         <v>0</v>
       </c>
       <c r="F409" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G409" t="str">
         <f>IF(ISBLANK(F409),"",IF(ISERROR(VLOOKUP(F409,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18938,7 +18922,7 @@
         <v>0</v>
       </c>
       <c r="F410" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G410" t="str">
         <f>IF(ISBLANK(F410),"",IF(ISERROR(VLOOKUP(F410,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -18971,7 +18955,7 @@
         <v>0</v>
       </c>
       <c r="F411" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G411" t="str">
         <f>IF(ISBLANK(F411),"",IF(ISERROR(VLOOKUP(F411,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19004,7 +18988,7 @@
         <v>0</v>
       </c>
       <c r="F412" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G412" t="str">
         <f>IF(ISBLANK(F412),"",IF(ISERROR(VLOOKUP(F412,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19037,7 +19021,7 @@
         <v>0</v>
       </c>
       <c r="F413" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G413" t="str">
         <f>IF(ISBLANK(F413),"",IF(ISERROR(VLOOKUP(F413,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19070,7 +19054,7 @@
         <v>0</v>
       </c>
       <c r="F414" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G414" t="str">
         <f>IF(ISBLANK(F414),"",IF(ISERROR(VLOOKUP(F414,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19103,7 +19087,7 @@
         <v>0</v>
       </c>
       <c r="F415" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G415" t="str">
         <f>IF(ISBLANK(F415),"",IF(ISERROR(VLOOKUP(F415,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19136,7 +19120,7 @@
         <v>0</v>
       </c>
       <c r="F416" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G416" t="str">
         <f>IF(ISBLANK(F416),"",IF(ISERROR(VLOOKUP(F416,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19169,7 +19153,7 @@
         <v>0</v>
       </c>
       <c r="F417" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G417" t="str">
         <f>IF(ISBLANK(F417),"",IF(ISERROR(VLOOKUP(F417,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19202,7 +19186,7 @@
         <v>0</v>
       </c>
       <c r="F418" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G418" t="str">
         <f>IF(ISBLANK(F418),"",IF(ISERROR(VLOOKUP(F418,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19235,7 +19219,7 @@
         <v>0</v>
       </c>
       <c r="F419" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G419" t="str">
         <f>IF(ISBLANK(F419),"",IF(ISERROR(VLOOKUP(F419,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19268,7 +19252,7 @@
         <v>0</v>
       </c>
       <c r="F420" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G420" t="str">
         <f>IF(ISBLANK(F420),"",IF(ISERROR(VLOOKUP(F420,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19301,7 +19285,7 @@
         <v>0</v>
       </c>
       <c r="F421" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G421" t="str">
         <f>IF(ISBLANK(F421),"",IF(ISERROR(VLOOKUP(F421,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19334,7 +19318,7 @@
         <v>0</v>
       </c>
       <c r="F422" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G422" t="str">
         <f>IF(ISBLANK(F422),"",IF(ISERROR(VLOOKUP(F422,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19367,7 +19351,7 @@
         <v>0</v>
       </c>
       <c r="F423" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G423" t="str">
         <f>IF(ISBLANK(F423),"",IF(ISERROR(VLOOKUP(F423,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19400,7 +19384,7 @@
         <v>0</v>
       </c>
       <c r="F424" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G424" t="str">
         <f>IF(ISBLANK(F424),"",IF(ISERROR(VLOOKUP(F424,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19433,7 +19417,7 @@
         <v>0</v>
       </c>
       <c r="F425" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G425" t="str">
         <f>IF(ISBLANK(F425),"",IF(ISERROR(VLOOKUP(F425,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19466,7 +19450,7 @@
         <v>0</v>
       </c>
       <c r="F426" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G426" t="str">
         <f>IF(ISBLANK(F426),"",IF(ISERROR(VLOOKUP(F426,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19499,7 +19483,7 @@
         <v>0</v>
       </c>
       <c r="F427" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G427" t="str">
         <f>IF(ISBLANK(F427),"",IF(ISERROR(VLOOKUP(F427,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19532,7 +19516,7 @@
         <v>0</v>
       </c>
       <c r="F428" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G428" t="str">
         <f>IF(ISBLANK(F428),"",IF(ISERROR(VLOOKUP(F428,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19565,7 +19549,7 @@
         <v>0</v>
       </c>
       <c r="F429" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G429" t="str">
         <f>IF(ISBLANK(F429),"",IF(ISERROR(VLOOKUP(F429,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19598,7 +19582,7 @@
         <v>0</v>
       </c>
       <c r="F430" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G430" t="str">
         <f>IF(ISBLANK(F430),"",IF(ISERROR(VLOOKUP(F430,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19631,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="F431" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G431" t="str">
         <f>IF(ISBLANK(F431),"",IF(ISERROR(VLOOKUP(F431,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19664,7 +19648,7 @@
         <v>0</v>
       </c>
       <c r="F432" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G432" t="str">
         <f>IF(ISBLANK(F432),"",IF(ISERROR(VLOOKUP(F432,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19697,7 +19681,7 @@
         <v>0</v>
       </c>
       <c r="F433" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G433" t="str">
         <f>IF(ISBLANK(F433),"",IF(ISERROR(VLOOKUP(F433,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19730,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="F434" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G434" t="str">
         <f>IF(ISBLANK(F434),"",IF(ISERROR(VLOOKUP(F434,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19763,7 +19747,7 @@
         <v>0</v>
       </c>
       <c r="F435" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G435" t="str">
         <f>IF(ISBLANK(F435),"",IF(ISERROR(VLOOKUP(F435,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19796,7 +19780,7 @@
         <v>0</v>
       </c>
       <c r="F436" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G436" t="str">
         <f>IF(ISBLANK(F436),"",IF(ISERROR(VLOOKUP(F436,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19829,7 +19813,7 @@
         <v>0</v>
       </c>
       <c r="F437" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G437" t="str">
         <f>IF(ISBLANK(F437),"",IF(ISERROR(VLOOKUP(F437,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19862,7 +19846,7 @@
         <v>0</v>
       </c>
       <c r="F438" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G438" t="str">
         <f>IF(ISBLANK(F438),"",IF(ISERROR(VLOOKUP(F438,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19895,7 +19879,7 @@
         <v>0</v>
       </c>
       <c r="F439" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G439" t="str">
         <f>IF(ISBLANK(F439),"",IF(ISERROR(VLOOKUP(F439,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19928,7 +19912,7 @@
         <v>0</v>
       </c>
       <c r="F440" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G440" t="str">
         <f>IF(ISBLANK(F440),"",IF(ISERROR(VLOOKUP(F440,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19961,7 +19945,7 @@
         <v>0</v>
       </c>
       <c r="F441" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G441" t="str">
         <f>IF(ISBLANK(F441),"",IF(ISERROR(VLOOKUP(F441,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -19997,7 +19981,7 @@
         <v>0</v>
       </c>
       <c r="F442" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G442" t="str">
         <f>IF(ISBLANK(F442),"",IF(ISERROR(VLOOKUP(F442,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20030,7 +20014,7 @@
         <v>0</v>
       </c>
       <c r="F443" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G443" t="str">
         <f>IF(ISBLANK(F443),"",IF(ISERROR(VLOOKUP(F443,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20063,7 +20047,7 @@
         <v>0</v>
       </c>
       <c r="F444" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G444" t="str">
         <f>IF(ISBLANK(F444),"",IF(ISERROR(VLOOKUP(F444,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20096,7 +20080,7 @@
         <v>0</v>
       </c>
       <c r="F445" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G445" t="str">
         <f>IF(ISBLANK(F445),"",IF(ISERROR(VLOOKUP(F445,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20129,7 +20113,7 @@
         <v>0</v>
       </c>
       <c r="F446" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G446" t="str">
         <f>IF(ISBLANK(F446),"",IF(ISERROR(VLOOKUP(F446,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20162,7 +20146,7 @@
         <v>0</v>
       </c>
       <c r="F447" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G447" t="str">
         <f>IF(ISBLANK(F447),"",IF(ISERROR(VLOOKUP(F447,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20195,7 +20179,7 @@
         <v>0</v>
       </c>
       <c r="F448" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G448" t="str">
         <f>IF(ISBLANK(F448),"",IF(ISERROR(VLOOKUP(F448,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20228,7 +20212,7 @@
         <v>0</v>
       </c>
       <c r="F449" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G449" t="str">
         <f>IF(ISBLANK(F449),"",IF(ISERROR(VLOOKUP(F449,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20261,7 +20245,7 @@
         <v>0</v>
       </c>
       <c r="F450" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G450" t="str">
         <f>IF(ISBLANK(F450),"",IF(ISERROR(VLOOKUP(F450,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20294,7 +20278,7 @@
         <v>0</v>
       </c>
       <c r="F451" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G451" t="str">
         <f>IF(ISBLANK(F451),"",IF(ISERROR(VLOOKUP(F451,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20329,7 +20313,7 @@
         <v>0</v>
       </c>
       <c r="F452" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G452" t="str">
         <f>IF(ISBLANK(F452),"",IF(ISERROR(VLOOKUP(F452,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20362,7 +20346,7 @@
         <v>0</v>
       </c>
       <c r="F453" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G453" t="str">
         <f>IF(ISBLANK(F453),"",IF(ISERROR(VLOOKUP(F453,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20395,7 +20379,7 @@
         <v>0</v>
       </c>
       <c r="F454" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G454" t="str">
         <f>IF(ISBLANK(F454),"",IF(ISERROR(VLOOKUP(F454,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20428,7 +20412,7 @@
         <v>0</v>
       </c>
       <c r="F455" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G455" t="str">
         <f>IF(ISBLANK(F455),"",IF(ISERROR(VLOOKUP(F455,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20461,7 +20445,7 @@
         <v>0</v>
       </c>
       <c r="F456" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G456" t="str">
         <f>IF(ISBLANK(F456),"",IF(ISERROR(VLOOKUP(F456,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20494,7 +20478,7 @@
         <v>0</v>
       </c>
       <c r="F457" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G457" t="str">
         <f>IF(ISBLANK(F457),"",IF(ISERROR(VLOOKUP(F457,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20527,7 +20511,7 @@
         <v>0</v>
       </c>
       <c r="F458" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G458" t="str">
         <f>IF(ISBLANK(F458),"",IF(ISERROR(VLOOKUP(F458,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20560,7 +20544,7 @@
         <v>0</v>
       </c>
       <c r="F459" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G459" t="str">
         <f>IF(ISBLANK(F459),"",IF(ISERROR(VLOOKUP(F459,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20593,7 +20577,7 @@
         <v>0</v>
       </c>
       <c r="F460" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G460" t="str">
         <f>IF(ISBLANK(F460),"",IF(ISERROR(VLOOKUP(F460,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20626,7 +20610,7 @@
         <v>0</v>
       </c>
       <c r="F461" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G461" t="str">
         <f>IF(ISBLANK(F461),"",IF(ISERROR(VLOOKUP(F461,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20659,7 +20643,7 @@
         <v>0</v>
       </c>
       <c r="F462" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G462" t="str">
         <f>IF(ISBLANK(F462),"",IF(ISERROR(VLOOKUP(F462,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20692,7 +20676,7 @@
         <v>0</v>
       </c>
       <c r="F463" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G463" t="str">
         <f>IF(ISBLANK(F463),"",IF(ISERROR(VLOOKUP(F463,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20725,7 +20709,7 @@
         <v>0</v>
       </c>
       <c r="F464" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G464" t="str">
         <f>IF(ISBLANK(F464),"",IF(ISERROR(VLOOKUP(F464,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20758,7 +20742,7 @@
         <v>0</v>
       </c>
       <c r="F465" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G465" t="str">
         <f>IF(ISBLANK(F465),"",IF(ISERROR(VLOOKUP(F465,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20791,7 +20775,7 @@
         <v>0</v>
       </c>
       <c r="F466" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G466" t="str">
         <f>IF(ISBLANK(F466),"",IF(ISERROR(VLOOKUP(F466,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20824,7 +20808,7 @@
         <v>0</v>
       </c>
       <c r="F467" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G467" t="str">
         <f>IF(ISBLANK(F467),"",IF(ISERROR(VLOOKUP(F467,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20857,7 +20841,7 @@
         <v>0</v>
       </c>
       <c r="F468" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G468" t="str">
         <f>IF(ISBLANK(F468),"",IF(ISERROR(VLOOKUP(F468,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20890,7 +20874,7 @@
         <v>0</v>
       </c>
       <c r="F469" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G469" t="str">
         <f>IF(ISBLANK(F469),"",IF(ISERROR(VLOOKUP(F469,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20923,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="F470" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G470" t="str">
         <f>IF(ISBLANK(F470),"",IF(ISERROR(VLOOKUP(F470,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20956,7 +20940,7 @@
         <v>0</v>
       </c>
       <c r="F471" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G471" t="str">
         <f>IF(ISBLANK(F471),"",IF(ISERROR(VLOOKUP(F471,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -20989,7 +20973,7 @@
         <v>0</v>
       </c>
       <c r="F472" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G472" t="str">
         <f>IF(ISBLANK(F472),"",IF(ISERROR(VLOOKUP(F472,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21022,7 +21006,7 @@
         <v>0</v>
       </c>
       <c r="F473" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G473" t="str">
         <f>IF(ISBLANK(F473),"",IF(ISERROR(VLOOKUP(F473,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21055,7 +21039,7 @@
         <v>0</v>
       </c>
       <c r="F474" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G474" t="str">
         <f>IF(ISBLANK(F474),"",IF(ISERROR(VLOOKUP(F474,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21088,7 +21072,7 @@
         <v>0</v>
       </c>
       <c r="F475" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G475" t="str">
         <f>IF(ISBLANK(F475),"",IF(ISERROR(VLOOKUP(F475,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21121,7 +21105,7 @@
         <v>0</v>
       </c>
       <c r="F476" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G476" t="str">
         <f>IF(ISBLANK(F476),"",IF(ISERROR(VLOOKUP(F476,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21154,7 +21138,7 @@
         <v>0</v>
       </c>
       <c r="F477" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G477" t="str">
         <f>IF(ISBLANK(F477),"",IF(ISERROR(VLOOKUP(F477,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21187,7 +21171,7 @@
         <v>0</v>
       </c>
       <c r="F478" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G478" t="str">
         <f>IF(ISBLANK(F478),"",IF(ISERROR(VLOOKUP(F478,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21220,7 +21204,7 @@
         <v>0</v>
       </c>
       <c r="F479" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G479" t="str">
         <f>IF(ISBLANK(F479),"",IF(ISERROR(VLOOKUP(F479,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21253,7 +21237,7 @@
         <v>0</v>
       </c>
       <c r="F480" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G480" t="str">
         <f>IF(ISBLANK(F480),"",IF(ISERROR(VLOOKUP(F480,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21286,7 +21270,7 @@
         <v>0</v>
       </c>
       <c r="F481" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G481" t="str">
         <f>IF(ISBLANK(F481),"",IF(ISERROR(VLOOKUP(F481,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21319,7 +21303,7 @@
         <v>0</v>
       </c>
       <c r="F482" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G482" t="str">
         <f>IF(ISBLANK(F482),"",IF(ISERROR(VLOOKUP(F482,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21352,7 +21336,7 @@
         <v>0</v>
       </c>
       <c r="F483" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G483" t="str">
         <f>IF(ISBLANK(F483),"",IF(ISERROR(VLOOKUP(F483,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21385,7 +21369,7 @@
         <v>0</v>
       </c>
       <c r="F484" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G484" t="str">
         <f>IF(ISBLANK(F484),"",IF(ISERROR(VLOOKUP(F484,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21418,7 +21402,7 @@
         <v>0</v>
       </c>
       <c r="F485" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G485" t="str">
         <f>IF(ISBLANK(F485),"",IF(ISERROR(VLOOKUP(F485,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21451,7 +21435,7 @@
         <v>0</v>
       </c>
       <c r="F486" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G486" t="str">
         <f>IF(ISBLANK(F486),"",IF(ISERROR(VLOOKUP(F486,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21484,7 +21468,7 @@
         <v>0</v>
       </c>
       <c r="F487" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G487" t="str">
         <f>IF(ISBLANK(F487),"",IF(ISERROR(VLOOKUP(F487,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21517,7 +21501,7 @@
         <v>0</v>
       </c>
       <c r="F488" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G488" t="str">
         <f>IF(ISBLANK(F488),"",IF(ISERROR(VLOOKUP(F488,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21550,7 +21534,7 @@
         <v>0</v>
       </c>
       <c r="F489" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G489" t="str">
         <f>IF(ISBLANK(F489),"",IF(ISERROR(VLOOKUP(F489,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21583,7 +21567,7 @@
         <v>0</v>
       </c>
       <c r="F490" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G490" t="str">
         <f>IF(ISBLANK(F490),"",IF(ISERROR(VLOOKUP(F490,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21616,7 +21600,7 @@
         <v>0</v>
       </c>
       <c r="F491" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G491" t="str">
         <f>IF(ISBLANK(F491),"",IF(ISERROR(VLOOKUP(F491,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21649,7 +21633,7 @@
         <v>0</v>
       </c>
       <c r="F492" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G492" t="str">
         <f>IF(ISBLANK(F492),"",IF(ISERROR(VLOOKUP(F492,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21682,7 +21666,7 @@
         <v>0</v>
       </c>
       <c r="F493" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G493" t="str">
         <f>IF(ISBLANK(F493),"",IF(ISERROR(VLOOKUP(F493,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21715,7 +21699,7 @@
         <v>0</v>
       </c>
       <c r="F494" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G494" t="str">
         <f>IF(ISBLANK(F494),"",IF(ISERROR(VLOOKUP(F494,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21748,7 +21732,7 @@
         <v>0</v>
       </c>
       <c r="F495" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G495" t="str">
         <f>IF(ISBLANK(F495),"",IF(ISERROR(VLOOKUP(F495,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21781,7 +21765,7 @@
         <v>0</v>
       </c>
       <c r="F496" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G496" t="str">
         <f>IF(ISBLANK(F496),"",IF(ISERROR(VLOOKUP(F496,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21814,7 +21798,7 @@
         <v>0</v>
       </c>
       <c r="F497" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G497" t="str">
         <f>IF(ISBLANK(F497),"",IF(ISERROR(VLOOKUP(F497,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21847,7 +21831,7 @@
         <v>0</v>
       </c>
       <c r="F498" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G498" t="str">
         <f>IF(ISBLANK(F498),"",IF(ISERROR(VLOOKUP(F498,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21880,7 +21864,7 @@
         <v>0</v>
       </c>
       <c r="F499" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G499" t="str">
         <f>IF(ISBLANK(F499),"",IF(ISERROR(VLOOKUP(F499,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21913,7 +21897,7 @@
         <v>0</v>
       </c>
       <c r="F500" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G500" t="str">
         <f>IF(ISBLANK(F500),"",IF(ISERROR(VLOOKUP(F500,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21946,7 +21930,7 @@
         <v>0</v>
       </c>
       <c r="F501" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G501" t="str">
         <f>IF(ISBLANK(F501),"",IF(ISERROR(VLOOKUP(F501,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -21979,7 +21963,7 @@
         <v>0</v>
       </c>
       <c r="F502" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G502" t="str">
         <f>IF(ISBLANK(F502),"",IF(ISERROR(VLOOKUP(F502,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22012,7 +21996,7 @@
         <v>0</v>
       </c>
       <c r="F503" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G503" t="str">
         <f>IF(ISBLANK(F503),"",IF(ISERROR(VLOOKUP(F503,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22045,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="F504" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G504" t="str">
         <f>IF(ISBLANK(F504),"",IF(ISERROR(VLOOKUP(F504,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22078,7 +22062,7 @@
         <v>0</v>
       </c>
       <c r="F505" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G505" t="str">
         <f>IF(ISBLANK(F505),"",IF(ISERROR(VLOOKUP(F505,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22114,7 +22098,7 @@
         <v>0</v>
       </c>
       <c r="F506" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G506" t="str">
         <f>IF(ISBLANK(F506),"",IF(ISERROR(VLOOKUP(F506,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22147,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="F507" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G507" t="str">
         <f>IF(ISBLANK(F507),"",IF(ISERROR(VLOOKUP(F507,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22180,7 +22164,7 @@
         <v>0</v>
       </c>
       <c r="F508" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G508" t="str">
         <f>IF(ISBLANK(F508),"",IF(ISERROR(VLOOKUP(F508,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22213,7 +22197,7 @@
         <v>0</v>
       </c>
       <c r="F509" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G509" t="str">
         <f>IF(ISBLANK(F509),"",IF(ISERROR(VLOOKUP(F509,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22246,7 +22230,7 @@
         <v>0</v>
       </c>
       <c r="F510" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G510" t="str">
         <f>IF(ISBLANK(F510),"",IF(ISERROR(VLOOKUP(F510,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22279,7 +22263,7 @@
         <v>0</v>
       </c>
       <c r="F511" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G511" t="str">
         <f>IF(ISBLANK(F511),"",IF(ISERROR(VLOOKUP(F511,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22312,7 +22296,7 @@
         <v>0</v>
       </c>
       <c r="F512" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G512" t="str">
         <f>IF(ISBLANK(F512),"",IF(ISERROR(VLOOKUP(F512,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22345,7 +22329,7 @@
         <v>0</v>
       </c>
       <c r="F513" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G513" t="str">
         <f>IF(ISBLANK(F513),"",IF(ISERROR(VLOOKUP(F513,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22378,7 +22362,7 @@
         <v>0</v>
       </c>
       <c r="F514" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G514" t="str">
         <f>IF(ISBLANK(F514),"",IF(ISERROR(VLOOKUP(F514,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22411,7 +22395,7 @@
         <v>0</v>
       </c>
       <c r="F515" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G515" t="str">
         <f>IF(ISBLANK(F515),"",IF(ISERROR(VLOOKUP(F515,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22446,7 +22430,7 @@
         <v>0</v>
       </c>
       <c r="F516" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G516" t="str">
         <f>IF(ISBLANK(F516),"",IF(ISERROR(VLOOKUP(F516,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22479,7 +22463,7 @@
         <v>0</v>
       </c>
       <c r="F517" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G517" t="str">
         <f>IF(ISBLANK(F517),"",IF(ISERROR(VLOOKUP(F517,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22512,7 +22496,7 @@
         <v>0</v>
       </c>
       <c r="F518" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G518" t="str">
         <f>IF(ISBLANK(F518),"",IF(ISERROR(VLOOKUP(F518,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22545,7 +22529,7 @@
         <v>0</v>
       </c>
       <c r="F519" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G519" t="str">
         <f>IF(ISBLANK(F519),"",IF(ISERROR(VLOOKUP(F519,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22578,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="F520" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G520" t="str">
         <f>IF(ISBLANK(F520),"",IF(ISERROR(VLOOKUP(F520,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22611,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="F521" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G521" t="str">
         <f>IF(ISBLANK(F521),"",IF(ISERROR(VLOOKUP(F521,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22644,7 +22628,7 @@
         <v>0</v>
       </c>
       <c r="F522" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G522" t="str">
         <f>IF(ISBLANK(F522),"",IF(ISERROR(VLOOKUP(F522,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22677,7 +22661,7 @@
         <v>0</v>
       </c>
       <c r="F523" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G523" t="str">
         <f>IF(ISBLANK(F523),"",IF(ISERROR(VLOOKUP(F523,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22710,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="F524" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G524" t="str">
         <f>IF(ISBLANK(F524),"",IF(ISERROR(VLOOKUP(F524,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22743,7 +22727,7 @@
         <v>0</v>
       </c>
       <c r="F525" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G525" t="str">
         <f>IF(ISBLANK(F525),"",IF(ISERROR(VLOOKUP(F525,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22776,7 +22760,7 @@
         <v>0</v>
       </c>
       <c r="F526" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G526" t="str">
         <f>IF(ISBLANK(F526),"",IF(ISERROR(VLOOKUP(F526,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22809,7 +22793,7 @@
         <v>0</v>
       </c>
       <c r="F527" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G527" t="str">
         <f>IF(ISBLANK(F527),"",IF(ISERROR(VLOOKUP(F527,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22842,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="F528" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G528" t="str">
         <f>IF(ISBLANK(F528),"",IF(ISERROR(VLOOKUP(F528,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22875,7 +22859,7 @@
         <v>0</v>
       </c>
       <c r="F529" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G529" t="str">
         <f>IF(ISBLANK(F529),"",IF(ISERROR(VLOOKUP(F529,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22908,7 +22892,7 @@
         <v>0</v>
       </c>
       <c r="F530" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G530" t="str">
         <f>IF(ISBLANK(F530),"",IF(ISERROR(VLOOKUP(F530,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22941,7 +22925,7 @@
         <v>0</v>
       </c>
       <c r="F531" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G531" t="str">
         <f>IF(ISBLANK(F531),"",IF(ISERROR(VLOOKUP(F531,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -22974,7 +22958,7 @@
         <v>0</v>
       </c>
       <c r="F532" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G532" t="str">
         <f>IF(ISBLANK(F532),"",IF(ISERROR(VLOOKUP(F532,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23007,7 +22991,7 @@
         <v>0</v>
       </c>
       <c r="F533" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G533" t="str">
         <f>IF(ISBLANK(F533),"",IF(ISERROR(VLOOKUP(F533,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23040,7 +23024,7 @@
         <v>0</v>
       </c>
       <c r="F534" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G534" t="str">
         <f>IF(ISBLANK(F534),"",IF(ISERROR(VLOOKUP(F534,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23073,7 +23057,7 @@
         <v>0</v>
       </c>
       <c r="F535" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G535" t="str">
         <f>IF(ISBLANK(F535),"",IF(ISERROR(VLOOKUP(F535,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23106,7 +23090,7 @@
         <v>0</v>
       </c>
       <c r="F536" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G536" t="str">
         <f>IF(ISBLANK(F536),"",IF(ISERROR(VLOOKUP(F536,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23139,7 +23123,7 @@
         <v>0</v>
       </c>
       <c r="F537" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G537" t="str">
         <f>IF(ISBLANK(F537),"",IF(ISERROR(VLOOKUP(F537,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23172,7 +23156,7 @@
         <v>0</v>
       </c>
       <c r="F538" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G538" t="str">
         <f>IF(ISBLANK(F538),"",IF(ISERROR(VLOOKUP(F538,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23205,7 +23189,7 @@
         <v>0</v>
       </c>
       <c r="F539" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G539" t="str">
         <f>IF(ISBLANK(F539),"",IF(ISERROR(VLOOKUP(F539,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23238,7 +23222,7 @@
         <v>0</v>
       </c>
       <c r="F540" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G540" t="str">
         <f>IF(ISBLANK(F540),"",IF(ISERROR(VLOOKUP(F540,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23271,7 +23255,7 @@
         <v>0</v>
       </c>
       <c r="F541" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G541" t="str">
         <f>IF(ISBLANK(F541),"",IF(ISERROR(VLOOKUP(F541,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23304,7 +23288,7 @@
         <v>0</v>
       </c>
       <c r="F542" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G542" t="str">
         <f>IF(ISBLANK(F542),"",IF(ISERROR(VLOOKUP(F542,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23337,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="F543" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G543" t="str">
         <f>IF(ISBLANK(F543),"",IF(ISERROR(VLOOKUP(F543,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23370,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="F544" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G544" t="str">
         <f>IF(ISBLANK(F544),"",IF(ISERROR(VLOOKUP(F544,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23403,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="F545" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G545" t="str">
         <f>IF(ISBLANK(F545),"",IF(ISERROR(VLOOKUP(F545,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23436,7 +23420,7 @@
         <v>0</v>
       </c>
       <c r="F546" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G546" t="str">
         <f>IF(ISBLANK(F546),"",IF(ISERROR(VLOOKUP(F546,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23469,7 +23453,7 @@
         <v>0</v>
       </c>
       <c r="F547" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G547" t="str">
         <f>IF(ISBLANK(F547),"",IF(ISERROR(VLOOKUP(F547,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23502,7 +23486,7 @@
         <v>0</v>
       </c>
       <c r="F548" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G548" t="str">
         <f>IF(ISBLANK(F548),"",IF(ISERROR(VLOOKUP(F548,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23535,7 +23519,7 @@
         <v>0</v>
       </c>
       <c r="F549" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G549" t="str">
         <f>IF(ISBLANK(F549),"",IF(ISERROR(VLOOKUP(F549,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23568,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="F550" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G550" t="str">
         <f>IF(ISBLANK(F550),"",IF(ISERROR(VLOOKUP(F550,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23601,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="F551" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G551" t="str">
         <f>IF(ISBLANK(F551),"",IF(ISERROR(VLOOKUP(F551,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23634,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="F552" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G552" t="str">
         <f>IF(ISBLANK(F552),"",IF(ISERROR(VLOOKUP(F552,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23667,7 +23651,7 @@
         <v>0</v>
       </c>
       <c r="F553" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G553" t="str">
         <f>IF(ISBLANK(F553),"",IF(ISERROR(VLOOKUP(F553,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23700,7 +23684,7 @@
         <v>0</v>
       </c>
       <c r="F554" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G554" t="str">
         <f>IF(ISBLANK(F554),"",IF(ISERROR(VLOOKUP(F554,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23733,7 +23717,7 @@
         <v>0</v>
       </c>
       <c r="F555" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G555" t="str">
         <f>IF(ISBLANK(F555),"",IF(ISERROR(VLOOKUP(F555,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23766,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="F556" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G556" t="str">
         <f>IF(ISBLANK(F556),"",IF(ISERROR(VLOOKUP(F556,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23799,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="F557" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G557" t="str">
         <f>IF(ISBLANK(F557),"",IF(ISERROR(VLOOKUP(F557,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23832,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="F558" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G558" t="str">
         <f>IF(ISBLANK(F558),"",IF(ISERROR(VLOOKUP(F558,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23865,7 +23849,7 @@
         <v>0</v>
       </c>
       <c r="F559" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G559" t="str">
         <f>IF(ISBLANK(F559),"",IF(ISERROR(VLOOKUP(F559,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23898,7 +23882,7 @@
         <v>0</v>
       </c>
       <c r="F560" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G560" t="str">
         <f>IF(ISBLANK(F560),"",IF(ISERROR(VLOOKUP(F560,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23931,7 +23915,7 @@
         <v>0</v>
       </c>
       <c r="F561" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G561" t="str">
         <f>IF(ISBLANK(F561),"",IF(ISERROR(VLOOKUP(F561,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23964,7 +23948,7 @@
         <v>0</v>
       </c>
       <c r="F562" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G562" t="str">
         <f>IF(ISBLANK(F562),"",IF(ISERROR(VLOOKUP(F562,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -23997,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="F563" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G563" t="str">
         <f>IF(ISBLANK(F563),"",IF(ISERROR(VLOOKUP(F563,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24030,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="F564" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G564" t="str">
         <f>IF(ISBLANK(F564),"",IF(ISERROR(VLOOKUP(F564,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24063,7 +24047,7 @@
         <v>0</v>
       </c>
       <c r="F565" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G565" t="str">
         <f>IF(ISBLANK(F565),"",IF(ISERROR(VLOOKUP(F565,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24096,7 +24080,7 @@
         <v>0</v>
       </c>
       <c r="F566" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G566" t="str">
         <f>IF(ISBLANK(F566),"",IF(ISERROR(VLOOKUP(F566,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24129,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="F567" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G567" t="str">
         <f>IF(ISBLANK(F567),"",IF(ISERROR(VLOOKUP(F567,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24162,7 +24146,7 @@
         <v>0</v>
       </c>
       <c r="F568" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G568" t="str">
         <f>IF(ISBLANK(F568),"",IF(ISERROR(VLOOKUP(F568,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24195,7 +24179,7 @@
         <v>0</v>
       </c>
       <c r="F569" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G569" t="str">
         <f>IF(ISBLANK(F569),"",IF(ISERROR(VLOOKUP(F569,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24231,7 +24215,7 @@
         <v>0</v>
       </c>
       <c r="F570" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G570" t="str">
         <f>IF(ISBLANK(F570),"",IF(ISERROR(VLOOKUP(F570,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24264,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="F571" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G571" t="str">
         <f>IF(ISBLANK(F571),"",IF(ISERROR(VLOOKUP(F571,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24297,7 +24281,7 @@
         <v>0</v>
       </c>
       <c r="F572" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G572" t="str">
         <f>IF(ISBLANK(F572),"",IF(ISERROR(VLOOKUP(F572,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24330,7 +24314,7 @@
         <v>0</v>
       </c>
       <c r="F573" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G573" t="str">
         <f>IF(ISBLANK(F573),"",IF(ISERROR(VLOOKUP(F573,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24363,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="F574" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G574" t="str">
         <f>IF(ISBLANK(F574),"",IF(ISERROR(VLOOKUP(F574,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24396,7 +24380,7 @@
         <v>0</v>
       </c>
       <c r="F575" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G575" t="str">
         <f>IF(ISBLANK(F575),"",IF(ISERROR(VLOOKUP(F575,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24429,7 +24413,7 @@
         <v>0</v>
       </c>
       <c r="F576" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G576" t="str">
         <f>IF(ISBLANK(F576),"",IF(ISERROR(VLOOKUP(F576,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24462,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="F577" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G577" t="str">
         <f>IF(ISBLANK(F577),"",IF(ISERROR(VLOOKUP(F577,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24495,7 +24479,7 @@
         <v>0</v>
       </c>
       <c r="F578" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G578" t="str">
         <f>IF(ISBLANK(F578),"",IF(ISERROR(VLOOKUP(F578,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24528,7 +24512,7 @@
         <v>0</v>
       </c>
       <c r="F579" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G579" t="str">
         <f>IF(ISBLANK(F579),"",IF(ISERROR(VLOOKUP(F579,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24563,7 +24547,7 @@
         <v>0</v>
       </c>
       <c r="F580" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G580" t="str">
         <f>IF(ISBLANK(F580),"",IF(ISERROR(VLOOKUP(F580,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24596,7 +24580,7 @@
         <v>0</v>
       </c>
       <c r="F581" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G581" t="str">
         <f>IF(ISBLANK(F581),"",IF(ISERROR(VLOOKUP(F581,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24629,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="F582" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G582" t="str">
         <f>IF(ISBLANK(F582),"",IF(ISERROR(VLOOKUP(F582,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24662,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="F583" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G583" t="str">
         <f>IF(ISBLANK(F583),"",IF(ISERROR(VLOOKUP(F583,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24695,7 +24679,7 @@
         <v>0</v>
       </c>
       <c r="F584" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G584" t="str">
         <f>IF(ISBLANK(F584),"",IF(ISERROR(VLOOKUP(F584,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24728,7 +24712,7 @@
         <v>0</v>
       </c>
       <c r="F585" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G585" t="str">
         <f>IF(ISBLANK(F585),"",IF(ISERROR(VLOOKUP(F585,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24761,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="F586" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G586" t="str">
         <f>IF(ISBLANK(F586),"",IF(ISERROR(VLOOKUP(F586,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24794,7 +24778,7 @@
         <v>0</v>
       </c>
       <c r="F587" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G587" t="str">
         <f>IF(ISBLANK(F587),"",IF(ISERROR(VLOOKUP(F587,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24827,7 +24811,7 @@
         <v>0</v>
       </c>
       <c r="F588" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G588" t="str">
         <f>IF(ISBLANK(F588),"",IF(ISERROR(VLOOKUP(F588,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24860,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="F589" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G589" t="str">
         <f>IF(ISBLANK(F589),"",IF(ISERROR(VLOOKUP(F589,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24893,7 +24877,7 @@
         <v>0</v>
       </c>
       <c r="F590" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G590" t="str">
         <f>IF(ISBLANK(F590),"",IF(ISERROR(VLOOKUP(F590,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24926,7 +24910,7 @@
         <v>0</v>
       </c>
       <c r="F591" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G591" t="str">
         <f>IF(ISBLANK(F591),"",IF(ISERROR(VLOOKUP(F591,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24959,7 +24943,7 @@
         <v>0</v>
       </c>
       <c r="F592" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G592" t="str">
         <f>IF(ISBLANK(F592),"",IF(ISERROR(VLOOKUP(F592,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -24992,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="F593" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G593" t="str">
         <f>IF(ISBLANK(F593),"",IF(ISERROR(VLOOKUP(F593,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25025,7 +25009,7 @@
         <v>0</v>
       </c>
       <c r="F594" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G594" t="str">
         <f>IF(ISBLANK(F594),"",IF(ISERROR(VLOOKUP(F594,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25058,7 +25042,7 @@
         <v>0</v>
       </c>
       <c r="F595" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G595" t="str">
         <f>IF(ISBLANK(F595),"",IF(ISERROR(VLOOKUP(F595,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25091,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="F596" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G596" t="str">
         <f>IF(ISBLANK(F596),"",IF(ISERROR(VLOOKUP(F596,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25124,7 +25108,7 @@
         <v>0</v>
       </c>
       <c r="F597" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G597" t="str">
         <f>IF(ISBLANK(F597),"",IF(ISERROR(VLOOKUP(F597,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25157,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="F598" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G598" t="str">
         <f>IF(ISBLANK(F598),"",IF(ISERROR(VLOOKUP(F598,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25190,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="F599" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G599" t="str">
         <f>IF(ISBLANK(F599),"",IF(ISERROR(VLOOKUP(F599,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25223,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="F600" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G600" t="str">
         <f>IF(ISBLANK(F600),"",IF(ISERROR(VLOOKUP(F600,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25256,7 +25240,7 @@
         <v>0</v>
       </c>
       <c r="F601" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G601" t="str">
         <f>IF(ISBLANK(F601),"",IF(ISERROR(VLOOKUP(F601,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25289,7 +25273,7 @@
         <v>0</v>
       </c>
       <c r="F602" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G602" t="str">
         <f>IF(ISBLANK(F602),"",IF(ISERROR(VLOOKUP(F602,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25322,7 +25306,7 @@
         <v>0</v>
       </c>
       <c r="F603" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G603" t="str">
         <f>IF(ISBLANK(F603),"",IF(ISERROR(VLOOKUP(F603,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25355,7 +25339,7 @@
         <v>0</v>
       </c>
       <c r="F604" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G604" t="str">
         <f>IF(ISBLANK(F604),"",IF(ISERROR(VLOOKUP(F604,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25388,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="F605" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G605" t="str">
         <f>IF(ISBLANK(F605),"",IF(ISERROR(VLOOKUP(F605,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25421,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="F606" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G606" t="str">
         <f>IF(ISBLANK(F606),"",IF(ISERROR(VLOOKUP(F606,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25454,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="F607" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G607" t="str">
         <f>IF(ISBLANK(F607),"",IF(ISERROR(VLOOKUP(F607,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25487,7 +25471,7 @@
         <v>0</v>
       </c>
       <c r="F608" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G608" t="str">
         <f>IF(ISBLANK(F608),"",IF(ISERROR(VLOOKUP(F608,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25520,7 +25504,7 @@
         <v>0</v>
       </c>
       <c r="F609" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G609" t="str">
         <f>IF(ISBLANK(F609),"",IF(ISERROR(VLOOKUP(F609,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25553,7 +25537,7 @@
         <v>0</v>
       </c>
       <c r="F610" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G610" t="str">
         <f>IF(ISBLANK(F610),"",IF(ISERROR(VLOOKUP(F610,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25586,7 +25570,7 @@
         <v>0</v>
       </c>
       <c r="F611" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G611" t="str">
         <f>IF(ISBLANK(F611),"",IF(ISERROR(VLOOKUP(F611,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25619,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="F612" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G612" t="str">
         <f>IF(ISBLANK(F612),"",IF(ISERROR(VLOOKUP(F612,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25652,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="F613" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G613" t="str">
         <f>IF(ISBLANK(F613),"",IF(ISERROR(VLOOKUP(F613,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25685,7 +25669,7 @@
         <v>0</v>
       </c>
       <c r="F614" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G614" t="str">
         <f>IF(ISBLANK(F614),"",IF(ISERROR(VLOOKUP(F614,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25718,7 +25702,7 @@
         <v>0</v>
       </c>
       <c r="F615" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G615" t="str">
         <f>IF(ISBLANK(F615),"",IF(ISERROR(VLOOKUP(F615,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25751,7 +25735,7 @@
         <v>0</v>
       </c>
       <c r="F616" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G616" t="str">
         <f>IF(ISBLANK(F616),"",IF(ISERROR(VLOOKUP(F616,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25784,7 +25768,7 @@
         <v>0</v>
       </c>
       <c r="F617" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G617" t="str">
         <f>IF(ISBLANK(F617),"",IF(ISERROR(VLOOKUP(F617,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25817,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="F618" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G618" t="str">
         <f>IF(ISBLANK(F618),"",IF(ISERROR(VLOOKUP(F618,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25850,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="F619" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G619" t="str">
         <f>IF(ISBLANK(F619),"",IF(ISERROR(VLOOKUP(F619,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25883,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="F620" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G620" t="str">
         <f>IF(ISBLANK(F620),"",IF(ISERROR(VLOOKUP(F620,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25916,7 +25900,7 @@
         <v>0</v>
       </c>
       <c r="F621" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G621" t="str">
         <f>IF(ISBLANK(F621),"",IF(ISERROR(VLOOKUP(F621,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25949,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="F622" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G622" t="str">
         <f>IF(ISBLANK(F622),"",IF(ISERROR(VLOOKUP(F622,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -25982,7 +25966,7 @@
         <v>0</v>
       </c>
       <c r="F623" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G623" t="str">
         <f>IF(ISBLANK(F623),"",IF(ISERROR(VLOOKUP(F623,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26015,7 +25999,7 @@
         <v>0</v>
       </c>
       <c r="F624" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G624" t="str">
         <f>IF(ISBLANK(F624),"",IF(ISERROR(VLOOKUP(F624,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26048,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F625" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G625" t="str">
         <f>IF(ISBLANK(F625),"",IF(ISERROR(VLOOKUP(F625,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26081,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="F626" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G626" t="str">
         <f>IF(ISBLANK(F626),"",IF(ISERROR(VLOOKUP(F626,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26114,7 +26098,7 @@
         <v>0</v>
       </c>
       <c r="F627" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G627" t="str">
         <f>IF(ISBLANK(F627),"",IF(ISERROR(VLOOKUP(F627,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26147,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="F628" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G628" t="str">
         <f>IF(ISBLANK(F628),"",IF(ISERROR(VLOOKUP(F628,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26180,7 +26164,7 @@
         <v>0</v>
       </c>
       <c r="F629" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G629" t="str">
         <f>IF(ISBLANK(F629),"",IF(ISERROR(VLOOKUP(F629,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26213,7 +26197,7 @@
         <v>0</v>
       </c>
       <c r="F630" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G630" t="str">
         <f>IF(ISBLANK(F630),"",IF(ISERROR(VLOOKUP(F630,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26246,7 +26230,7 @@
         <v>0</v>
       </c>
       <c r="F631" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G631" t="str">
         <f>IF(ISBLANK(F631),"",IF(ISERROR(VLOOKUP(F631,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26279,7 +26263,7 @@
         <v>0</v>
       </c>
       <c r="F632" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G632" t="str">
         <f>IF(ISBLANK(F632),"",IF(ISERROR(VLOOKUP(F632,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26312,7 +26296,7 @@
         <v>0</v>
       </c>
       <c r="F633" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G633" t="str">
         <f>IF(ISBLANK(F633),"",IF(ISERROR(VLOOKUP(F633,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26348,7 +26332,7 @@
         <v>0</v>
       </c>
       <c r="F634" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G634" t="str">
         <f>IF(ISBLANK(F634),"",IF(ISERROR(VLOOKUP(F634,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26381,7 +26365,7 @@
         <v>0</v>
       </c>
       <c r="F635" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G635" t="str">
         <f>IF(ISBLANK(F635),"",IF(ISERROR(VLOOKUP(F635,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26414,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="F636" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G636" t="str">
         <f>IF(ISBLANK(F636),"",IF(ISERROR(VLOOKUP(F636,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26447,7 +26431,7 @@
         <v>0</v>
       </c>
       <c r="F637" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G637" t="str">
         <f>IF(ISBLANK(F637),"",IF(ISERROR(VLOOKUP(F637,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26480,7 +26464,7 @@
         <v>0</v>
       </c>
       <c r="F638" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G638" t="str">
         <f>IF(ISBLANK(F638),"",IF(ISERROR(VLOOKUP(F638,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26513,7 +26497,7 @@
         <v>0</v>
       </c>
       <c r="F639" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G639" t="str">
         <f>IF(ISBLANK(F639),"",IF(ISERROR(VLOOKUP(F639,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26546,7 +26530,7 @@
         <v>0</v>
       </c>
       <c r="F640" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G640" t="str">
         <f>IF(ISBLANK(F640),"",IF(ISERROR(VLOOKUP(F640,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26579,7 +26563,7 @@
         <v>0</v>
       </c>
       <c r="F641" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G641" t="str">
         <f>IF(ISBLANK(F641),"",IF(ISERROR(VLOOKUP(F641,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26612,7 +26596,7 @@
         <v>0</v>
       </c>
       <c r="F642" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G642" t="str">
         <f>IF(ISBLANK(F642),"",IF(ISERROR(VLOOKUP(F642,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26645,7 +26629,7 @@
         <v>0</v>
       </c>
       <c r="F643" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G643" t="str">
         <f>IF(ISBLANK(F643),"",IF(ISERROR(VLOOKUP(F643,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26680,7 +26664,7 @@
         <v>0</v>
       </c>
       <c r="F644" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G644" t="str">
         <f>IF(ISBLANK(F644),"",IF(ISERROR(VLOOKUP(F644,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26713,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="F645" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G645" t="str">
         <f>IF(ISBLANK(F645),"",IF(ISERROR(VLOOKUP(F645,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26746,7 +26730,7 @@
         <v>0</v>
       </c>
       <c r="F646" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G646" t="str">
         <f>IF(ISBLANK(F646),"",IF(ISERROR(VLOOKUP(F646,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26779,7 +26763,7 @@
         <v>0</v>
       </c>
       <c r="F647" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G647" t="str">
         <f>IF(ISBLANK(F647),"",IF(ISERROR(VLOOKUP(F647,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26812,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="F648" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G648" t="str">
         <f>IF(ISBLANK(F648),"",IF(ISERROR(VLOOKUP(F648,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26845,7 +26829,7 @@
         <v>0</v>
       </c>
       <c r="F649" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G649" t="str">
         <f>IF(ISBLANK(F649),"",IF(ISERROR(VLOOKUP(F649,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26878,7 +26862,7 @@
         <v>0</v>
       </c>
       <c r="F650" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G650" t="str">
         <f>IF(ISBLANK(F650),"",IF(ISERROR(VLOOKUP(F650,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26911,7 +26895,7 @@
         <v>0</v>
       </c>
       <c r="F651" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G651" t="str">
         <f>IF(ISBLANK(F651),"",IF(ISERROR(VLOOKUP(F651,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26944,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="F652" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G652" t="str">
         <f>IF(ISBLANK(F652),"",IF(ISERROR(VLOOKUP(F652,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -26977,7 +26961,7 @@
         <v>0</v>
       </c>
       <c r="F653" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G653" t="str">
         <f>IF(ISBLANK(F653),"",IF(ISERROR(VLOOKUP(F653,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27010,7 +26994,7 @@
         <v>0</v>
       </c>
       <c r="F654" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G654" t="str">
         <f>IF(ISBLANK(F654),"",IF(ISERROR(VLOOKUP(F654,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27043,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="F655" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G655" t="str">
         <f>IF(ISBLANK(F655),"",IF(ISERROR(VLOOKUP(F655,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27076,7 +27060,7 @@
         <v>0</v>
       </c>
       <c r="F656" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G656" t="str">
         <f>IF(ISBLANK(F656),"",IF(ISERROR(VLOOKUP(F656,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27109,7 +27093,7 @@
         <v>0</v>
       </c>
       <c r="F657" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G657" t="str">
         <f>IF(ISBLANK(F657),"",IF(ISERROR(VLOOKUP(F657,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27142,7 +27126,7 @@
         <v>0</v>
       </c>
       <c r="F658" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G658" t="str">
         <f>IF(ISBLANK(F658),"",IF(ISERROR(VLOOKUP(F658,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27175,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="F659" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G659" t="str">
         <f>IF(ISBLANK(F659),"",IF(ISERROR(VLOOKUP(F659,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27208,7 +27192,7 @@
         <v>0</v>
       </c>
       <c r="F660" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G660" t="str">
         <f>IF(ISBLANK(F660),"",IF(ISERROR(VLOOKUP(F660,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27241,7 +27225,7 @@
         <v>0</v>
       </c>
       <c r="F661" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G661" t="str">
         <f>IF(ISBLANK(F661),"",IF(ISERROR(VLOOKUP(F661,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27274,7 +27258,7 @@
         <v>0</v>
       </c>
       <c r="F662" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G662" t="str">
         <f>IF(ISBLANK(F662),"",IF(ISERROR(VLOOKUP(F662,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27307,7 +27291,7 @@
         <v>0</v>
       </c>
       <c r="F663" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G663" t="str">
         <f>IF(ISBLANK(F663),"",IF(ISERROR(VLOOKUP(F663,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27340,7 +27324,7 @@
         <v>0</v>
       </c>
       <c r="F664" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G664" t="str">
         <f>IF(ISBLANK(F664),"",IF(ISERROR(VLOOKUP(F664,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27373,7 +27357,7 @@
         <v>0</v>
       </c>
       <c r="F665" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G665" t="str">
         <f>IF(ISBLANK(F665),"",IF(ISERROR(VLOOKUP(F665,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27406,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F666" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G666" t="str">
         <f>IF(ISBLANK(F666),"",IF(ISERROR(VLOOKUP(F666,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27439,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="F667" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G667" t="str">
         <f>IF(ISBLANK(F667),"",IF(ISERROR(VLOOKUP(F667,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27472,7 +27456,7 @@
         <v>0</v>
       </c>
       <c r="F668" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G668" t="str">
         <f>IF(ISBLANK(F668),"",IF(ISERROR(VLOOKUP(F668,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27505,7 +27489,7 @@
         <v>0</v>
       </c>
       <c r="F669" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G669" t="str">
         <f>IF(ISBLANK(F669),"",IF(ISERROR(VLOOKUP(F669,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27538,7 +27522,7 @@
         <v>0</v>
       </c>
       <c r="F670" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G670" t="str">
         <f>IF(ISBLANK(F670),"",IF(ISERROR(VLOOKUP(F670,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27571,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="F671" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G671" t="str">
         <f>IF(ISBLANK(F671),"",IF(ISERROR(VLOOKUP(F671,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27604,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="F672" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G672" t="str">
         <f>IF(ISBLANK(F672),"",IF(ISERROR(VLOOKUP(F672,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27637,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="F673" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G673" t="str">
         <f>IF(ISBLANK(F673),"",IF(ISERROR(VLOOKUP(F673,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27670,7 +27654,7 @@
         <v>0</v>
       </c>
       <c r="F674" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G674" t="str">
         <f>IF(ISBLANK(F674),"",IF(ISERROR(VLOOKUP(F674,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27703,7 +27687,7 @@
         <v>0</v>
       </c>
       <c r="F675" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G675" t="str">
         <f>IF(ISBLANK(F675),"",IF(ISERROR(VLOOKUP(F675,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27736,7 +27720,7 @@
         <v>0</v>
       </c>
       <c r="F676" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G676" t="str">
         <f>IF(ISBLANK(F676),"",IF(ISERROR(VLOOKUP(F676,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27769,7 +27753,7 @@
         <v>0</v>
       </c>
       <c r="F677" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G677" t="str">
         <f>IF(ISBLANK(F677),"",IF(ISERROR(VLOOKUP(F677,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27802,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="F678" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G678" t="str">
         <f>IF(ISBLANK(F678),"",IF(ISERROR(VLOOKUP(F678,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27835,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="F679" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G679" t="str">
         <f>IF(ISBLANK(F679),"",IF(ISERROR(VLOOKUP(F679,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27868,7 +27852,7 @@
         <v>0</v>
       </c>
       <c r="F680" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G680" t="str">
         <f>IF(ISBLANK(F680),"",IF(ISERROR(VLOOKUP(F680,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27901,7 +27885,7 @@
         <v>0</v>
       </c>
       <c r="F681" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G681" t="str">
         <f>IF(ISBLANK(F681),"",IF(ISERROR(VLOOKUP(F681,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27934,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="F682" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G682" t="str">
         <f>IF(ISBLANK(F682),"",IF(ISERROR(VLOOKUP(F682,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -27967,7 +27951,7 @@
         <v>0</v>
       </c>
       <c r="F683" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G683" t="str">
         <f>IF(ISBLANK(F683),"",IF(ISERROR(VLOOKUP(F683,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28000,7 +27984,7 @@
         <v>0</v>
       </c>
       <c r="F684" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G684" t="str">
         <f>IF(ISBLANK(F684),"",IF(ISERROR(VLOOKUP(F684,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28033,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="F685" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G685" t="str">
         <f>IF(ISBLANK(F685),"",IF(ISERROR(VLOOKUP(F685,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28066,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="F686" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G686" t="str">
         <f>IF(ISBLANK(F686),"",IF(ISERROR(VLOOKUP(F686,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28099,7 +28083,7 @@
         <v>0</v>
       </c>
       <c r="F687" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G687" t="str">
         <f>IF(ISBLANK(F687),"",IF(ISERROR(VLOOKUP(F687,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28132,7 +28116,7 @@
         <v>0</v>
       </c>
       <c r="F688" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G688" t="str">
         <f>IF(ISBLANK(F688),"",IF(ISERROR(VLOOKUP(F688,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28165,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="F689" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G689" t="str">
         <f>IF(ISBLANK(F689),"",IF(ISERROR(VLOOKUP(F689,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28198,7 +28182,7 @@
         <v>0</v>
       </c>
       <c r="F690" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G690" t="str">
         <f>IF(ISBLANK(F690),"",IF(ISERROR(VLOOKUP(F690,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28231,7 +28215,7 @@
         <v>0</v>
       </c>
       <c r="F691" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G691" t="str">
         <f>IF(ISBLANK(F691),"",IF(ISERROR(VLOOKUP(F691,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28264,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="F692" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G692" t="str">
         <f>IF(ISBLANK(F692),"",IF(ISERROR(VLOOKUP(F692,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28297,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="F693" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G693" t="str">
         <f>IF(ISBLANK(F693),"",IF(ISERROR(VLOOKUP(F693,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28330,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="F694" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G694" t="str">
         <f>IF(ISBLANK(F694),"",IF(ISERROR(VLOOKUP(F694,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28363,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="F695" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G695" t="str">
         <f>IF(ISBLANK(F695),"",IF(ISERROR(VLOOKUP(F695,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28396,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="F696" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G696" t="str">
         <f>IF(ISBLANK(F696),"",IF(ISERROR(VLOOKUP(F696,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28429,7 +28413,7 @@
         <v>0</v>
       </c>
       <c r="F697" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G697" t="str">
         <f>IF(ISBLANK(F697),"",IF(ISERROR(VLOOKUP(F697,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28465,7 +28449,7 @@
         <v>0</v>
       </c>
       <c r="F698" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G698" t="str">
         <f>IF(ISBLANK(F698),"",IF(ISERROR(VLOOKUP(F698,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28498,7 +28482,7 @@
         <v>0</v>
       </c>
       <c r="F699" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G699" t="str">
         <f>IF(ISBLANK(F699),"",IF(ISERROR(VLOOKUP(F699,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28531,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="F700" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G700" t="str">
         <f>IF(ISBLANK(F700),"",IF(ISERROR(VLOOKUP(F700,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28564,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="F701" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G701" t="str">
         <f>IF(ISBLANK(F701),"",IF(ISERROR(VLOOKUP(F701,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28597,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="F702" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G702" t="str">
         <f>IF(ISBLANK(F702),"",IF(ISERROR(VLOOKUP(F702,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28630,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="F703" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G703" t="str">
         <f>IF(ISBLANK(F703),"",IF(ISERROR(VLOOKUP(F703,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28663,7 +28647,7 @@
         <v>0</v>
       </c>
       <c r="F704" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G704" t="str">
         <f>IF(ISBLANK(F704),"",IF(ISERROR(VLOOKUP(F704,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28696,7 +28680,7 @@
         <v>0</v>
       </c>
       <c r="F705" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G705" t="str">
         <f>IF(ISBLANK(F705),"",IF(ISERROR(VLOOKUP(F705,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28729,7 +28713,7 @@
         <v>0</v>
       </c>
       <c r="F706" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G706" t="str">
         <f>IF(ISBLANK(F706),"",IF(ISERROR(VLOOKUP(F706,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28762,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="F707" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G707" t="str">
         <f>IF(ISBLANK(F707),"",IF(ISERROR(VLOOKUP(F707,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28797,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="F708" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G708" t="str">
         <f>IF(ISBLANK(F708),"",IF(ISERROR(VLOOKUP(F708,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28830,7 +28814,7 @@
         <v>0</v>
       </c>
       <c r="F709" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G709" t="str">
         <f>IF(ISBLANK(F709),"",IF(ISERROR(VLOOKUP(F709,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28863,7 +28847,7 @@
         <v>0</v>
       </c>
       <c r="F710" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G710" t="str">
         <f>IF(ISBLANK(F710),"",IF(ISERROR(VLOOKUP(F710,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28896,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="F711" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G711" t="str">
         <f>IF(ISBLANK(F711),"",IF(ISERROR(VLOOKUP(F711,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28929,7 +28913,7 @@
         <v>0</v>
       </c>
       <c r="F712" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G712" t="str">
         <f>IF(ISBLANK(F712),"",IF(ISERROR(VLOOKUP(F712,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28962,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="F713" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G713" t="str">
         <f>IF(ISBLANK(F713),"",IF(ISERROR(VLOOKUP(F713,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -28995,7 +28979,7 @@
         <v>0</v>
       </c>
       <c r="F714" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G714" t="str">
         <f>IF(ISBLANK(F714),"",IF(ISERROR(VLOOKUP(F714,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29028,7 +29012,7 @@
         <v>0</v>
       </c>
       <c r="F715" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G715" t="str">
         <f>IF(ISBLANK(F715),"",IF(ISERROR(VLOOKUP(F715,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29061,7 +29045,7 @@
         <v>0</v>
       </c>
       <c r="F716" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G716" t="str">
         <f>IF(ISBLANK(F716),"",IF(ISERROR(VLOOKUP(F716,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29094,7 +29078,7 @@
         <v>0</v>
       </c>
       <c r="F717" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G717" t="str">
         <f>IF(ISBLANK(F717),"",IF(ISERROR(VLOOKUP(F717,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29127,7 +29111,7 @@
         <v>0</v>
       </c>
       <c r="F718" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G718" t="str">
         <f>IF(ISBLANK(F718),"",IF(ISERROR(VLOOKUP(F718,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29160,7 +29144,7 @@
         <v>0</v>
       </c>
       <c r="F719" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G719" t="str">
         <f>IF(ISBLANK(F719),"",IF(ISERROR(VLOOKUP(F719,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29193,7 +29177,7 @@
         <v>0</v>
       </c>
       <c r="F720" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G720" t="str">
         <f>IF(ISBLANK(F720),"",IF(ISERROR(VLOOKUP(F720,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29226,7 +29210,7 @@
         <v>0</v>
       </c>
       <c r="F721" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G721" t="str">
         <f>IF(ISBLANK(F721),"",IF(ISERROR(VLOOKUP(F721,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29259,7 +29243,7 @@
         <v>0</v>
       </c>
       <c r="F722" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G722" t="str">
         <f>IF(ISBLANK(F722),"",IF(ISERROR(VLOOKUP(F722,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29292,7 +29276,7 @@
         <v>0</v>
       </c>
       <c r="F723" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G723" t="str">
         <f>IF(ISBLANK(F723),"",IF(ISERROR(VLOOKUP(F723,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29325,7 +29309,7 @@
         <v>0</v>
       </c>
       <c r="F724" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G724" t="str">
         <f>IF(ISBLANK(F724),"",IF(ISERROR(VLOOKUP(F724,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29358,7 +29342,7 @@
         <v>0</v>
       </c>
       <c r="F725" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G725" t="str">
         <f>IF(ISBLANK(F725),"",IF(ISERROR(VLOOKUP(F725,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29391,7 +29375,7 @@
         <v>0</v>
       </c>
       <c r="F726" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G726" t="str">
         <f>IF(ISBLANK(F726),"",IF(ISERROR(VLOOKUP(F726,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29424,7 +29408,7 @@
         <v>0</v>
       </c>
       <c r="F727" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G727" t="str">
         <f>IF(ISBLANK(F727),"",IF(ISERROR(VLOOKUP(F727,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29457,7 +29441,7 @@
         <v>0</v>
       </c>
       <c r="F728" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G728" t="str">
         <f>IF(ISBLANK(F728),"",IF(ISERROR(VLOOKUP(F728,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29490,7 +29474,7 @@
         <v>0</v>
       </c>
       <c r="F729" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G729" t="str">
         <f>IF(ISBLANK(F729),"",IF(ISERROR(VLOOKUP(F729,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29523,7 +29507,7 @@
         <v>0</v>
       </c>
       <c r="F730" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G730" t="str">
         <f>IF(ISBLANK(F730),"",IF(ISERROR(VLOOKUP(F730,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29556,7 +29540,7 @@
         <v>0</v>
       </c>
       <c r="F731" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G731" t="str">
         <f>IF(ISBLANK(F731),"",IF(ISERROR(VLOOKUP(F731,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29589,7 +29573,7 @@
         <v>0</v>
       </c>
       <c r="F732" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G732" t="str">
         <f>IF(ISBLANK(F732),"",IF(ISERROR(VLOOKUP(F732,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29622,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="F733" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G733" t="str">
         <f>IF(ISBLANK(F733),"",IF(ISERROR(VLOOKUP(F733,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29655,7 +29639,7 @@
         <v>0</v>
       </c>
       <c r="F734" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G734" t="str">
         <f>IF(ISBLANK(F734),"",IF(ISERROR(VLOOKUP(F734,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29688,7 +29672,7 @@
         <v>0</v>
       </c>
       <c r="F735" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G735" t="str">
         <f>IF(ISBLANK(F735),"",IF(ISERROR(VLOOKUP(F735,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29721,7 +29705,7 @@
         <v>0</v>
       </c>
       <c r="F736" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G736" t="str">
         <f>IF(ISBLANK(F736),"",IF(ISERROR(VLOOKUP(F736,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29754,7 +29738,7 @@
         <v>0</v>
       </c>
       <c r="F737" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G737" t="str">
         <f>IF(ISBLANK(F737),"",IF(ISERROR(VLOOKUP(F737,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29787,7 +29771,7 @@
         <v>0</v>
       </c>
       <c r="F738" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G738" t="str">
         <f>IF(ISBLANK(F738),"",IF(ISERROR(VLOOKUP(F738,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29820,7 +29804,7 @@
         <v>0</v>
       </c>
       <c r="F739" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G739" t="str">
         <f>IF(ISBLANK(F739),"",IF(ISERROR(VLOOKUP(F739,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29853,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="F740" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G740" t="str">
         <f>IF(ISBLANK(F740),"",IF(ISERROR(VLOOKUP(F740,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29886,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="F741" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G741" t="str">
         <f>IF(ISBLANK(F741),"",IF(ISERROR(VLOOKUP(F741,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29919,7 +29903,7 @@
         <v>0</v>
       </c>
       <c r="F742" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G742" t="str">
         <f>IF(ISBLANK(F742),"",IF(ISERROR(VLOOKUP(F742,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29952,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="F743" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G743" t="str">
         <f>IF(ISBLANK(F743),"",IF(ISERROR(VLOOKUP(F743,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -29985,7 +29969,7 @@
         <v>0</v>
       </c>
       <c r="F744" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G744" t="str">
         <f>IF(ISBLANK(F744),"",IF(ISERROR(VLOOKUP(F744,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -30018,7 +30002,7 @@
         <v>0</v>
       </c>
       <c r="F745" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G745" t="str">
         <f>IF(ISBLANK(F745),"",IF(ISERROR(VLOOKUP(F745,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -30051,7 +30035,7 @@
         <v>0</v>
       </c>
       <c r="F746" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G746" t="str">
         <f>IF(ISBLANK(F746),"",IF(ISERROR(VLOOKUP(F746,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -30084,7 +30068,7 @@
         <v>0</v>
       </c>
       <c r="F747" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G747" t="str">
         <f>IF(ISBLANK(F747),"",IF(ISERROR(VLOOKUP(F747,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -30117,7 +30101,7 @@
         <v>0</v>
       </c>
       <c r="F748" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G748" t="str">
         <f>IF(ISBLANK(F748),"",IF(ISERROR(VLOOKUP(F748,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -30150,7 +30134,7 @@
         <v>0</v>
       </c>
       <c r="F749" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G749" t="str">
         <f>IF(ISBLANK(F749),"",IF(ISERROR(VLOOKUP(F749,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -30183,7 +30167,7 @@
         <v>0</v>
       </c>
       <c r="F750" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G750" t="str">
         <f>IF(ISBLANK(F750),"",IF(ISERROR(VLOOKUP(F750,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -30216,7 +30200,7 @@
         <v>0</v>
       </c>
       <c r="F751" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G751" t="str">
         <f>IF(ISBLANK(F751),"",IF(ISERROR(VLOOKUP(F751,MapTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -30277,7 +30261,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A1:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -30303,8 +30287,9 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
+      <c r="B1" t="str">
+        <f>"총 "&amp;COUNTA(StageTable!$F:$F)-1+COUNTA(StageTable!$J:$J)-1+COUNTA(StageTable!$L:$L)-1&amp;"개"</f>
+        <v>총 751개</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -30313,33 +30298,33 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <f>COUNTIF(StageTable!F:F,A2)
@@ -30348,39 +30333,39 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <f>COUNTIF(C:C,H2)</f>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="L2">
         <f>COUNTIF(D:D,K2)</f>
         <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="O2">
         <f>COUNTIF(E:E,N2)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <f>COUNTIF(StageTable!F:F,A3)
@@ -30389,32 +30374,39 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I3">
         <f>COUNTIF(C:C,H3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L7" si="0">COUNTIF(D:D,K3)</f>
+        <f>COUNTIF(D:D,K3)</f>
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O13" si="0">COUNTIF(E:E,N3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <f>COUNTIF(StageTable!F:F,A4)
@@ -30423,32 +30415,39 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <f>COUNTIF(C:C,H4)</f>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="L4">
+        <f>COUNTIF(D:D,K4)</f>
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <f>COUNTIF(StageTable!F:F,A5)
@@ -30457,25 +30456,32 @@
         <v>731</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L5">
+        <f>COUNTIF(D:D,K5)</f>
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <f>COUNTIF(StageTable!F:F,A6)
@@ -30484,25 +30490,32 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="L6">
+        <f>COUNTIF(D:D,K6)</f>
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <f>COUNTIF(StageTable!F:F,A7)
@@ -30511,25 +30524,32 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L7">
+        <f>COUNTIF(D:D,K7)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <f>COUNTIF(StageTable!F:F,A8)
@@ -30538,18 +30558,32 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L10" si="1">COUNTIF(D:D,K8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <f>COUNTIF(StageTable!F:F,A9)
@@ -30558,18 +30592,32 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="K9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <f>COUNTIF(StageTable!F:F,A10)
@@ -30578,18 +30626,32 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>69</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <f>COUNTIF(StageTable!F:F,A11)
@@ -30598,18 +30660,25 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <f>COUNTIF(StageTable!F:F,A12)
@@ -30618,18 +30687,25 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="N12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <f>COUNTIF(StageTable!F:F,A13)
@@ -30638,18 +30714,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="N13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <f>COUNTIF(StageTable!F:F,A14)
@@ -30658,18 +30741,18 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <f>COUNTIF(StageTable!F:F,A15)
@@ -30678,18 +30761,18 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <f>COUNTIF(StageTable!F:F,A16)
@@ -30698,18 +30781,18 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <f>COUNTIF(StageTable!F:F,A17)
@@ -30718,18 +30801,18 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <f>COUNTIF(StageTable!F:F,A18)
@@ -30738,18 +30821,18 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <f>COUNTIF(StageTable!F:F,A19)
@@ -30758,18 +30841,18 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <f>COUNTIF(StageTable!F:F,A20)
@@ -30778,18 +30861,18 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <f>COUNTIF(StageTable!F:F,A21)
@@ -30798,18 +30881,18 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <f>COUNTIF(StageTable!F:F,A22)
@@ -30818,13 +30901,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -30838,7 +30921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDB0DF-5C8E-46E0-A66A-0B4AF86ECDFD}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -30859,10 +30942,10 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -30902,7 +30985,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">

--- a/Excel/작업Stage.xlsx
+++ b/Excel/작업Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7209108C-8230-4C1B-B336-CDEEFDA274FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620DF407-93DB-41DA-9BEC-D8273D570CFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
@@ -30259,9 +30259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2487F097-5B1E-4529-BAA7-5797925F01BC}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A1:F22"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -30352,7 +30352,7 @@
         <v>87</v>
       </c>
       <c r="L2">
-        <f>COUNTIF(D:D,K2)</f>
+        <f t="shared" ref="L2:L7" si="0">COUNTIF(D:D,K2)</f>
         <v>16</v>
       </c>
       <c r="N2" t="s">
@@ -30393,14 +30393,14 @@
         <v>60</v>
       </c>
       <c r="L3">
-        <f>COUNTIF(D:D,K3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>70</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O13" si="0">COUNTIF(E:E,N3)</f>
+        <f t="shared" ref="O3:O13" si="1">COUNTIF(E:E,N3)</f>
         <v>1</v>
       </c>
     </row>
@@ -30434,14 +30434,14 @@
         <v>62</v>
       </c>
       <c r="L4">
-        <f>COUNTIF(D:D,K4)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
         <v>71</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30468,14 +30468,14 @@
         <v>64</v>
       </c>
       <c r="L5">
-        <f>COUNTIF(D:D,K5)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
         <v>72</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30502,14 +30502,14 @@
         <v>67</v>
       </c>
       <c r="L6">
-        <f>COUNTIF(D:D,K6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N6" t="s">
         <v>73</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30536,14 +30536,14 @@
         <v>81</v>
       </c>
       <c r="L7">
-        <f>COUNTIF(D:D,K7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7" t="s">
         <v>74</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -30570,14 +30570,14 @@
         <v>82</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L10" si="1">COUNTIF(D:D,K8)</f>
+        <f t="shared" ref="L8:L10" si="2">COUNTIF(D:D,K8)</f>
         <v>0</v>
       </c>
       <c r="N8" t="s">
         <v>75</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -30604,14 +30604,14 @@
         <v>83</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9" t="s">
         <v>76</v>
       </c>
       <c r="O9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -30638,14 +30638,14 @@
         <v>84</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N10" t="s">
         <v>77</v>
       </c>
       <c r="O10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -30672,7 +30672,7 @@
         <v>85</v>
       </c>
       <c r="O11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30699,7 +30699,7 @@
         <v>86</v>
       </c>
       <c r="O12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -30726,7 +30726,7 @@
         <v>78</v>
       </c>
       <c r="O13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -30904,7 +30904,7 @@
         <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
         <v>79</v>
@@ -30921,7 +30921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDB0DF-5C8E-46E0-A66A-0B4AF86ECDFD}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/작업Stage.xlsx
+++ b/Excel/작업Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620DF407-93DB-41DA-9BEC-D8273D570CFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF01C0-5D5F-4F7F-A12D-35A7DC67F869}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="89">
   <si>
     <t>chapter|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,10 @@
   </si>
   <si>
     <t>Wall_0_Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss|Bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -30259,7 +30263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2487F097-5B1E-4529-BAA7-5797925F01BC}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -30919,16 +30923,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDB0DF-5C8E-46E0-A66A-0B4AF86ECDFD}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -30947,8 +30951,11 @@
       <c r="F1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -30967,8 +30974,11 @@
       <c r="F2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -30987,8 +30997,11 @@
       <c r="F3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -31006,6 +31019,9 @@
       </c>
       <c r="F4">
         <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Stage.xlsx
+++ b/Excel/작업Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF01C0-5D5F-4F7F-A12D-35A7DC67F869}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817E868F-9AED-4D2B-8BF1-3C8AB04C77F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
   </bookViews>
@@ -30974,7 +30974,7 @@
       <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -30997,7 +30997,7 @@
       <c r="F3">
         <v>2.5</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -31020,7 +31020,7 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/작업Stage.xlsx
+++ b/Excel/작업Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817E868F-9AED-4D2B-8BF1-3C8AB04C77F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4546562-8EB5-467F-B371-7E46ABFA9839}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="89">
   <si>
     <t>chapter|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spawnFlag_24_36_Middle2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Map_1xAngel1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,6 +341,10 @@
   </si>
   <si>
     <t>boss|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MadcapBoss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,25 +767,25 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
         <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -829,7 +829,7 @@
         <v/>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M2" t="str">
         <f>IF(ISBLANK(L2),"",
@@ -1046,7 +1046,7 @@
         <v/>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" t="str">
         <f>IF(ISBLANK(L6),"",
@@ -1581,7 +1581,7 @@
         <v/>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M16" t="str">
         <f>IF(ISBLANK(L16),"",
@@ -30305,7 +30305,7 @@
         <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
@@ -30337,13 +30337,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -30353,14 +30353,14 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L7" si="0">COUNTIF(D:D,K2)</f>
         <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O2">
         <f>COUNTIF(E:E,N2)</f>
@@ -30378,13 +30378,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -30394,14 +30394,14 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O13" si="1">COUNTIF(E:E,N3)</f>
@@ -30419,13 +30419,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -30435,14 +30435,14 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
@@ -30460,23 +30460,23 @@
         <v>731</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
@@ -30494,23 +30494,23 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
@@ -30528,23 +30528,23 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
         <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" t="s">
-        <v>81</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
@@ -30562,23 +30562,23 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8:L10" si="2">COUNTIF(D:D,K8)</f>
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
@@ -30596,23 +30596,23 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
@@ -30630,23 +30630,23 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
@@ -30664,20 +30664,20 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -30691,20 +30691,20 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -30718,16 +30718,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
@@ -30745,13 +30745,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -30765,13 +30765,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -30785,13 +30785,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -30805,13 +30805,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -30825,13 +30825,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -30845,10 +30845,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -30865,18 +30865,18 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <f>COUNTIF(StageTable!F:F,A21)
@@ -30885,18 +30885,18 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <f>COUNTIF(StageTable!F:F,A22)
@@ -30905,13 +30905,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -30923,9 +30923,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDB0DF-5C8E-46E0-A66A-0B4AF86ECDFD}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -30946,13 +30948,13 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -31022,6 +31024,29 @@
       </c>
       <c r="G4" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Stage.xlsx
+++ b/Excel/작업Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4546562-8EB5-467F-B371-7E46ABFA9839}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1067BD60-36A0-48C0-8452-F12AE46072B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="90">
   <si>
     <t>chapter|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +345,10 @@
   </si>
   <si>
     <t>MadcapBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossHpRatioPer1Line|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,9 +729,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD089199-7F78-438F-98D3-F9F9DD953178}">
-  <dimension ref="A1:M751"/>
+  <dimension ref="A1:N751"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -747,7 +751,7 @@
     <col min="13" max="13" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -787,8 +791,11 @@
       <c r="M1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -849,7 +856,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -904,7 +911,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -958,7 +965,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1012,7 +1019,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1066,7 +1073,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1119,7 +1126,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1172,7 +1179,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1225,7 +1232,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1278,7 +1285,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1330,8 +1337,11 @@
 )))))</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1385,7 +1395,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1439,7 +1449,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1493,7 +1503,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1547,7 +1557,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1601,7 +1611,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1655,7 +1665,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1709,7 +1719,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1763,7 +1773,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1817,7 +1827,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1870,8 +1880,11 @@
 )))))</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1925,7 +1938,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1979,7 +1992,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2033,7 +2046,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2087,7 +2100,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2141,7 +2154,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2195,7 +2208,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2249,7 +2262,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2303,7 +2316,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2357,7 +2370,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2411,7 +2424,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -30925,7 +30938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDB0DF-5C8E-46E0-A66A-0B4AF86ECDFD}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업Stage.xlsx
+++ b/Excel/작업Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBDAE5E-E00F-4A43-B8E1-CB612705BE18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A78E647-B4AC-4C82-9163-498B222ED955}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
@@ -1496,11 +1496,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addDrop|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>initialDropSp|float</t>
   </si>
   <si>
-    <t>initialDropSp|float</t>
+    <t>addDropId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1611,6 +1611,11 @@
         </row>
         <row r="3">
           <cell r="A3">
+            <v>1002</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
             <v>5001</v>
           </cell>
         </row>
@@ -1919,9 +1924,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD089199-7F78-438F-98D3-F9F9DD953178}">
   <dimension ref="A1:Q772"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -46651,7 +46656,7 @@
         <v>12</v>
       </c>
       <c r="I770" t="b">
-        <f t="shared" ref="I770:I833" ca="1" si="39">IF((COUNTIF(A:A,A770)-1)=B770,FALSE,
+        <f t="shared" ref="I770:I772" ca="1" si="39">IF((COUNTIF(A:A,A770)-1)=B770,FALSE,
 IF(H770=12,TRUE,
 IF(OFFSET(H770,1,0)=12,TRUE)))</f>
         <v>1</v>
@@ -47500,7 +47505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDB0DF-5C8E-46E0-A66A-0B4AF86ECDFD}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -47530,10 +47535,10 @@
         <v>87</v>
       </c>
       <c r="H1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" t="s">
         <v>93</v>
-      </c>
-      <c r="I1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -47635,6 +47640,9 @@
       </c>
       <c r="G5" t="b">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1002</v>
       </c>
       <c r="I5">
         <v>30</v>

--- a/Excel/작업Stage.xlsx
+++ b/Excel/작업Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A78E647-B4AC-4C82-9163-498B222ED955}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF50E896-1AB0-401A-BBFC-5102807D5B4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{566BA174-F383-48D7-A97F-7F70BBC36EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="StageTable" sheetId="1" r:id="rId1"/>
@@ -1924,9 +1924,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD089199-7F78-438F-98D3-F9F9DD953178}">
   <dimension ref="A1:Q772"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1943,7 +1943,7 @@
     <col min="12" max="12" width="21.375" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="9" collapsed="1"/>
-    <col min="16" max="16" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="9" collapsed="1"/>
   </cols>
   <sheetData>
@@ -47505,7 +47505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDB0DF-5C8E-46E0-A66A-0B4AF86ECDFD}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
